--- a/output/09-specific-design.xlsx
+++ b/output/09-specific-design.xlsx
@@ -10,6 +10,7 @@
     <sheet name="descriptives" sheetId="1" r:id="rId1"/>
     <sheet name="coefficients" sheetId="2" r:id="rId2"/>
     <sheet name="pairwise" sheetId="3" r:id="rId3"/>
+    <sheet name="nr_studies" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -408,25 +409,25 @@
         </is>
       </c>
       <c r="B2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C2">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="D2">
-        <v>0.008747558669004889</v>
+        <v>0.009982515980106564</v>
       </c>
       <c r="E2">
-        <v>0.02454276994440365</v>
+        <v>0.02320409922871177</v>
       </c>
       <c r="F2">
-        <v>94.48300010675544</v>
+        <v>94.45594721461916</v>
       </c>
       <c r="G2">
-        <v>69.65610229342037</v>
+        <v>66.04364916755925</v>
       </c>
       <c r="H2">
-        <v>24.82689781333507</v>
+        <v>28.41229804705991</v>
       </c>
     </row>
     <row r="3">
@@ -436,25 +437,25 @@
         </is>
       </c>
       <c r="B3">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D3">
-        <v>3.584456615616611e-09</v>
+        <v>7.925617209619455e-09</v>
       </c>
       <c r="E3">
-        <v>0.02330154336772803</v>
+        <v>0.0206009147855392</v>
       </c>
       <c r="F3">
-        <v>88.26360803184464</v>
+        <v>86.32012393380562</v>
       </c>
       <c r="G3">
-        <v>88.26359445433091</v>
+        <v>86.3200907246009</v>
       </c>
       <c r="H3">
-        <v>1.357751373233505e-05</v>
+        <v>3.320920472245442e-05</v>
       </c>
     </row>
   </sheetData>
@@ -464,7 +465,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H129"/>
+  <dimension ref="A1:H160"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -524,22 +525,22 @@
         </is>
       </c>
       <c r="C2">
-        <v>0.1509031501759657</v>
+        <v>0.1509031501759659</v>
       </c>
       <c r="D2">
-        <v>5.789573023436185e-16</v>
+        <v>1.663526574924202e-15</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.1509031501759585</v>
+        <v>0.1509031501759452</v>
       </c>
       <c r="G2">
-        <v>0.1509031501759729</v>
+        <v>0.1509031501759866</v>
       </c>
       <c r="H2">
-        <v>2.423811333993631e-15</v>
+        <v>6.964372934548106e-15</v>
       </c>
     </row>
     <row r="3">
@@ -554,22 +555,22 @@
         </is>
       </c>
       <c r="C3">
-        <v>-0.2886845470587346</v>
+        <v>-0.2856375863784066</v>
       </c>
       <c r="D3">
-        <v>0.07176109744617215</v>
+        <v>0.07331887904621388</v>
       </c>
       <c r="E3">
-        <v>3.199266940470383</v>
+        <v>3.279942366341496</v>
       </c>
       <c r="F3">
-        <v>-0.4758970279264057</v>
+        <v>-0.4748173562530525</v>
       </c>
       <c r="G3">
-        <v>-0.07644527211339207</v>
+        <v>-0.07122714447237684</v>
       </c>
       <c r="H3">
-        <v>0.02255776091657363</v>
+        <v>0.02356341145098569</v>
       </c>
     </row>
     <row r="4">
@@ -584,22 +585,22 @@
         </is>
       </c>
       <c r="C4">
-        <v>0.2139248777025904</v>
+        <v>0.2072767471440492</v>
       </c>
       <c r="D4">
-        <v>0.1093728619603988</v>
+        <v>0.1120290920298442</v>
       </c>
       <c r="E4">
-        <v>2.496850353202395</v>
+        <v>2.512059927005645</v>
       </c>
       <c r="F4">
-        <v>-0.1723061916260843</v>
+        <v>-0.186558332073302</v>
       </c>
       <c r="G4">
-        <v>0.5431437973969191</v>
+        <v>0.543716802700105</v>
       </c>
       <c r="H4">
-        <v>0.1593600639834534</v>
+        <v>0.1746972098193458</v>
       </c>
     </row>
     <row r="5">
@@ -610,26 +611,26 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous motivation:moderator_designCross-sectional</t>
+          <t>specific_factorautonomous motivation:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C5">
-        <v>0.2978029903408838</v>
+        <v>0.2337889867678651</v>
       </c>
       <c r="D5">
-        <v>0.0430922472360608</v>
+        <v>0.1214253479526888</v>
       </c>
       <c r="E5">
-        <v>23.31231473074775</v>
+        <v>2.26333112548092</v>
       </c>
       <c r="F5">
-        <v>0.2146395986762412</v>
+        <v>-0.2261422140448008</v>
       </c>
       <c r="G5">
-        <v>0.3766792223929933</v>
+        <v>0.6084821557990319</v>
       </c>
       <c r="H5">
-        <v>2.714303548835548e-07</v>
+        <v>0.1737905935704181</v>
       </c>
     </row>
     <row r="6">
@@ -640,26 +641,26 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>specific_factorControlled causality orientation:moderator_designCross-sectional</t>
+          <t>specific_factorAutonomous motivation:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C6">
-        <v>-0.1749652928652731</v>
+        <v>0.3108586636934202</v>
       </c>
       <c r="D6">
-        <v>0.09260241710203099</v>
+        <v>0.04756140221670335</v>
       </c>
       <c r="E6">
-        <v>2.407187650805177</v>
+        <v>20.18593196838856</v>
       </c>
       <c r="F6">
-        <v>-0.4754729035895218</v>
+        <v>0.2187499403030584</v>
       </c>
       <c r="G6">
-        <v>0.1621071298714447</v>
+        <v>0.3974765667807954</v>
       </c>
       <c r="H6">
-        <v>0.1744887343873141</v>
+        <v>1.350603413648413e-06</v>
       </c>
     </row>
     <row r="7">
@@ -670,26 +671,26 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>specific_factorControlled motivation:moderator_designCross-sectional</t>
+          <t>specific_factorControlled causality orientation:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C7">
-        <v>-0.04036037572111817</v>
+        <v>-0.1792392033288383</v>
       </c>
       <c r="D7">
-        <v>0.03722196364270199</v>
+        <v>0.09563743623652704</v>
       </c>
       <c r="E7">
-        <v>12.91248304101341</v>
+        <v>2.489485443865668</v>
       </c>
       <c r="F7">
-        <v>-0.1202659902427611</v>
+        <v>-0.48086022977388</v>
       </c>
       <c r="G7">
-        <v>0.04006483109696184</v>
+        <v>0.1603146062806932</v>
       </c>
       <c r="H7">
-        <v>0.2978042509458746</v>
+        <v>0.173015038110286</v>
       </c>
     </row>
     <row r="8">
@@ -700,26 +701,26 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>specific_factorEmotional intelligence:moderator_designCross-sectional</t>
+          <t>specific_factorcontrolled motivation:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C8">
-        <v>0.2840595279348826</v>
+        <v>-0.007409288029472289</v>
       </c>
       <c r="D8">
-        <v>0.08217668981422918</v>
+        <v>0.08038430890804832</v>
       </c>
       <c r="E8">
-        <v>2.882852174404991</v>
+        <v>1.548132581865746</v>
       </c>
       <c r="F8">
-        <v>0.02444855235463499</v>
+        <v>-0.4386411956330943</v>
       </c>
       <c r="G8">
-        <v>0.5077781120046507</v>
+        <v>0.4265961721117051</v>
       </c>
       <c r="H8">
-        <v>0.04046718122904695</v>
+        <v>0.9370495906087517</v>
       </c>
     </row>
     <row r="9">
@@ -730,26 +731,26 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>specific_factorEntity beliefs:moderator_designCross-sectional</t>
+          <t>specific_factorControlled motivation:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C9">
-        <v>-0.2257944708552008</v>
+        <v>-0.03784809747478905</v>
       </c>
       <c r="D9">
-        <v>0.0349839394974976</v>
+        <v>0.03903354130452114</v>
       </c>
       <c r="E9">
-        <v>1.956532459397718</v>
+        <v>11.63095145381682</v>
       </c>
       <c r="F9">
-        <v>-0.3657672252304221</v>
+        <v>-0.122593466051259</v>
       </c>
       <c r="G9">
-        <v>-0.07583342170493819</v>
+        <v>0.04744520417027488</v>
       </c>
       <c r="H9">
-        <v>0.02368264978209532</v>
+        <v>0.3517415396314808</v>
       </c>
     </row>
     <row r="10">
@@ -760,26 +761,26 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressure in terms of constraints:moderator_designCross-sectional</t>
+          <t>specific_factoremotional intelligence:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C10">
-        <v>0.00452356150616224</v>
+        <v>0.1599461564425539</v>
       </c>
       <c r="D10">
-        <v>0.04017464132313572</v>
+        <v>0.08481544712628562</v>
       </c>
       <c r="E10">
-        <v>5.392695018221377</v>
+        <v>1.479313509510741</v>
       </c>
       <c r="F10">
-        <v>-0.0962284769021518</v>
+        <v>-0.3444117199332569</v>
       </c>
       <c r="G10">
-        <v>0.1051838445697671</v>
+        <v>0.5926573924394311</v>
       </c>
       <c r="H10">
-        <v>0.9144218110991462</v>
+        <v>0.2400896613029523</v>
       </c>
     </row>
     <row r="11">
@@ -790,26 +791,26 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressures:moderator_designCross-sectional</t>
+          <t>specific_factorEmotional intelligence:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C11">
-        <v>0.01014561583913241</v>
+        <v>0.3743757414548737</v>
       </c>
       <c r="D11">
-        <v>0.05098186924857668</v>
+        <v>0.05601759810042672</v>
       </c>
       <c r="E11">
-        <v>6.899815590747679</v>
+        <v>1.820775157747368</v>
       </c>
       <c r="F11">
-        <v>-0.1103120017138216</v>
+        <v>0.1275537658567307</v>
       </c>
       <c r="G11">
-        <v>0.130309494587581</v>
+        <v>0.5775326564009271</v>
       </c>
       <c r="H11">
-        <v>0.8479911230664905</v>
+        <v>0.0250820364894512</v>
       </c>
     </row>
     <row r="12">
@@ -820,26 +821,26 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>specific_factorExtrinsic goals:moderator_designCross-sectional</t>
+          <t>specific_factorentity beliefs:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C12">
-        <v>0.09835984062354475</v>
+        <v>-0.2130305513427445</v>
       </c>
       <c r="D12">
-        <v>6.279539275658321e-17</v>
+        <v>0.04239288000366549</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>1.993614570490845</v>
       </c>
       <c r="F12">
-        <v>0.09835984062354397</v>
+        <v>-0.3793555705665085</v>
       </c>
       <c r="G12">
-        <v>0.09835984062354554</v>
+        <v>-0.03336859903562499</v>
       </c>
       <c r="H12">
-        <v>4.051199503878328e-16</v>
+        <v>0.03655930970102979</v>
       </c>
     </row>
     <row r="13">
@@ -850,26 +851,26 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>specific_factorIll-being:moderator_designCross-sectional</t>
+          <t>specific_factorExternal pressure in terms of constraints:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C13">
-        <v>-0.2526923772275875</v>
+        <v>0.005035729102092413</v>
       </c>
       <c r="D13">
-        <v>0.1146807406241891</v>
+        <v>0.04128771383640618</v>
       </c>
       <c r="E13">
-        <v>7.793009814048637</v>
+        <v>5.592882840092219</v>
       </c>
       <c r="F13">
-        <v>-0.4807572298315209</v>
+        <v>-0.09749067684193903</v>
       </c>
       <c r="G13">
-        <v>0.007395030056284044</v>
+        <v>0.1074563737884461</v>
       </c>
       <c r="H13">
-        <v>0.05523442450700265</v>
+        <v>0.9071877228460397</v>
       </c>
     </row>
     <row r="14">
@@ -880,26 +881,26 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>specific_factorIncremental beliefs:moderator_designCross-sectional</t>
+          <t>specific_factorexternal pressures:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C14">
-        <v>0.1355430351399312</v>
+        <v>-0.0109711852156729</v>
       </c>
       <c r="D14">
-        <v>0.01830666730916733</v>
+        <v>0.0830740195261799</v>
       </c>
       <c r="E14">
-        <v>1.085549552254471</v>
+        <v>3.456983642063988</v>
       </c>
       <c r="F14">
-        <v>-0.05701875622158065</v>
+        <v>-0.2511480925130979</v>
       </c>
       <c r="G14">
-        <v>0.3183818605172247</v>
+        <v>0.2304783264215252</v>
       </c>
       <c r="H14">
-        <v>0.07282017318275948</v>
+        <v>0.902249749236936</v>
       </c>
     </row>
     <row r="15">
@@ -910,26 +911,26 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>specific_factorInternal pressures:moderator_designCross-sectional</t>
+          <t>specific_factorExternal pressures:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C15">
-        <v>-0.09840516894174532</v>
+        <v>0.03153569172718956</v>
       </c>
       <c r="D15">
-        <v>0.06992564085073148</v>
+        <v>0.09868976064232843</v>
       </c>
       <c r="E15">
-        <v>1.909272036501495</v>
+        <v>2.265275107499674</v>
       </c>
       <c r="F15">
-        <v>-0.3916226096965653</v>
+        <v>-0.3353241932561702</v>
       </c>
       <c r="G15">
-        <v>0.2129560728719955</v>
+        <v>0.3900909372255355</v>
       </c>
       <c r="H15">
-        <v>0.2989299335954078</v>
+        <v>0.7763473021050151</v>
       </c>
     </row>
     <row r="16">
@@ -940,26 +941,26 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>specific_factorIntrinsic goals:moderator_designCross-sectional</t>
+          <t>specific_factorExtrinsic goals:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C16">
-        <v>0.3356408577661755</v>
+        <v>0.09835984062354486</v>
       </c>
       <c r="D16">
-        <v>3.248071017043304e-17</v>
+        <v>5.899517881054794e-16</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>0.3356408577661752</v>
+        <v>0.09835984062353743</v>
       </c>
       <c r="G16">
-        <v>0.3356408577661759</v>
+        <v>0.09835984062355228</v>
       </c>
       <c r="H16">
-        <v>5.92197358382021e-17</v>
+        <v>3.806031440156076e-15</v>
       </c>
     </row>
     <row r="17">
@@ -970,26 +971,26 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>specific_factorInvitation from others' to help:moderator_designCross-sectional</t>
+          <t>specific_factorill-being:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C17">
-        <v>0.1823241447425966</v>
+        <v>-0.1945385584663347</v>
       </c>
       <c r="D17">
-        <v>0.04340946004074812</v>
+        <v>0.07177419992332329</v>
       </c>
       <c r="E17">
-        <v>8.745423832886059</v>
+        <v>1.601637378529774</v>
       </c>
       <c r="F17">
-        <v>0.08553965180061031</v>
+        <v>-0.5317095296896092</v>
       </c>
       <c r="G17">
-        <v>0.2756998790013391</v>
+        <v>0.1958617544598307</v>
       </c>
       <c r="H17">
-        <v>0.002294326809485658</v>
+        <v>0.1404802858826617</v>
       </c>
     </row>
     <row r="18">
@@ -1000,26 +1001,26 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>specific_factorLow personal responsibility for others':moderator_designCross-sectional</t>
+          <t>specific_factorIll-being:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C18">
-        <v>0.1414434053218989</v>
+        <v>-0.256703277092928</v>
       </c>
       <c r="D18">
-        <v>0.04340946003515543</v>
+        <v>0.1245937849292416</v>
       </c>
       <c r="E18">
-        <v>8.745423832886436</v>
+        <v>6.840183875371579</v>
       </c>
       <c r="F18">
-        <v>0.04373373197239539</v>
+        <v>-0.5069339114505779</v>
       </c>
       <c r="G18">
-        <v>0.236472770219935</v>
+        <v>0.03343029866164437</v>
       </c>
       <c r="H18">
-        <v>0.009899551939543319</v>
+        <v>0.07398444835583737</v>
       </c>
     </row>
     <row r="19">
@@ -1030,26 +1031,26 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>specific_factorMastery goals:moderator_designCross-sectional</t>
+          <t>specific_factorIncremental beliefs:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C19">
-        <v>0.2296549544118118</v>
+        <v>0.1399917960216241</v>
       </c>
       <c r="D19">
-        <v>0.03135260771642753</v>
+        <v>0.02476752816074427</v>
       </c>
       <c r="E19">
-        <v>2.344326005323608</v>
+        <v>2.816794493872936</v>
       </c>
       <c r="F19">
-        <v>0.1157214121963441</v>
+        <v>0.05904602276204387</v>
       </c>
       <c r="G19">
-        <v>0.3376238136012397</v>
+        <v>0.219108662726334</v>
       </c>
       <c r="H19">
-        <v>0.01105674535821013</v>
+        <v>0.01274140403542866</v>
       </c>
     </row>
     <row r="20">
@@ -1060,26 +1061,26 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>specific_factorNeed frustration:moderator_designCross-sectional</t>
+          <t>specific_factorInternal pressures:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C20">
-        <v>-0.1887575683618664</v>
+        <v>-0.08116043547725404</v>
       </c>
       <c r="D20">
-        <v>0.05923511678925993</v>
+        <v>0.08535488180016465</v>
       </c>
       <c r="E20">
-        <v>8.254922381781286</v>
+        <v>1.93321868876638</v>
       </c>
       <c r="F20">
-        <v>-0.3157453023685333</v>
+        <v>-0.4309159781699747</v>
       </c>
       <c r="G20">
-        <v>-0.0551269262374456</v>
+        <v>0.289794855685281</v>
       </c>
       <c r="H20">
-        <v>0.01164737465341226</v>
+        <v>0.4441486341914562</v>
       </c>
     </row>
     <row r="21">
@@ -1090,26 +1091,26 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>specific_factorNeed satisfaction:moderator_designCross-sectional</t>
+          <t>specific_factorIntrinsic goals:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C21">
-        <v>0.275521587297945</v>
+        <v>0.3356408577661756</v>
       </c>
       <c r="D21">
-        <v>0.04413191767633452</v>
+        <v>6.076394971867196e-16</v>
       </c>
       <c r="E21">
-        <v>16.81682596200784</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0.1874005356448014</v>
+        <v>0.3356408577661688</v>
       </c>
       <c r="G21">
-        <v>0.3592432738537836</v>
+        <v>0.3356408577661825</v>
       </c>
       <c r="H21">
-        <v>6.824392576729899e-06</v>
+        <v>1.107865262780236e-15</v>
       </c>
     </row>
     <row r="22">
@@ -1120,26 +1121,26 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>specific_factorNegative beliefs (religious):moderator_designCross-sectional</t>
+          <t>specific_factorInvitation from others to help:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C22">
-        <v>-0.05759308966138251</v>
+        <v>0.1508005512486577</v>
       </c>
       <c r="D22">
-        <v>8.182781236602085e-17</v>
+        <v>0.05263997587528557</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3.464732627720637</v>
       </c>
       <c r="F22">
-        <v>-0.05759308966138355</v>
+        <v>-0.003542741809267308</v>
       </c>
       <c r="G22">
-        <v>-0.05759308966138147</v>
+        <v>0.2981262318929914</v>
       </c>
       <c r="H22">
-        <v>9.035034491138863e-16</v>
+        <v>0.05312801343617525</v>
       </c>
     </row>
     <row r="23">
@@ -1150,26 +1151,26 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>specific_factorNegative beliefs about knowledge and learning:moderator_designCross-sectional</t>
+          <t>specific_factorlow personal responsibility for others:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C23">
-        <v>-0.03967029264015232</v>
+        <v>0.1095307633565739</v>
       </c>
       <c r="D23">
-        <v>0.2086331058515403</v>
+        <v>0.05263997588082221</v>
       </c>
       <c r="E23">
-        <v>1.358782967087353</v>
+        <v>3.464732627720605</v>
       </c>
       <c r="F23">
-        <v>-0.9042397119074224</v>
+        <v>-0.04549887949979302</v>
       </c>
       <c r="G23">
-        <v>0.8886801085208039</v>
+        <v>0.2594085944332303</v>
       </c>
       <c r="H23">
-        <v>0.8735711795677921</v>
+        <v>0.1156265544063878</v>
       </c>
     </row>
     <row r="24">
@@ -1180,26 +1181,26 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>specific_factorNegative beliefs about motivation:moderator_designCross-sectional</t>
+          <t>specific_factormastery goals:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C24">
-        <v>-0.2721263362008615</v>
+        <v>0.126823573101329</v>
       </c>
       <c r="D24">
-        <v>0.110581676713583</v>
+        <v>0.1011508155860349</v>
       </c>
       <c r="E24">
-        <v>1.050662508410053</v>
+        <v>1.69192371590645</v>
       </c>
       <c r="F24">
-        <v>-0.9110757837392094</v>
+        <v>-0.3741243992855165</v>
       </c>
       <c r="G24">
-        <v>0.7511117095530296</v>
+        <v>0.5704775562535538</v>
       </c>
       <c r="H24">
-        <v>0.2303154748567001</v>
+        <v>0.3536838903701968</v>
       </c>
     </row>
     <row r="25">
@@ -1210,26 +1211,26 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>specific_factorNegative personality:moderator_designCross-sectional</t>
+          <t>specific_factorMastery goals:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C25">
-        <v>-0.1220821076644517</v>
+        <v>0.1878233059118344</v>
       </c>
       <c r="D25">
-        <v>0.07488966352432615</v>
+        <v>0.05981615036169102</v>
       </c>
       <c r="E25">
-        <v>1.044321209422097</v>
+        <v>2.075286191763211</v>
       </c>
       <c r="F25">
-        <v>-0.7547641651308019</v>
+        <v>-0.0584779825588204</v>
       </c>
       <c r="G25">
-        <v>0.6282661963740315</v>
+        <v>0.4125701244427007</v>
       </c>
       <c r="H25">
-        <v>0.3410896542077761</v>
+        <v>0.08235278194993036</v>
       </c>
     </row>
     <row r="26">
@@ -1240,26 +1241,26 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>specific_factorOthers' abilities:moderator_designCross-sectional</t>
+          <t>specific_factorneed frustration:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C26">
-        <v>0.2382017492475994</v>
+        <v>-0.1163455308882335</v>
       </c>
       <c r="D26">
-        <v>0.09548124038383364</v>
+        <v>0.0803843089080485</v>
       </c>
       <c r="E26">
-        <v>2.310317866944887</v>
+        <v>1.548132581865747</v>
       </c>
       <c r="F26">
-        <v>-0.118790607433684</v>
+        <v>-0.5226744425624659</v>
       </c>
       <c r="G26">
-        <v>0.5406600303924541</v>
+        <v>0.3330570503924098</v>
       </c>
       <c r="H26">
-        <v>0.1093360310108926</v>
+        <v>0.3158172229219168</v>
       </c>
     </row>
     <row r="27">
@@ -1270,26 +1271,26 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>specific_factorOthers' autonomous motivation:moderator_designCross-sectional</t>
+          <t>specific_factorNeed frustration:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C27">
-        <v>0.1761781069259512</v>
+        <v>-0.2088645301241854</v>
       </c>
       <c r="D27">
-        <v>0.05636590189081372</v>
+        <v>0.07466898657120369</v>
       </c>
       <c r="E27">
-        <v>7.532653298883732</v>
+        <v>7.090341682036264</v>
       </c>
       <c r="F27">
-        <v>0.04660464243154828</v>
+        <v>-0.3697149293010921</v>
       </c>
       <c r="G27">
-        <v>0.2999209906248959</v>
+        <v>-0.03585934062463075</v>
       </c>
       <c r="H27">
-        <v>0.01450380045691349</v>
+        <v>0.02474490820638055</v>
       </c>
     </row>
     <row r="28">
@@ -1300,26 +1301,26 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>specific_factorOthers' controlled motivation:moderator_designCross-sectional</t>
+          <t>specific_factorneed satisfaction:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C28">
-        <v>0.03669138124052042</v>
+        <v>0.3192564789921509</v>
       </c>
       <c r="D28">
-        <v>0.03512046184976795</v>
+        <v>0.08038430890804851</v>
       </c>
       <c r="E28">
-        <v>1.684871010863634</v>
+        <v>1.548132581865748</v>
       </c>
       <c r="F28">
-        <v>-0.143990439498879</v>
+        <v>-0.1315517666924377</v>
       </c>
       <c r="G28">
-        <v>0.2150057567635309</v>
+        <v>0.6606445973329408</v>
       </c>
       <c r="H28">
-        <v>0.4226311038441096</v>
+        <v>0.08222472893948783</v>
       </c>
     </row>
     <row r="29">
@@ -1330,26 +1331,26 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative behaviours:moderator_designCross-sectional</t>
+          <t>specific_factorNeed satisfaction:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C29">
-        <v>-0.1462922635520178</v>
+        <v>0.272035150298635</v>
       </c>
       <c r="D29">
-        <v>0.1111862341625566</v>
+        <v>0.04589499654559088</v>
       </c>
       <c r="E29">
-        <v>4.214680480510665</v>
+        <v>15.65275413590156</v>
       </c>
       <c r="F29">
-        <v>-0.4218566379889484</v>
+        <v>0.1796215056349531</v>
       </c>
       <c r="G29">
-        <v>0.1540140857749855</v>
+        <v>0.3596893706234982</v>
       </c>
       <c r="H29">
-        <v>0.252368571008562</v>
+        <v>1.750392309126429e-05</v>
       </c>
     </row>
     <row r="30">
@@ -1360,26 +1361,26 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative emotions:moderator_designCross-sectional</t>
+          <t>specific_factorNegative beliefs (religious):moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C30">
-        <v>-0.1670372238149526</v>
+        <v>-0.05759308966138248</v>
       </c>
       <c r="D30">
-        <v>0.0510359552281167</v>
+        <v>3.921071206438396e-17</v>
       </c>
       <c r="E30">
-        <v>3.455460397635098</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>-0.3091199542329838</v>
+        <v>-0.05759308966138298</v>
       </c>
       <c r="G30">
-        <v>-0.01766064451831222</v>
+        <v>-0.05759308966138198</v>
       </c>
       <c r="H30">
-        <v>0.03706001973922757</v>
+        <v>4.329458721677073e-16</v>
       </c>
     </row>
     <row r="31">
@@ -1390,26 +1391,26 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>specific_factorOthers' positive behaviours:moderator_designCross-sectional</t>
+          <t>specific_factorNegative beliefs about knowledge and learning:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C31">
-        <v>0.180481304699795</v>
+        <v>0.08390299488277327</v>
       </c>
       <c r="D31">
-        <v>0.04607709754726173</v>
+        <v>0.03943599839461505</v>
       </c>
       <c r="E31">
-        <v>4.218405641592572</v>
+        <v>1.00694701342665</v>
       </c>
       <c r="F31">
-        <v>0.05705790741576615</v>
+        <v>-0.3875257576767945</v>
       </c>
       <c r="G31">
-        <v>0.2984711196170022</v>
+        <v>0.5205447526276271</v>
       </c>
       <c r="H31">
-        <v>0.01503081525810179</v>
+        <v>0.2777815542454826</v>
       </c>
     </row>
     <row r="32">
@@ -1420,26 +1421,26 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>specific_factorOthers' positive emotions:moderator_designCross-sectional</t>
+          <t>specific_factorNegative beliefs about motivation:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C32">
-        <v>0.2286303309858703</v>
+        <v>-0.2459357645766036</v>
       </c>
       <c r="D32">
-        <v>0.0525710629555682</v>
+        <v>0.09492206493855875</v>
       </c>
       <c r="E32">
-        <v>4.325220073137179</v>
+        <v>1.072998562889458</v>
       </c>
       <c r="F32">
-        <v>0.09076074551055839</v>
+        <v>-0.8563670010844069</v>
       </c>
       <c r="G32">
-        <v>0.3579009111347787</v>
+        <v>0.6512078170300758</v>
       </c>
       <c r="H32">
-        <v>0.0095840383468871</v>
+        <v>0.2161977517238302</v>
       </c>
     </row>
     <row r="33">
@@ -1450,26 +1451,14 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>specific_factorPerformance goals:moderator_designCross-sectional</t>
+          <t>specific_factornegative personality:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C33">
-        <v>-0.07373086665040562</v>
+        <v>-0.214</v>
       </c>
       <c r="D33">
-        <v>0.2315949187812771</v>
-      </c>
-      <c r="E33">
-        <v>2.492094148130027</v>
-      </c>
-      <c r="F33">
-        <v>-0.7180553961734546</v>
-      </c>
-      <c r="G33">
-        <v>0.6386491415283612</v>
-      </c>
-      <c r="H33">
-        <v>0.7745812940147643</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1480,26 +1469,26 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>specific_factorPersonal responsibility for others':moderator_designCross-sectional</t>
+          <t>specific_factorNegative personality:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C34">
-        <v>0.2627888477594733</v>
+        <v>-0.02812976405737158</v>
       </c>
       <c r="D34">
-        <v>0.06658579335212932</v>
+        <v>0.04564194246149898</v>
       </c>
       <c r="E34">
-        <v>1.341594112621226</v>
+        <v>1.277615728752931</v>
       </c>
       <c r="F34">
-        <v>-0.2021431509082944</v>
+        <v>-0.3633884377015679</v>
       </c>
       <c r="G34">
-        <v>0.6310563265886797</v>
+        <v>0.3135791545429976</v>
       </c>
       <c r="H34">
-        <v>0.104244796720758</v>
+        <v>0.6291216349641433</v>
       </c>
     </row>
     <row r="35">
@@ -1510,26 +1499,26 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>specific_factorPersonal responsibility for others' motivation:moderator_designCross-sectional</t>
+          <t>specific_factorOthers positive behaviour:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C35">
-        <v>0.2227761811875193</v>
+        <v>0.2544829228844023</v>
       </c>
       <c r="D35">
-        <v>0.06502372167017527</v>
+        <v>0.08481544712628597</v>
       </c>
       <c r="E35">
-        <v>2.012470762984572</v>
+        <v>1.479313509510739</v>
       </c>
       <c r="F35">
-        <v>-0.0514986894175822</v>
+        <v>-0.254501765946302</v>
       </c>
       <c r="G35">
-        <v>0.4658015365678442</v>
+        <v>0.6530631233221342</v>
       </c>
       <c r="H35">
-        <v>0.07275625310671972</v>
+        <v>0.1316680135681698</v>
       </c>
     </row>
     <row r="36">
@@ -1540,26 +1529,26 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>specific_factorPositive attitudes:moderator_designCross-sectional</t>
+          <t>specific_factorOthers' abilities:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C36">
-        <v>0.2468993108579967</v>
+        <v>0.239214854696244</v>
       </c>
       <c r="D36">
-        <v>0.0298426271644521</v>
+        <v>0.08561705262388934</v>
       </c>
       <c r="E36">
-        <v>2.203558313558724</v>
+        <v>2.575107592457523</v>
       </c>
       <c r="F36">
-        <v>0.1336247094636908</v>
+        <v>-0.05575933241713208</v>
       </c>
       <c r="G36">
-        <v>0.3538059197983089</v>
+        <v>0.4957832536073865</v>
       </c>
       <c r="H36">
-        <v>0.01016984702464914</v>
+        <v>0.07794029583334318</v>
       </c>
     </row>
     <row r="37">
@@ -1570,26 +1559,26 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>specific_factorPositive beliefs (religious):moderator_designCross-sectional</t>
+          <t>specific_factorothers' autonomous motivation:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C37">
-        <v>0.1730474015149224</v>
+        <v>0.1840690225491774</v>
       </c>
       <c r="D37">
-        <v>6.558906332529167e-17</v>
+        <v>0.1134216323627927</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2.237845237030982</v>
       </c>
       <c r="F37">
-        <v>0.1730474015149216</v>
+        <v>-0.2499298679384259</v>
       </c>
       <c r="G37">
-        <v>0.1730474015149232</v>
+        <v>0.5564805030357109</v>
       </c>
       <c r="H37">
-        <v>2.388658809086069e-16</v>
+        <v>0.229078501361197</v>
       </c>
     </row>
     <row r="38">
@@ -1600,26 +1589,26 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>specific_factorPositive beliefs about knowledge and learning:moderator_designCross-sectional</t>
+          <t>specific_factorOthers' autonomous motivation:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C38">
-        <v>0.1931443963782076</v>
+        <v>0.1682070891391362</v>
       </c>
       <c r="D38">
-        <v>0.08042911519359976</v>
+        <v>0.07520281453658458</v>
       </c>
       <c r="E38">
-        <v>1.193783550860199</v>
+        <v>4.044968071581068</v>
       </c>
       <c r="F38">
-        <v>-0.4674797845188098</v>
+        <v>-0.03804488562375952</v>
       </c>
       <c r="G38">
-        <v>0.715343727655546</v>
+        <v>0.3607129094589798</v>
       </c>
       <c r="H38">
-        <v>0.2145227305465456</v>
+        <v>0.0861126095129401</v>
       </c>
     </row>
     <row r="39">
@@ -1630,26 +1619,26 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>specific_factorPrior positive related experiences:moderator_designCross-sectional</t>
+          <t>specific_factorOthers' controlled motivation:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C39">
-        <v>0.1497721645342742</v>
+        <v>0.04634410200723189</v>
       </c>
       <c r="D39">
-        <v>0.04340945997392782</v>
+        <v>0.03454071821531558</v>
       </c>
       <c r="E39">
-        <v>8.745423832885981</v>
+        <v>1.735438358697858</v>
       </c>
       <c r="F39">
-        <v>0.052223314839881</v>
+        <v>-0.1255429603539485</v>
       </c>
       <c r="G39">
-        <v>0.2444898363300885</v>
+        <v>0.2155299107696245</v>
       </c>
       <c r="H39">
-        <v>0.007290349643360878</v>
+        <v>0.3281721929882152</v>
       </c>
     </row>
     <row r="40">
@@ -1660,26 +1649,26 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>specific_factorSelf-efficacy:moderator_designCross-sectional</t>
+          <t>specific_factorothers' negative behaviours:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C40">
-        <v>0.2474362617169789</v>
+        <v>-0.1124673362722159</v>
       </c>
       <c r="D40">
-        <v>0.04848735725735027</v>
+        <v>0.1104557523324096</v>
       </c>
       <c r="E40">
-        <v>5.973678591705813</v>
+        <v>2.969855530786485</v>
       </c>
       <c r="F40">
-        <v>0.1331141927499124</v>
+        <v>-0.4353603932742124</v>
       </c>
       <c r="G40">
-        <v>0.3552603620965425</v>
+        <v>0.2360637741415908</v>
       </c>
       <c r="H40">
-        <v>0.002019838557024822</v>
+        <v>0.3824773346749639</v>
       </c>
     </row>
     <row r="41">
@@ -1690,26 +1679,26 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>specific_factorSocial competence:moderator_designCross-sectional</t>
+          <t>specific_factorOthers' negative behaviours:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C41">
-        <v>0.312620436294448</v>
+        <v>-0.3093730865545987</v>
       </c>
       <c r="D41">
-        <v>0.02503217226472276</v>
+        <v>0.03955774267803625</v>
       </c>
       <c r="E41">
-        <v>1.689859717105745</v>
+        <v>4.110340334193894</v>
       </c>
       <c r="F41">
-        <v>0.1919819696607173</v>
+        <v>-0.4040911089230144</v>
       </c>
       <c r="G41">
-        <v>0.4239517920233683</v>
+        <v>-0.2080910313574363</v>
       </c>
       <c r="H41">
-        <v>0.01092692125856675</v>
+        <v>0.001132023350320434</v>
       </c>
     </row>
     <row r="42">
@@ -1720,26 +1709,26 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>specific_factorSocial connection/support:moderator_designCross-sectional</t>
+          <t>specific_factorothers' negative emotions:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C42">
-        <v>0.3018726547799611</v>
+        <v>-0.1569645189140047</v>
       </c>
       <c r="D42">
-        <v>0.09504622432357485</v>
+        <v>0.08481544712628582</v>
       </c>
       <c r="E42">
-        <v>7.512100868503483</v>
+        <v>1.479313509510739</v>
       </c>
       <c r="F42">
-        <v>0.08965762239554168</v>
+        <v>-0.5906696161448308</v>
       </c>
       <c r="G42">
-        <v>0.4878679296507213</v>
+        <v>0.3471045170652903</v>
       </c>
       <c r="H42">
-        <v>0.01224256968003999</v>
+        <v>0.2454701399900851</v>
       </c>
     </row>
     <row r="43">
@@ -1750,26 +1739,26 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>specific_factorStyle-related beliefs:moderator_designCross-sectional</t>
+          <t>specific_factorOthers' negative emotions:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C43">
-        <v>0.5078415474402764</v>
+        <v>-0.174850040760102</v>
       </c>
       <c r="D43">
-        <v>2.470473553719274e-18</v>
+        <v>0.07676308942079095</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>2.304238754649715</v>
       </c>
       <c r="F43">
-        <v>0.5078415474402764</v>
+        <v>-0.4369756801286293</v>
       </c>
       <c r="G43">
-        <v>0.5078415474402764</v>
+        <v>0.1146495764465136</v>
       </c>
       <c r="H43">
-        <v>2.809404981635773e-18</v>
+        <v>0.1311482475769921</v>
       </c>
     </row>
     <row r="44">
@@ -1780,26 +1769,26 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>specific_factorWell-being:moderator_designCross-sectional</t>
+          <t>specific_factorothers' positive behaviours:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C44">
-        <v>0.3261592410412441</v>
+        <v>0.1133302111396575</v>
       </c>
       <c r="D44">
-        <v>0.05871777313796036</v>
+        <v>0.04497204306924886</v>
       </c>
       <c r="E44">
-        <v>6.709347295486847</v>
+        <v>1.358218500074335</v>
       </c>
       <c r="F44">
-        <v>0.1958853159813108</v>
+        <v>-0.1974596194383388</v>
       </c>
       <c r="G44">
-        <v>0.4451203855432243</v>
+        <v>0.403419207675197</v>
       </c>
       <c r="H44">
-        <v>0.0008007849471335791</v>
+        <v>0.1831603512519263</v>
       </c>
     </row>
     <row r="45">
@@ -1810,26 +1799,26 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>specific_factorIll-being:moderator_designExperimental (non-randomized</t>
+          <t>specific_factorOthers' positive behaviours:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C45">
-        <v>0.003932261921159598</v>
+        <v>0.2056313672821183</v>
       </c>
       <c r="D45">
-        <v>0.0001885428276973159</v>
+        <v>0.1471971138786864</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>1.073850608747898</v>
       </c>
       <c r="F45">
-        <v>0.001536617209444459</v>
+        <v>-0.8817401620264862</v>
       </c>
       <c r="G45">
-        <v>0.006327861497631579</v>
+        <v>0.9468831147396283</v>
       </c>
       <c r="H45">
-        <v>0.03050092329236695</v>
+        <v>0.3793395273682585</v>
       </c>
     </row>
     <row r="46">
@@ -1840,26 +1829,26 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous causality orientation:moderator_designExperimental (non-randomized)</t>
+          <t>specific_factorothers' positive emotions:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C46">
-        <v>0.4499999999999995</v>
+        <v>0.1277505624474895</v>
       </c>
       <c r="D46">
-        <v>6.021785156403715e-16</v>
+        <v>0.05762119609927243</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>1.322441374347851</v>
       </c>
       <c r="F46">
-        <v>0.4499999999999933</v>
+        <v>-0.2835675105876955</v>
       </c>
       <c r="G46">
-        <v>0.4500000000000056</v>
+        <v>0.4993667211057424</v>
       </c>
       <c r="H46">
-        <v>7.909191854884285e-16</v>
+        <v>0.2169394190352871</v>
       </c>
     </row>
     <row r="47">
@@ -1870,26 +1859,26 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>specific_factorControlled causality orientation:moderator_designExperimental (non-randomized)</t>
+          <t>specific_factorOthers' positive emotions:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C47">
-        <v>-0.1500000000000005</v>
+        <v>0.2887890456950868</v>
       </c>
       <c r="D47">
-        <v>6.27203534823732e-16</v>
+        <v>0.05553868809159845</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>2.317932358413748</v>
       </c>
       <c r="F47">
-        <v>-0.1500000000000083</v>
+        <v>0.08687937759085497</v>
       </c>
       <c r="G47">
-        <v>-0.1499999999999927</v>
+        <v>0.4679093420858949</v>
       </c>
       <c r="H47">
-        <v>2.641848748772104e-15</v>
+        <v>0.02388247410261046</v>
       </c>
     </row>
     <row r="48">
@@ -1900,26 +1889,26 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>specific_factorEmotional intelligence:moderator_designExperimental (non-randomized)</t>
+          <t>specific_factorperformance goals:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C48">
-        <v>0.2699999999999995</v>
+        <v>-0.5265982248303173</v>
       </c>
       <c r="D48">
-        <v>5.562993138042096e-16</v>
+        <v>0.1011508155860352</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>1.691923715906449</v>
       </c>
       <c r="F48">
-        <v>0.269999999999993</v>
+        <v>-0.8026960888164464</v>
       </c>
       <c r="G48">
-        <v>0.270000000000006</v>
+        <v>-0.06461584847327559</v>
       </c>
       <c r="H48">
-        <v>1.279152830897152e-15</v>
+        <v>0.04133349133443048</v>
       </c>
     </row>
     <row r="49">
@@ -1930,26 +1919,26 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>specific_factorMastery goals:moderator_designExperimental (non-randomized)</t>
+          <t>specific_factorPerformance goals:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C49">
-        <v>0.5099999999999997</v>
+        <v>0.02717680388127273</v>
       </c>
       <c r="D49">
-        <v>5.385732585493291e-16</v>
+        <v>0.1064792912052668</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>2.183671499731656</v>
       </c>
       <c r="F49">
-        <v>0.5099999999999946</v>
+        <v>-0.3764723276329731</v>
       </c>
       <c r="G49">
-        <v>0.5100000000000047</v>
+        <v>0.4221538189455098</v>
       </c>
       <c r="H49">
-        <v>6.092913578317898e-16</v>
+        <v>0.8205554216772546</v>
       </c>
     </row>
     <row r="50">
@@ -1960,26 +1949,26 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>specific_factorNeed satisfaction:moderator_designExperimental (non-randomized)</t>
+          <t>specific_factorpersonal responsibility for others:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C50">
-        <v>-0.04025806720155965</v>
+        <v>0.2514532526206729</v>
       </c>
       <c r="D50">
-        <v>1.06162457982666e-15</v>
+        <v>0.1067088642729584</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>1.519792136397771</v>
       </c>
       <c r="F50">
-        <v>-0.04025806720157311</v>
+        <v>-0.3570386438853712</v>
       </c>
       <c r="G50">
-        <v>-0.04025806720154618</v>
+        <v>0.7101145311757253</v>
       </c>
       <c r="H50">
-        <v>1.677889594123814e-14</v>
+        <v>0.1761148190562717</v>
       </c>
     </row>
     <row r="51">
@@ -1990,26 +1979,26 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>specific_factorNegative personality:moderator_designExperimental (non-randomized)</t>
+          <t>specific_factorPersonal responsibility for others' motivation:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C51">
-        <v>-0.4030755561639726</v>
+        <v>0.2533525630525481</v>
       </c>
       <c r="D51">
-        <v>5.888232022010555e-16</v>
+        <v>0.06165172694307676</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>2.079916618266664</v>
       </c>
       <c r="F51">
-        <v>-0.4030755561639788</v>
+        <v>0.003257869747029205</v>
       </c>
       <c r="G51">
-        <v>-0.4030755561639663</v>
+        <v>0.4736195200861337</v>
       </c>
       <c r="H51">
-        <v>8.772354934784624e-16</v>
+        <v>0.04880498056137463</v>
       </c>
     </row>
     <row r="52">
@@ -2020,26 +2009,26 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>specific_factorOthers' autonomous motivation:moderator_designExperimental (non-randomized)</t>
+          <t>specific_factorPositive attitudes:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C52">
-        <v>0.2099999999999994</v>
+        <v>0.2299788044181121</v>
       </c>
       <c r="D52">
-        <v>5.212259738608201e-16</v>
+        <v>0.02927205112225212</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>2.552256458817053</v>
       </c>
       <c r="F52">
-        <v>0.2099999999999931</v>
+        <v>0.130301566335319</v>
       </c>
       <c r="G52">
-        <v>0.2100000000000057</v>
+        <v>0.3250536957749801</v>
       </c>
       <c r="H52">
-        <v>1.556601138842018e-15</v>
+        <v>0.007150890266836143</v>
       </c>
     </row>
     <row r="53">
@@ -2050,26 +2039,26 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>specific_factorStyle-related beliefs:moderator_designExperimental (non-randomized)</t>
+          <t>specific_factorPositive beliefs (religious):moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C53">
-        <v>0.1459394460298268</v>
+        <v>0.1730474015149225</v>
       </c>
       <c r="D53">
-        <v>1.102442845737979e-15</v>
+        <v>3.692163338759041e-17</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
       <c r="F53">
-        <v>0.1459394460298131</v>
+        <v>0.173047401514922</v>
       </c>
       <c r="G53">
-        <v>0.1459394460298405</v>
+        <v>0.1730474015149229</v>
       </c>
       <c r="H53">
-        <v>4.774758734484934e-15</v>
+        <v>1.344632479346692e-16</v>
       </c>
     </row>
     <row r="54">
@@ -2080,26 +2069,26 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>specific_factorStyle-related beliefs:moderator_designExperimental (RCT)</t>
+          <t>specific_factorPositive beliefs about knowledge and learning:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C54">
-        <v>-0.03573725674590011</v>
+        <v>0.2747652646911116</v>
       </c>
       <c r="D54">
-        <v>0.2450778381989965</v>
+        <v>0.04249534242461742</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>1.015585080326683</v>
       </c>
       <c r="F54">
-        <v>-0.996332377532376</v>
+        <v>-0.2343155822360024</v>
       </c>
       <c r="G54">
-        <v>0.9957697052987633</v>
+        <v>0.6655841022555085</v>
       </c>
       <c r="H54">
-        <v>0.9077790689871605</v>
+        <v>0.09270922574740989</v>
       </c>
     </row>
     <row r="55">
@@ -2110,26 +2099,26 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous motivation:moderator_designLongitudinal</t>
+          <t>specific_factorprior positive related experiences:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C55">
-        <v>0.3170395329809217</v>
+        <v>0.1179298696317131</v>
       </c>
       <c r="D55">
-        <v>0.1102999239320069</v>
+        <v>0.05263997594143404</v>
       </c>
       <c r="E55">
-        <v>1.006552024488062</v>
+        <v>3.464732627720599</v>
       </c>
       <c r="F55">
-        <v>-0.7824918236859878</v>
+        <v>-0.03700418906910072</v>
       </c>
       <c r="G55">
-        <v>0.9364595935633236</v>
+        <v>0.2673275361056102</v>
       </c>
       <c r="H55">
-        <v>0.2050038061212692</v>
+        <v>0.09791742378367825</v>
       </c>
     </row>
     <row r="56">
@@ -2140,26 +2129,26 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>specific_factorCoherence of mind:moderator_designLongitudinal</t>
+          <t>specific_factorself-efficacy:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C56">
-        <v>0.1100445571831773</v>
+        <v>0.1767216474683123</v>
       </c>
       <c r="D56">
-        <v>1.394184466702783e-16</v>
+        <v>0.05111328353108318</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>1.803726997393545</v>
       </c>
       <c r="F56">
-        <v>0.1100445571831756</v>
+        <v>-0.06583332673908265</v>
       </c>
       <c r="G56">
-        <v>0.1100445571831791</v>
+        <v>0.3995572082801197</v>
       </c>
       <c r="H56">
-        <v>8.032846230210812e-16</v>
+        <v>0.08453499010960577</v>
       </c>
     </row>
     <row r="57">
@@ -2170,26 +2159,26 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>specific_factorControlled motivation:moderator_designLongitudinal</t>
+          <t>specific_factorSelf-efficacy:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C57">
-        <v>-0.1123652952420013</v>
+        <v>0.321312391672225</v>
       </c>
       <c r="D57">
-        <v>0.03749312026144389</v>
+        <v>0.05007137356393836</v>
       </c>
       <c r="E57">
-        <v>1.006552024488062</v>
+        <v>4.550910567914347</v>
       </c>
       <c r="F57">
-        <v>-0.5240966123068839</v>
+        <v>0.1978380676245878</v>
       </c>
       <c r="G57">
-        <v>0.3419397788316184</v>
+        <v>0.4347494874912323</v>
       </c>
       <c r="H57">
-        <v>0.202910399615088</v>
+        <v>0.001656519171653388</v>
       </c>
     </row>
     <row r="58">
@@ -2200,26 +2189,26 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>specific_factorEmotional intelligence:moderator_designLongitudinal</t>
+          <t>specific_factorSocial competence:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C58">
-        <v>0.4827628602197193</v>
+        <v>0.3374456378204975</v>
       </c>
       <c r="D58">
-        <v>0.05228441809024007</v>
+        <v>0.02768400552257465</v>
       </c>
       <c r="E58">
-        <v>1.737486321024575</v>
+        <v>1.883548186856603</v>
       </c>
       <c r="F58">
-        <v>0.2596114127984071</v>
+        <v>0.2210400354979302</v>
       </c>
       <c r="G58">
-        <v>0.6569729986881502</v>
+        <v>0.444371572817699</v>
       </c>
       <c r="H58">
-        <v>0.01524133712536981</v>
+        <v>0.007694938329346176</v>
       </c>
     </row>
     <row r="59">
@@ -2230,26 +2219,26 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressures:moderator_designLongitudinal</t>
+          <t>specific_factorSocial connection/support:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C59">
-        <v>-0.07225962892237231</v>
+        <v>0.2720228900366277</v>
       </c>
       <c r="D59">
-        <v>6.892359148616339e-17</v>
+        <v>0.08065916066687315</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>7.244115074058485</v>
       </c>
       <c r="F59">
-        <v>-0.07225962892237318</v>
+        <v>0.0893745604209695</v>
       </c>
       <c r="G59">
-        <v>-0.07225962892237144</v>
+        <v>0.4369707354235315</v>
       </c>
       <c r="H59">
-        <v>6.061703602958339e-16</v>
+        <v>0.01000125687616781</v>
       </c>
     </row>
     <row r="60">
@@ -2260,26 +2249,26 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>specific_factorExtrinsic goals:moderator_designLongitudinal</t>
+          <t>specific_factorStyle-related beliefs:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C60">
-        <v>-0.1872936731240021</v>
+        <v>0.5078415474402765</v>
       </c>
       <c r="D60">
-        <v>0.04009513714002388</v>
+        <v>1.077706745986275e-17</v>
       </c>
       <c r="E60">
-        <v>1.003858501964696</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>-0.6007908606428954</v>
+        <v>0.5078415474402764</v>
       </c>
       <c r="G60">
-        <v>0.3052708267224735</v>
+        <v>0.5078415474402767</v>
       </c>
       <c r="H60">
-        <v>0.1320095791061917</v>
+        <v>1.225560458381804e-17</v>
       </c>
     </row>
     <row r="61">
@@ -2290,26 +2279,26 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>specific_factorIll-being:moderator_designLongitudinal</t>
+          <t>specific_factorwell-being:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C61">
-        <v>-0.1169564098530021</v>
+        <v>0.2263731581596578</v>
       </c>
       <c r="D61">
-        <v>0.1128564297204999</v>
+        <v>0.05263997581506966</v>
       </c>
       <c r="E61">
-        <v>1.833141245277981</v>
+        <v>3.464732627720672</v>
       </c>
       <c r="F61">
-        <v>-0.5703162444130488</v>
+        <v>0.07472159591993359</v>
       </c>
       <c r="G61">
-        <v>0.3910196869143958</v>
+        <v>0.3677905977412921</v>
       </c>
       <c r="H61">
-        <v>0.4155214250479734</v>
+        <v>0.01630073171400135</v>
       </c>
     </row>
     <row r="62">
@@ -2320,26 +2309,26 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>specific_factorIntrinsic goals:moderator_designLongitudinal</t>
+          <t>specific_factorWell-being:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C62">
-        <v>0.2539391484859065</v>
+        <v>0.357001297294982</v>
       </c>
       <c r="D62">
-        <v>0.1446452988401649</v>
+        <v>0.06139347088858434</v>
       </c>
       <c r="E62">
-        <v>1.003858501964695</v>
+        <v>6.502883757824868</v>
       </c>
       <c r="F62">
-        <v>-0.9156896157342237</v>
+        <v>0.2222218344563729</v>
       </c>
       <c r="G62">
-        <v>0.9693191346526847</v>
+        <v>0.4783926048484884</v>
       </c>
       <c r="H62">
-        <v>0.3228795025064691</v>
+        <v>0.0006629380381077903</v>
       </c>
     </row>
     <row r="63">
@@ -2350,26 +2339,26 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>specific_factorNeed frustration:moderator_designLongitudinal</t>
+          <t>specific_factorill-being:moderator_designExperimental (non-randomized</t>
         </is>
       </c>
       <c r="C63">
-        <v>-0.09839931460154547</v>
+        <v>0.003927775682992192</v>
       </c>
       <c r="D63">
-        <v>0.04328419402843336</v>
+        <v>0.0002149344089350603</v>
       </c>
       <c r="E63">
-        <v>1.143955800412507</v>
+        <v>1</v>
       </c>
       <c r="F63">
-        <v>-0.4694171992003719</v>
+        <v>0.001196794705488491</v>
       </c>
       <c r="G63">
-        <v>0.3021510235972093</v>
+        <v>0.006658698072127197</v>
       </c>
       <c r="H63">
-        <v>0.2372250487964176</v>
+        <v>0.0348020024595055</v>
       </c>
     </row>
     <row r="64">
@@ -2380,26 +2369,26 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>specific_factorNeed satisfaction:moderator_designLongitudinal</t>
+          <t>specific_factorAutonomous causality orientation:moderator_designExperimental (non-randomized)</t>
         </is>
       </c>
       <c r="C64">
-        <v>0.3273711545460601</v>
+        <v>0.45</v>
       </c>
       <c r="D64">
-        <v>0.127298583874865</v>
+        <v>5.751202734526875e-16</v>
       </c>
       <c r="E64">
-        <v>1.143955800412507</v>
+        <v>1</v>
       </c>
       <c r="F64">
-        <v>-0.7002049941407276</v>
+        <v>0.4499999999999941</v>
       </c>
       <c r="G64">
-        <v>0.9133661876788502</v>
+        <v>0.4500000000000058</v>
       </c>
       <c r="H64">
-        <v>0.2020785382541029</v>
+        <v>7.553800848463641e-16</v>
       </c>
     </row>
     <row r="65">
@@ -2410,26 +2399,26 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>specific_factorNegative life events:moderator_designLongitudinal</t>
+          <t>specific_factorControlled causality orientation:moderator_designExperimental (non-randomized)</t>
         </is>
       </c>
       <c r="C65">
-        <v>0.1466519662212898</v>
+        <v>-0.15</v>
       </c>
       <c r="D65">
-        <v>2.348805665691304e-16</v>
+        <v>5.701910973369846e-16</v>
       </c>
       <c r="E65">
         <v>1</v>
       </c>
       <c r="F65">
-        <v>0.1466519662212869</v>
+        <v>-0.1500000000000071</v>
       </c>
       <c r="G65">
-        <v>0.1466519662212927</v>
+        <v>-0.1499999999999929</v>
       </c>
       <c r="H65">
-        <v>1.012270279969215e-15</v>
+        <v>2.40170622999447e-15</v>
       </c>
     </row>
     <row r="66">
@@ -2440,26 +2429,26 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>specific_factorOthers' abilities:moderator_designLongitudinal</t>
+          <t>specific_factorEmotional intelligence:moderator_designExperimental (non-randomized)</t>
         </is>
       </c>
       <c r="C66">
-        <v>0.1615785282365897</v>
+        <v>0.27</v>
       </c>
       <c r="D66">
-        <v>0.08022376290905245</v>
+        <v>5.603327451055791e-16</v>
       </c>
       <c r="E66">
-        <v>1.002657781864355</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>-0.691053507255859</v>
+        <v>0.2699999999999934</v>
       </c>
       <c r="G66">
-        <v>0.8261809540744417</v>
+        <v>0.2700000000000066</v>
       </c>
       <c r="H66">
-        <v>0.290640431635916</v>
+        <v>1.288427289699002e-15</v>
       </c>
     </row>
     <row r="67">
@@ -2470,26 +2459,26 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative behaviours:moderator_designLongitudinal</t>
+          <t>specific_factorMastery goals:moderator_designExperimental (non-randomized)</t>
         </is>
       </c>
       <c r="C67">
-        <v>-0.1201532690687305</v>
+        <v>0.51</v>
       </c>
       <c r="D67">
-        <v>0.08670785989549901</v>
+        <v>5.859644609072338e-16</v>
       </c>
       <c r="E67">
         <v>1</v>
       </c>
       <c r="F67">
-        <v>-0.840379612082628</v>
+        <v>0.5099999999999946</v>
       </c>
       <c r="G67">
-        <v>0.7534947017180825</v>
+        <v>0.5100000000000056</v>
       </c>
       <c r="H67">
-        <v>0.3964922627493373</v>
+        <v>6.629053269168957e-16</v>
       </c>
     </row>
     <row r="68">
@@ -2500,26 +2489,26 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>specific_factorOthers' positive behaviours:moderator_designLongitudinal</t>
+          <t>specific_factorNeed satisfaction:moderator_designExperimental (non-randomized)</t>
         </is>
       </c>
       <c r="C68">
-        <v>0.1202369962333899</v>
+        <v>-0.04025806720155957</v>
       </c>
       <c r="D68">
-        <v>0.1177209673363106</v>
+        <v>4.368010934131233e-16</v>
       </c>
       <c r="E68">
-        <v>1.002657781864354</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>-0.8776920045473043</v>
+        <v>-0.04025806720156511</v>
       </c>
       <c r="G68">
-        <v>0.9227557471680923</v>
+        <v>-0.04025806720155403</v>
       </c>
       <c r="H68">
-        <v>0.4913669572591537</v>
+        <v>6.90360814233834e-15</v>
       </c>
     </row>
     <row r="69">
@@ -2530,26 +2519,26 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>specific_factorPositive beliefs about knowledge and learning:moderator_designLongitudinal</t>
+          <t>specific_factornegative personality:moderator_designExperimental (non-randomized)</t>
         </is>
       </c>
       <c r="C69">
-        <v>0.08041212177422175</v>
+        <v>-0.4030755561639722</v>
       </c>
       <c r="D69">
-        <v>0.0350173853236829</v>
+        <v>6.085030791162464e-16</v>
       </c>
       <c r="E69">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="F69">
-        <v>-0.3490415777156057</v>
+        <v>-0.4030755561639786</v>
       </c>
       <c r="G69">
-        <v>0.4819523263677383</v>
+        <v>-0.4030755561639657</v>
       </c>
       <c r="H69">
-        <v>0.2609619110717319</v>
+        <v>9.065547975968463e-16</v>
       </c>
     </row>
     <row r="70">
@@ -2560,26 +2549,26 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>specific_factorSelf-efficacy:moderator_designLongitudinal</t>
+          <t>specific_factorOthers' autonomous motivation:moderator_designExperimental (non-randomized)</t>
         </is>
       </c>
       <c r="C70">
-        <v>0.2522565681231434</v>
+        <v>0.2099999999999999</v>
       </c>
       <c r="D70">
-        <v>0.03501738532368284</v>
+        <v>5.204208588109121e-16</v>
       </c>
       <c r="E70">
         <v>1</v>
       </c>
       <c r="F70">
-        <v>-0.1849631315248645</v>
+        <v>0.2099999999999936</v>
       </c>
       <c r="G70">
-        <v>0.6061163184693895</v>
+        <v>0.2100000000000062</v>
       </c>
       <c r="H70">
-        <v>0.08594006903394343</v>
+        <v>1.554196724890225e-15</v>
       </c>
     </row>
     <row r="71">
@@ -2590,26 +2579,26 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>specific_factorSocial connection/support:moderator_designLongitudinal</t>
+          <t>specific_factorStyle-related beliefs:moderator_designExperimental (non-randomized)</t>
         </is>
       </c>
       <c r="C71">
-        <v>0.2041802705973552</v>
+        <v>0.1459394460298269</v>
       </c>
       <c r="D71">
-        <v>0.09979943928874672</v>
+        <v>4.845515820653624e-16</v>
       </c>
       <c r="E71">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="F71">
-        <v>-0.786039138060649</v>
+        <v>0.1459394460298209</v>
       </c>
       <c r="G71">
-        <v>0.9005577752062517</v>
+        <v>0.1459394460298329</v>
       </c>
       <c r="H71">
-        <v>0.2858883259544995</v>
+        <v>2.09862752315866e-15</v>
       </c>
     </row>
     <row r="72">
@@ -2620,656 +2609,548 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>specific_factorWell-being:moderator_designLongitudinal</t>
+          <t>specific_factorStyle-related beliefs:moderator_designExperimental (RCT)</t>
         </is>
       </c>
       <c r="C72">
-        <v>0.3555349505660497</v>
+        <v>-0.0417664796959881</v>
       </c>
       <c r="D72">
-        <v>0.1605554783378195</v>
+        <v>0.2590374709163396</v>
       </c>
       <c r="E72">
-        <v>1.656237888783085</v>
+        <v>1</v>
       </c>
       <c r="F72">
-        <v>-0.4433563184849865</v>
+        <v>-0.9974571579649107</v>
       </c>
       <c r="G72">
-        <v>0.8396339467508519</v>
+        <v>0.9969951903295385</v>
       </c>
       <c r="H72">
-        <v>0.1722307291989152</v>
+        <v>0.8981708632435945</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>specific_factorWell-being:moderator_designCross-lagged</t>
+          <t>specific_factorautonomous motivation:moderator_designLongitudinal</t>
         </is>
       </c>
       <c r="C73">
-        <v>-0.1200487213609953</v>
+        <v>0.42</v>
       </c>
       <c r="D73">
-        <v>2.703186929068138e-16</v>
-      </c>
-      <c r="E73">
-        <v>1</v>
-      </c>
-      <c r="F73">
-        <v>-0.1200487213609987</v>
-      </c>
-      <c r="G73">
-        <v>-0.1200487213609919</v>
-      </c>
-      <c r="H73">
-        <v>1.426590116902456e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>specific_factorAmotivation:moderator_designCross-sectional</t>
+          <t>specific_factorAutonomous motivation:moderator_designLongitudinal</t>
         </is>
       </c>
       <c r="C74">
-        <v>0.3159956301188686</v>
+        <v>0.22</v>
       </c>
       <c r="D74">
-        <v>0.06083224339811464</v>
-      </c>
-      <c r="E74">
-        <v>3.790746899358012</v>
-      </c>
-      <c r="F74">
-        <v>0.1533346664708475</v>
-      </c>
-      <c r="G74">
-        <v>0.4619841315996501</v>
-      </c>
-      <c r="H74">
-        <v>0.006718601494911258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous causality orientation:moderator_designCross-sectional</t>
+          <t>specific_factorCoherence of mind:moderator_designLongitudinal</t>
         </is>
       </c>
       <c r="C75">
-        <v>-0.06028160416217333</v>
+        <v>0.1100445571831774</v>
       </c>
       <c r="D75">
-        <v>2.177794077088058e-17</v>
+        <v>9.639606782517734e-17</v>
       </c>
       <c r="E75">
         <v>1</v>
       </c>
       <c r="F75">
-        <v>-0.0602816041621736</v>
+        <v>0.1100445571831762</v>
       </c>
       <c r="G75">
-        <v>-0.06028160416217305</v>
+        <v>0.1100445571831786</v>
       </c>
       <c r="H75">
-        <v>2.297128274349318e-16</v>
+        <v>5.554033978501471e-16</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous motivation:moderator_designCross-sectional</t>
+          <t>specific_factorcontrolled motivation:moderator_designLongitudinal</t>
         </is>
       </c>
       <c r="C76">
-        <v>-0.07454657234646385</v>
+        <v>-0.1400000000000001</v>
       </c>
       <c r="D76">
-        <v>0.03597528074502949</v>
-      </c>
-      <c r="E76">
-        <v>12.39300549192797</v>
-      </c>
-      <c r="F76">
-        <v>-0.1516156904975433</v>
-      </c>
-      <c r="G76">
-        <v>0.003423465325771633</v>
-      </c>
-      <c r="H76">
-        <v>0.05932206894540167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>specific_factorControlled causality orientation:moderator_designCross-sectional</t>
+          <t>specific_factorControlled motivation:moderator_designLongitudinal</t>
         </is>
       </c>
       <c r="C77">
-        <v>0.2705024953939134</v>
+        <v>-0.07000000000000008</v>
       </c>
       <c r="D77">
-        <v>3.858278904852201e-17</v>
-      </c>
-      <c r="E77">
-        <v>1</v>
-      </c>
-      <c r="F77">
-        <v>0.2705024953939129</v>
-      </c>
-      <c r="G77">
-        <v>0.2705024953939138</v>
-      </c>
-      <c r="H77">
-        <v>8.854377471362111e-17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>specific_factorControlled motivation:moderator_designCross-sectional</t>
+          <t>specific_factorEmotional intelligence:moderator_designLongitudinal</t>
         </is>
       </c>
       <c r="C78">
-        <v>0.141716147885998</v>
+        <v>0.4760880030916776</v>
       </c>
       <c r="D78">
-        <v>0.04995351174036921</v>
+        <v>0.07696278611949571</v>
       </c>
       <c r="E78">
-        <v>10.66428500005646</v>
+        <v>1.419186009353757</v>
       </c>
       <c r="F78">
-        <v>0.03229452986235828</v>
+        <v>0.01605895062266426</v>
       </c>
       <c r="G78">
-        <v>0.2477808964835338</v>
+        <v>0.7697714412385024</v>
       </c>
       <c r="H78">
-        <v>0.01607270940304842</v>
+        <v>0.04786153757943442</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>specific_factorEmotional intelligence:moderator_designCross-sectional</t>
+          <t>specific_factorExternal pressures:moderator_designLongitudinal</t>
         </is>
       </c>
       <c r="C79">
-        <v>-0.223596661393797</v>
+        <v>-0.07225962892237232</v>
       </c>
       <c r="D79">
-        <v>0.07205428422184867</v>
+        <v>1.387916023704028e-17</v>
       </c>
       <c r="E79">
-        <v>2.459868939599237</v>
+        <v>1</v>
       </c>
       <c r="F79">
-        <v>-0.4526590284834692</v>
+        <v>-0.0722596289223725</v>
       </c>
       <c r="G79">
-        <v>0.03314962307560414</v>
+        <v>-0.07225962892237214</v>
       </c>
       <c r="H79">
-        <v>0.06669163787653573</v>
+        <v>1.220646716179797e-16</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>specific_factorEntity beliefs:moderator_designCross-sectional</t>
+          <t>specific_factorExtrinsic goals:moderator_designLongitudinal</t>
         </is>
       </c>
       <c r="C80">
-        <v>0.215946224496123</v>
+        <v>-0.1299999999999999</v>
       </c>
       <c r="D80">
-        <v>0.03071858990639596</v>
-      </c>
-      <c r="E80">
-        <v>1.018371328253487</v>
-      </c>
-      <c r="F80">
-        <v>-0.1534426875383151</v>
-      </c>
-      <c r="G80">
-        <v>0.5323827169774994</v>
-      </c>
-      <c r="H80">
-        <v>0.08570813679331797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressure in terms of constraints:moderator_designCross-sectional</t>
+          <t>specific_factorill-being:moderator_designLongitudinal</t>
         </is>
       </c>
       <c r="C81">
-        <v>0.04544968791214454</v>
+        <v>-0.07000000000000006</v>
       </c>
       <c r="D81">
-        <v>0.05262623755563442</v>
-      </c>
-      <c r="E81">
-        <v>3.307069860646395</v>
-      </c>
-      <c r="F81">
-        <v>-0.1130509435599087</v>
-      </c>
-      <c r="G81">
-        <v>0.2016945449637055</v>
-      </c>
-      <c r="H81">
-        <v>0.4456104934282714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressures:moderator_designCross-sectional</t>
+          <t>specific_factorIll-being:moderator_designLongitudinal</t>
         </is>
       </c>
       <c r="C82">
-        <v>0.2749989154007469</v>
+        <v>-0.1370418644940802</v>
       </c>
       <c r="D82">
-        <v>0.03618326447363845</v>
+        <v>0.1769731111227026</v>
       </c>
       <c r="E82">
-        <v>4.028124405149771</v>
+        <v>1.316394695126001</v>
       </c>
       <c r="F82">
-        <v>0.1800930948142632</v>
+        <v>-0.8932387220500172</v>
       </c>
       <c r="G82">
-        <v>0.3648320065666189</v>
+        <v>0.8216598501116423</v>
       </c>
       <c r="H82">
-        <v>0.001415480601511497</v>
+        <v>0.5513923531820595</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>specific_factorExtrinsic goals:moderator_designCross-sectional</t>
+          <t>specific_factorIntrinsic goals:moderator_designLongitudinal</t>
         </is>
       </c>
       <c r="C83">
-        <v>0.1987266618120521</v>
+        <v>0.4000000000000001</v>
       </c>
       <c r="D83">
-        <v>7.464176098559373e-18</v>
-      </c>
-      <c r="E83">
-        <v>1</v>
-      </c>
-      <c r="F83">
-        <v>0.198726661812052</v>
-      </c>
-      <c r="G83">
-        <v>0.1987266618120521</v>
-      </c>
-      <c r="H83">
-        <v>2.359328932703413e-17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>specific_factorHarmonious passion:moderator_designCross-sectional</t>
+          <t>specific_factorNeed frustration:moderator_designLongitudinal</t>
         </is>
       </c>
       <c r="C84">
-        <v>0.05650191969114101</v>
+        <v>-0.1034011102009204</v>
       </c>
       <c r="D84">
-        <v>0.06022291023738067</v>
+        <v>0.05644333980097247</v>
       </c>
       <c r="E84">
-        <v>1.363020696859398</v>
+        <v>1.098293459954118</v>
       </c>
       <c r="F84">
-        <v>-0.3464834975752084</v>
+        <v>-0.5952255796264888</v>
       </c>
       <c r="G84">
-        <v>0.4418813743026241</v>
+        <v>0.4447818345624654</v>
       </c>
       <c r="H84">
-        <v>0.4837475345056197</v>
+        <v>0.2997705311466049</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>specific_factorIll-being:moderator_designCross-sectional</t>
+          <t>specific_factorNeed satisfaction:moderator_designLongitudinal</t>
         </is>
       </c>
       <c r="C85">
-        <v>0.2716708473345364</v>
+        <v>0.3228520306363382</v>
       </c>
       <c r="D85">
-        <v>0.08754824841162417</v>
+        <v>0.1329889504893876</v>
       </c>
       <c r="E85">
-        <v>6.602855538947477</v>
+        <v>1.098293459954118</v>
       </c>
       <c r="F85">
-        <v>0.06898734544318429</v>
+        <v>-0.7764344233969288</v>
       </c>
       <c r="G85">
-        <v>0.4528158525845826</v>
+        <v>0.9361530632231346</v>
       </c>
       <c r="H85">
-        <v>0.01668398404486675</v>
+        <v>0.2223360309205598</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>specific_factorIncremental beliefs:moderator_designCross-sectional</t>
+          <t>specific_factorNegative life events:moderator_designLongitudinal</t>
         </is>
       </c>
       <c r="C86">
-        <v>-0.05829266360247003</v>
+        <v>0.1466519662212898</v>
       </c>
       <c r="D86">
-        <v>0.01451563941169727</v>
+        <v>5.196705591695725e-17</v>
       </c>
       <c r="E86">
-        <v>1.380183688684756</v>
+        <v>1</v>
       </c>
       <c r="F86">
-        <v>-0.1558641238751012</v>
+        <v>0.1466519662212892</v>
       </c>
       <c r="G86">
-        <v>0.04040535424540644</v>
+        <v>0.1466519662212905</v>
       </c>
       <c r="H86">
-        <v>0.1007634601396692</v>
+        <v>2.239636382465532e-16</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>specific_factorInternal pressures:moderator_designCross-sectional</t>
+          <t>specific_factorothers abilities:moderator_designLongitudinal</t>
         </is>
       </c>
       <c r="C87">
-        <v>0.1377381926477992</v>
+        <v>0.1635394083263118</v>
       </c>
       <c r="D87">
-        <v>0.04905276047826692</v>
+        <v>0.08128995889275682</v>
       </c>
       <c r="E87">
-        <v>1.007454183429207</v>
+        <v>1.001938300991284</v>
       </c>
       <c r="F87">
-        <v>-0.4413146918664639</v>
+        <v>-0.697879995322125</v>
       </c>
       <c r="G87">
-        <v>0.6358052638619131</v>
+        <v>0.8315681036382089</v>
       </c>
       <c r="H87">
-        <v>0.2150327543114584</v>
+        <v>0.2910126637383934</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>specific_factorIntrinsic goals:moderator_designCross-sectional</t>
+          <t>specific_factorothers' negative behaviours:moderator_designLongitudinal</t>
         </is>
       </c>
       <c r="C88">
-        <v>-0.05766513221470127</v>
+        <v>-0.1163125262763407</v>
       </c>
       <c r="D88">
-        <v>1.099288590241804e-17</v>
+        <v>0.09056761006541036</v>
       </c>
       <c r="E88">
         <v>1</v>
       </c>
       <c r="F88">
-        <v>-0.05766513221470141</v>
+        <v>-0.8531490962810325</v>
       </c>
       <c r="G88">
-        <v>-0.05766513221470113</v>
+        <v>0.7754794444107731</v>
       </c>
       <c r="H88">
-        <v>1.212261951286244e-16</v>
+        <v>0.4197828262606402</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>specific_factorInvitation from others' to help:moderator_designCross-sectional</t>
+          <t>specific_factorothers' positive behaviours:moderator_designLongitudinal</t>
         </is>
       </c>
       <c r="C89">
-        <v>-0.1116565732124208</v>
+        <v>0.1222214990118723</v>
       </c>
       <c r="D89">
-        <v>0.02601767493696294</v>
+        <v>0.1188175427477575</v>
       </c>
       <c r="E89">
-        <v>1.587106583087598</v>
+        <v>1.001938300991285</v>
       </c>
       <c r="F89">
-        <v>-0.2516559554118402</v>
+        <v>-0.8809512970911608</v>
       </c>
       <c r="G89">
-        <v>0.03291986685468126</v>
+        <v>0.9254426579679461</v>
       </c>
       <c r="H89">
-        <v>0.07386001393659308</v>
+        <v>0.4891522746390903</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>specific_factorLow personal responsibility for others':moderator_designCross-sectional</t>
+          <t>specific_factorPositive beliefs about knowledge and learning:moderator_designLongitudinal</t>
         </is>
       </c>
       <c r="C90">
-        <v>-0.03690973777072161</v>
+        <v>0.1100000000000001</v>
       </c>
       <c r="D90">
-        <v>0.02601767485042753</v>
-      </c>
-      <c r="E90">
-        <v>1.587106583087597</v>
-      </c>
-      <c r="F90">
-        <v>-0.1799996903584385</v>
-      </c>
-      <c r="G90">
-        <v>0.1077098906012587</v>
-      </c>
-      <c r="H90">
-        <v>0.3205206955317949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>specific_factorMastery goals:moderator_designCross-sectional</t>
+          <t>specific_factorself-efficacy:moderator_designLongitudinal</t>
         </is>
       </c>
       <c r="C91">
-        <v>-0.09778828466174688</v>
+        <v>0.2800000000000001</v>
       </c>
       <c r="D91">
-        <v>0.04806327090179614</v>
-      </c>
-      <c r="E91">
-        <v>1.756325177989529</v>
-      </c>
-      <c r="F91">
-        <v>-0.3229912069735961</v>
-      </c>
-      <c r="G91">
-        <v>0.1378954110452905</v>
-      </c>
-      <c r="H91">
-        <v>0.1954098681504807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>specific_factorNeed frustration:moderator_designCross-sectional</t>
+          <t>specific_factorSocial connection/support:moderator_designLongitudinal</t>
         </is>
       </c>
       <c r="C92">
-        <v>0.2854580505644116</v>
+        <v>0.202504466773531</v>
       </c>
       <c r="D92">
-        <v>0.040308790436616</v>
+        <v>0.1008452077055355</v>
       </c>
       <c r="E92">
-        <v>6.972864326277386</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="F92">
-        <v>0.1956678669445346</v>
+        <v>-0.7917174298307061</v>
       </c>
       <c r="G92">
-        <v>0.3705018988748465</v>
+        <v>0.9027161954776998</v>
       </c>
       <c r="H92">
-        <v>0.0001681284517911573</v>
+        <v>0.2906218512307415</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>specific_factorNeed satisfaction:moderator_designCross-sectional</t>
+          <t>specific_factorWell-being:moderator_designLongitudinal</t>
         </is>
       </c>
       <c r="C93">
-        <v>-0.1262977322435331</v>
+        <v>0.3368811035517325</v>
       </c>
       <c r="D93">
-        <v>0.0361641161161036</v>
+        <v>0.2036320089510088</v>
       </c>
       <c r="E93">
-        <v>9.176707452158281</v>
+        <v>1.160499835377897</v>
       </c>
       <c r="F93">
-        <v>-0.2055735706294789</v>
+        <v>-0.9099352469608112</v>
       </c>
       <c r="G93">
-        <v>-0.04537517554630097</v>
+        <v>0.9770620940927653</v>
       </c>
       <c r="H93">
-        <v>0.006411242701786021</v>
+        <v>0.30837388727266</v>
       </c>
     </row>
     <row r="94">
@@ -3280,26 +3161,26 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>specific_factorNegative personality:moderator_designCross-sectional</t>
+          <t>specific_factorWell-being:moderator_designCross-lagged</t>
         </is>
       </c>
       <c r="C94">
-        <v>0.2715826378855486</v>
+        <v>-0.1200487213609953</v>
       </c>
       <c r="D94">
-        <v>0.03338585182222745</v>
+        <v>2.439721015952702e-17</v>
       </c>
       <c r="E94">
-        <v>2.029037839293111</v>
+        <v>1</v>
       </c>
       <c r="F94">
-        <v>0.1360276789841159</v>
+        <v>-0.1200487213609956</v>
       </c>
       <c r="G94">
-        <v>0.3971555735452996</v>
+        <v>-0.120048721360995</v>
       </c>
       <c r="H94">
-        <v>0.01346692509725676</v>
+        <v>1.287547617196108e-16</v>
       </c>
     </row>
     <row r="95">
@@ -3310,26 +3191,26 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>specific_factorObsessive passion:moderator_designCross-sectional</t>
+          <t>specific_factorAmotivation:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C95">
-        <v>0.2463562072538777</v>
+        <v>0.3209112799298996</v>
       </c>
       <c r="D95">
-        <v>0.06022291023738054</v>
+        <v>0.06072267247325164</v>
       </c>
       <c r="E95">
-        <v>1.363020696859399</v>
+        <v>3.826468399094686</v>
       </c>
       <c r="F95">
-        <v>-0.1649532324487999</v>
+        <v>0.1596338450744582</v>
       </c>
       <c r="G95">
-        <v>0.5846732327330831</v>
+        <v>0.4655034468046575</v>
       </c>
       <c r="H95">
-        <v>0.09766524177349069</v>
+        <v>0.006141163699282123</v>
       </c>
     </row>
     <row r="96">
@@ -3340,26 +3221,26 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>specific_factorOthers' abilities:moderator_designCross-sectional</t>
+          <t>specific_factorAutonomous causality orientation:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C96">
-        <v>-0.3952327376907631</v>
+        <v>-0.06028160416217346</v>
       </c>
       <c r="D96">
-        <v>0.1288204129658955</v>
+        <v>1.03592628625093e-16</v>
       </c>
       <c r="E96">
-        <v>1.041151077540827</v>
+        <v>1</v>
       </c>
       <c r="F96">
-        <v>-0.9570491385644422</v>
+        <v>-0.06028160416217478</v>
       </c>
       <c r="G96">
-        <v>0.7908119373707185</v>
+        <v>-0.06028160416217215</v>
       </c>
       <c r="H96">
-        <v>0.1823758280907309</v>
+        <v>1.092690804573471e-15</v>
       </c>
     </row>
     <row r="97">
@@ -3370,26 +3251,26 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>specific_factorOthers' autonomous motivation:moderator_designCross-sectional</t>
+          <t>specific_factorautonomous motivation:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C97">
-        <v>-0.1766097441548252</v>
+        <v>-0.05893069337206377</v>
       </c>
       <c r="D97">
-        <v>0.1550287465537047</v>
+        <v>0.1222698019292043</v>
       </c>
       <c r="E97">
-        <v>4.122291337553682</v>
+        <v>1.945374360311154</v>
       </c>
       <c r="F97">
-        <v>-0.5398334452462876</v>
+        <v>-0.5366911379824553</v>
       </c>
       <c r="G97">
-        <v>0.2420573058582028</v>
+        <v>0.4474427595219698</v>
       </c>
       <c r="H97">
-        <v>0.3119857683630403</v>
+        <v>0.6782519641494784</v>
       </c>
     </row>
     <row r="98">
@@ -3400,26 +3281,26 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>specific_factorOthers' controlled motivation:moderator_designCross-sectional</t>
+          <t>specific_factorAutonomous motivation:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C98">
-        <v>0.04331654287780414</v>
+        <v>-0.07618601792921199</v>
       </c>
       <c r="D98">
-        <v>0.03965409454112571</v>
+        <v>0.04077178723585998</v>
       </c>
       <c r="E98">
-        <v>1.051358684457225</v>
+        <v>9.988971664764938</v>
       </c>
       <c r="F98">
-        <v>-0.384995076908534</v>
+        <v>-0.1656520911946845</v>
       </c>
       <c r="G98">
-        <v>0.4562760976331239</v>
+        <v>0.01452384307606533</v>
       </c>
       <c r="H98">
-        <v>0.4646705173892948</v>
+        <v>0.09070852949404258</v>
       </c>
     </row>
     <row r="99">
@@ -3430,26 +3311,26 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative behaviours:moderator_designCross-sectional</t>
+          <t>specific_factorControlled causality orientation:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C99">
-        <v>0.4774402032538593</v>
+        <v>0.2705024953939132</v>
       </c>
       <c r="D99">
-        <v>0.1758246782841903</v>
+        <v>1.138796450852535e-16</v>
       </c>
       <c r="E99">
-        <v>1.014744391680445</v>
+        <v>1</v>
       </c>
       <c r="F99">
-        <v>-0.9273512346119969</v>
+        <v>0.2705024953939119</v>
       </c>
       <c r="G99">
-        <v>0.9906134398654891</v>
+        <v>0.2705024953939145</v>
       </c>
       <c r="H99">
-        <v>0.2047699668511881</v>
+        <v>2.613427874852422e-16</v>
       </c>
     </row>
     <row r="100">
@@ -3460,26 +3341,26 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative emotions:moderator_designCross-sectional</t>
+          <t>specific_factorcontrolled motivation:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C100">
-        <v>0.2357878058632937</v>
+        <v>-0.1006995446084522</v>
       </c>
       <c r="D100">
-        <v>0.02109222153170499</v>
+        <v>0.1155173376445055</v>
       </c>
       <c r="E100">
-        <v>2.243785095364469</v>
+        <v>1.184337584431045</v>
       </c>
       <c r="F100">
-        <v>0.1570694470653372</v>
+        <v>-0.8093842380320661</v>
       </c>
       <c r="G100">
-        <v>0.3115290079705608</v>
+        <v>0.7273875212986812</v>
       </c>
       <c r="H100">
-        <v>0.004964652968537092</v>
+        <v>0.5233126221993991</v>
       </c>
     </row>
     <row r="101">
@@ -3490,26 +3371,26 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>specific_factorOthers' positive behaviours:moderator_designCross-sectional</t>
+          <t>specific_factorControlled motivation:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C101">
-        <v>0.03567666899281843</v>
+        <v>0.1750065032379231</v>
       </c>
       <c r="D101">
-        <v>0.06062999655466827</v>
+        <v>0.04787287316531798</v>
       </c>
       <c r="E101">
-        <v>2.012143170144324</v>
+        <v>9.533924504296101</v>
       </c>
       <c r="F101">
-        <v>-0.2200180946905217</v>
+        <v>0.06933681725718339</v>
       </c>
       <c r="G101">
-        <v>0.2867842183548156</v>
+        <v>0.2767926088006172</v>
       </c>
       <c r="H101">
-        <v>0.6153878433879773</v>
+        <v>0.004501762873504132</v>
       </c>
     </row>
     <row r="102">
@@ -3520,26 +3401,26 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>specific_factorOthers' positive emotions:moderator_designCross-sectional</t>
+          <t>specific_factoremotional intelligence:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C102">
-        <v>-0.1605810723913453</v>
+        <v>-0.3810260988498431</v>
       </c>
       <c r="D102">
-        <v>0.02590449104585781</v>
+        <v>0.07666698235411414</v>
       </c>
       <c r="E102">
-        <v>1.097454167556</v>
+        <v>1.237357323478272</v>
       </c>
       <c r="F102">
-        <v>-0.404899553573509</v>
+        <v>-0.7731182510801266</v>
       </c>
       <c r="G102">
-        <v>0.1051392532966644</v>
+        <v>0.2217673215569232</v>
       </c>
       <c r="H102">
-        <v>0.08615003431759299</v>
+        <v>0.08586431556081754</v>
       </c>
     </row>
     <row r="103">
@@ -3550,26 +3431,26 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>specific_factorPerformance goals:moderator_designCross-sectional</t>
+          <t>specific_factorEmotional intelligence:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C103">
-        <v>0.1574995723481245</v>
+        <v>-0.1652114554594451</v>
       </c>
       <c r="D103">
-        <v>0.04940522049019555</v>
+        <v>0.08546288680539681</v>
       </c>
       <c r="E103">
-        <v>1.883225697972472</v>
+        <v>1.661574223471302</v>
       </c>
       <c r="F103">
-        <v>-0.06679702337323408</v>
+        <v>-0.5486420648495856</v>
       </c>
       <c r="G103">
-        <v>0.3666435898789862</v>
+        <v>0.2756397564496493</v>
       </c>
       <c r="H103">
-        <v>0.09153421862107702</v>
+        <v>0.2155690289478544</v>
       </c>
     </row>
     <row r="104">
@@ -3580,26 +3461,26 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>specific_factorPersonal responsibility for others':moderator_designCross-sectional</t>
+          <t>specific_factorentity beliefs:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C104">
-        <v>-0.1247585357171119</v>
+        <v>0.2143045406041261</v>
       </c>
       <c r="D104">
-        <v>0.02890527982839095</v>
+        <v>0.03885991675921205</v>
       </c>
       <c r="E104">
-        <v>1.158819118582427</v>
+        <v>1.023590812573822</v>
       </c>
       <c r="F104">
-        <v>-0.3736930217399969</v>
+        <v>-0.2449065025511042</v>
       </c>
       <c r="G104">
-        <v>0.140940344839307</v>
+        <v>0.5949829630439728</v>
       </c>
       <c r="H104">
-        <v>0.1179851109585681</v>
+        <v>0.1084394742187986</v>
       </c>
     </row>
     <row r="105">
@@ -3610,26 +3491,26 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>specific_factorPersonal responsibility for others' motivation:moderator_designCross-sectional</t>
+          <t>specific_factorExternal pressure in terms of constraints:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C105">
-        <v>-0.1169078281438422</v>
+        <v>0.04521681550489582</v>
       </c>
       <c r="D105">
-        <v>0.1120037148319463</v>
+        <v>0.04877128427090555</v>
       </c>
       <c r="E105">
-        <v>1.897462024464591</v>
+        <v>3.328988711354921</v>
       </c>
       <c r="F105">
-        <v>-0.5547346760767825</v>
+        <v>-0.1012889623209866</v>
       </c>
       <c r="G105">
-        <v>0.3716233295740368</v>
+        <v>0.1898030386644916</v>
       </c>
       <c r="H105">
-        <v>0.4094275637552397</v>
+        <v>0.4157699672977433</v>
       </c>
     </row>
     <row r="106">
@@ -3640,26 +3521,26 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>specific_factorPrior positive related experiences:moderator_designCross-sectional</t>
+          <t>specific_factorexternal pressures:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C106">
-        <v>-0.04695059223533644</v>
+        <v>0.2978962783406525</v>
       </c>
       <c r="D106">
-        <v>0.02601767543255037</v>
+        <v>0.1067670070818743</v>
       </c>
       <c r="E106">
-        <v>1.587106583087596</v>
+        <v>1.004012658970261</v>
       </c>
       <c r="F106">
-        <v>-0.189714502442842</v>
+        <v>-0.7765611430280908</v>
       </c>
       <c r="G106">
-        <v>0.09775751722536351</v>
+        <v>0.9290039423705775</v>
       </c>
       <c r="H106">
-        <v>0.2442777149674946</v>
+        <v>0.212131893260267</v>
       </c>
     </row>
     <row r="107">
@@ -3670,26 +3551,26 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>specific_factorSelf-efficacy:moderator_designCross-sectional</t>
+          <t>specific_factorExternal pressures:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C107">
-        <v>-0.09136093475089202</v>
+        <v>0.25616337455676</v>
       </c>
       <c r="D107">
-        <v>0.02340981060781687</v>
+        <v>0.009371142793579038</v>
       </c>
       <c r="E107">
-        <v>1.706171978784216</v>
+        <v>2.021147541766964</v>
       </c>
       <c r="F107">
-        <v>-0.2078604058038037</v>
+        <v>0.2184985345919238</v>
       </c>
       <c r="G107">
-        <v>0.02769419459778713</v>
+        <v>0.2930661039926036</v>
       </c>
       <c r="H107">
-        <v>0.07643051435555936</v>
+        <v>0.001206646196349611</v>
       </c>
     </row>
     <row r="108">
@@ -3700,26 +3581,26 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>specific_factorSocial connection/support:moderator_designCross-sectional</t>
+          <t>specific_factorExtrinsic goals:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C108">
-        <v>-0.1123202602781438</v>
+        <v>0.1987266618120521</v>
       </c>
       <c r="D108">
-        <v>0.05949541418998368</v>
+        <v>2.370335314875587e-17</v>
       </c>
       <c r="E108">
-        <v>1.495087300783324</v>
+        <v>1</v>
       </c>
       <c r="F108">
-        <v>-0.4401461341957208</v>
+        <v>0.1987266618120518</v>
       </c>
       <c r="G108">
-        <v>0.2419267414658245</v>
+        <v>0.1987266618120523</v>
       </c>
       <c r="H108">
-        <v>0.2393676940674626</v>
+        <v>7.49232147627652e-17</v>
       </c>
     </row>
     <row r="109">
@@ -3730,26 +3611,26 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>specific_factorStyle-related beliefs:moderator_designCross-sectional</t>
+          <t>specific_factorHarmonious passion:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C109">
-        <v>0.4223108377866676</v>
+        <v>0.05210967855078241</v>
       </c>
       <c r="D109">
-        <v>0.1129247464224986</v>
+        <v>0.05327063418413661</v>
       </c>
       <c r="E109">
-        <v>1.022528520501735</v>
+        <v>1.402130339174049</v>
       </c>
       <c r="F109">
-        <v>-0.721972964230611</v>
+        <v>-0.2928135380598843</v>
       </c>
       <c r="G109">
-        <v>0.9481111745956722</v>
+        <v>0.3850325071476709</v>
       </c>
       <c r="H109">
-        <v>0.1520932776815911</v>
+        <v>0.466037133002884</v>
       </c>
     </row>
     <row r="110">
@@ -3760,26 +3641,26 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>specific_factorWell-being:moderator_designCross-sectional</t>
+          <t>specific_factorIll-being:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C110">
-        <v>-0.1887483459688732</v>
+        <v>0.2703622443735711</v>
       </c>
       <c r="D110">
-        <v>0.04758088883363605</v>
+        <v>0.09556187703903209</v>
       </c>
       <c r="E110">
-        <v>4.99383412738724</v>
+        <v>5.659691504143255</v>
       </c>
       <c r="F110">
-        <v>-0.3035224632970088</v>
+        <v>0.03995100221301304</v>
       </c>
       <c r="G110">
-        <v>-0.06857515587394773</v>
+        <v>0.4734725920294083</v>
       </c>
       <c r="H110">
-        <v>0.01019624782711913</v>
+        <v>0.02918528634603641</v>
       </c>
     </row>
     <row r="111">
@@ -3790,26 +3671,26 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous causality orientation:moderator_designExperimental (non-randomized)</t>
+          <t>specific_factorIncremental beliefs:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C111">
-        <v>-0.24</v>
+        <v>-0.05438546479784295</v>
       </c>
       <c r="D111">
-        <v>4.496505269706636e-18</v>
+        <v>0.01450439767489908</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>1.440801963947309</v>
       </c>
       <c r="F111">
-        <v>-0.24</v>
+        <v>-0.145862271590007</v>
       </c>
       <c r="G111">
-        <v>-0.2399999999999999</v>
+        <v>0.03801344005927883</v>
       </c>
       <c r="H111">
-        <v>1.169471775487157e-17</v>
+        <v>0.1038749032324986</v>
       </c>
     </row>
     <row r="112">
@@ -3820,26 +3701,26 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>specific_factorControlled causality orientation:moderator_designExperimental (non-randomized)</t>
+          <t>specific_factorInternal pressures:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C112">
-        <v>0.6</v>
+        <v>0.1424938582438632</v>
       </c>
       <c r="D112">
-        <v>4.496505269706634e-18</v>
+        <v>0.03483760464806163</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>1.009883723519094</v>
       </c>
       <c r="F112">
-        <v>0.5999999999999999</v>
+        <v>-0.2812842200035205</v>
       </c>
       <c r="G112">
-        <v>0.6000000000000001</v>
+        <v>0.519764106794447</v>
       </c>
       <c r="H112">
-        <v>4.129807119662235e-18</v>
+        <v>0.1497725479876535</v>
       </c>
     </row>
     <row r="113">
@@ -3850,26 +3731,26 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>specific_factorEmotional intelligence:moderator_designExperimental (non-randomized)</t>
+          <t>specific_factorIntrinsic goals:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C113">
-        <v>-0.2299999999999998</v>
+        <v>-0.05766513221470124</v>
       </c>
       <c r="D113">
-        <v>1.139239953261033e-17</v>
+        <v>1.483389111999985e-17</v>
       </c>
       <c r="E113">
         <v>1</v>
       </c>
       <c r="F113">
-        <v>-0.23</v>
+        <v>-0.05766513221470143</v>
       </c>
       <c r="G113">
-        <v>-0.2299999999999997</v>
+        <v>-0.05766513221470106</v>
       </c>
       <c r="H113">
-        <v>3.09690563693162e-17</v>
+        <v>1.635836299396429e-16</v>
       </c>
     </row>
     <row r="114">
@@ -3880,14 +3761,26 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>specific_factorInternal pressures:moderator_designExperimental (non-randomized)</t>
+          <t>specific_factorInvitation from others to help:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C114">
-        <v>0.224</v>
+        <v>-0.105802430005915</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>0.03264702763047611</v>
+      </c>
+      <c r="E114">
+        <v>1.302921911997231</v>
+      </c>
+      <c r="F114">
+        <v>-0.3365036953398948</v>
+      </c>
+      <c r="G114">
+        <v>0.1368801128024721</v>
+      </c>
+      <c r="H114">
+        <v>0.1415928426537442</v>
       </c>
     </row>
     <row r="115">
@@ -3898,26 +3791,26 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>specific_factorMastery goals:moderator_designExperimental (non-randomized)</t>
+          <t>specific_factorlow personal responsibility for others:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C115">
-        <v>-0.2199999999999999</v>
+        <v>-0.03099238636967755</v>
       </c>
       <c r="D115">
-        <v>5.090978913060404e-18</v>
+        <v>0.03264702751892794</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>1.302921911997231</v>
       </c>
       <c r="F115">
-        <v>-0.22</v>
+        <v>-0.2682219305717892</v>
       </c>
       <c r="G115">
-        <v>-0.2199999999999999</v>
+        <v>0.2097810434776593</v>
       </c>
       <c r="H115">
-        <v>1.449107672907024e-17</v>
+        <v>0.4848666712107951</v>
       </c>
     </row>
     <row r="116">
@@ -3928,14 +3821,26 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>specific_factorNeed frustration:moderator_designExperimental (non-randomized)</t>
+          <t>specific_factorMastery goals:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C116">
-        <v>0.314</v>
+        <v>-0.09206007871001372</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>0.04694464438421245</v>
+      </c>
+      <c r="E116">
+        <v>1.75661068564919</v>
+      </c>
+      <c r="F116">
+        <v>-0.3128007045830177</v>
+      </c>
+      <c r="G116">
+        <v>0.1381154880816466</v>
+      </c>
+      <c r="H116">
+        <v>0.2054527012160724</v>
       </c>
     </row>
     <row r="117">
@@ -3946,26 +3851,26 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>specific_factorNegative personality:moderator_designExperimental (non-randomized)</t>
+          <t>specific_factorneed frustration:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C117">
-        <v>0.3600413657543437</v>
+        <v>0.1626560022778022</v>
       </c>
       <c r="D117">
-        <v>2.582024819193808e-18</v>
+        <v>0.1155173376445052</v>
       </c>
       <c r="E117">
-        <v>1</v>
+        <v>1.184337584431046</v>
       </c>
       <c r="F117">
-        <v>0.3600413657543436</v>
+        <v>-0.6963016744354523</v>
       </c>
       <c r="G117">
-        <v>0.3600413657543438</v>
+        <v>0.8300548552686173</v>
       </c>
       <c r="H117">
-        <v>4.360897535004456e-18</v>
+        <v>0.3628539309889272</v>
       </c>
     </row>
     <row r="118">
@@ -3976,26 +3881,26 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>specific_factorOthers' autonomous motivation:moderator_designExperimental (non-randomized)</t>
+          <t>specific_factorNeed frustration:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C118">
-        <v>-0.1099999999999999</v>
+        <v>0.3053977158631017</v>
       </c>
       <c r="D118">
-        <v>1.158175681441817e-18</v>
+        <v>0.04641504887077517</v>
       </c>
       <c r="E118">
-        <v>1</v>
+        <v>6.234484672556215</v>
       </c>
       <c r="F118">
-        <v>-0.1099999999999999</v>
+        <v>0.2001758391807632</v>
       </c>
       <c r="G118">
-        <v>-0.1099999999999999</v>
+        <v>0.4036551226408035</v>
       </c>
       <c r="H118">
-        <v>6.675763948740956e-18</v>
+        <v>0.0004217813037302406</v>
       </c>
     </row>
     <row r="119">
@@ -4006,14 +3911,26 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous motivation:moderator_designLongitudinal</t>
+          <t>specific_factorneed satisfaction:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C119">
-        <v>0.03000000000000001</v>
+        <v>-0.07263857946716457</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>0.115517337644505</v>
+      </c>
+      <c r="E119">
+        <v>1.184337584431046</v>
+      </c>
+      <c r="F119">
+        <v>-0.7994064914321645</v>
+      </c>
+      <c r="G119">
+        <v>0.7404308154475904</v>
+      </c>
+      <c r="H119">
+        <v>0.6283235163357532</v>
       </c>
     </row>
     <row r="120">
@@ -4024,14 +3941,26 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>specific_factorControlled motivation:moderator_designLongitudinal</t>
+          <t>specific_factorNeed satisfaction:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C120">
-        <v>0.2500000000000001</v>
+        <v>-0.1507789882876109</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>0.03439760557243064</v>
+      </c>
+      <c r="E120">
+        <v>8.465626478456675</v>
+      </c>
+      <c r="F120">
+        <v>-0.226507917420399</v>
+      </c>
+      <c r="G120">
+        <v>-0.07323808996193358</v>
+      </c>
+      <c r="H120">
+        <v>0.001947622490227643</v>
       </c>
     </row>
     <row r="121">
@@ -4042,26 +3971,26 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>specific_factorExtrinsic goals:moderator_designLongitudinal</t>
+          <t>specific_factorNegative personality:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C121">
-        <v>0.3081655091449354</v>
+        <v>0.2593657273896673</v>
       </c>
       <c r="D121">
-        <v>0.2176872898680614</v>
+        <v>0.02526049525173796</v>
       </c>
       <c r="E121">
-        <v>1.010244751347214</v>
+        <v>2.009236137564951</v>
       </c>
       <c r="F121">
-        <v>-0.9830832188120188</v>
+        <v>0.1559358307328327</v>
       </c>
       <c r="G121">
-        <v>0.995239518728372</v>
+        <v>0.3571697535325971</v>
       </c>
       <c r="H121">
-        <v>0.379922199152228</v>
+        <v>0.008795719750815733</v>
       </c>
     </row>
     <row r="122">
@@ -4072,26 +4001,26 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>specific_factorIll-being:moderator_designLongitudinal</t>
+          <t>specific_factorObsessive passion:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C122">
-        <v>0.35</v>
+        <v>0.2422138587370587</v>
       </c>
       <c r="D122">
-        <v>1.430089916729635e-17</v>
+        <v>0.05327063418413636</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>1.402130339174049</v>
       </c>
       <c r="F122">
-        <v>0.3499999999999999</v>
+        <v>-0.1062704203524072</v>
       </c>
       <c r="G122">
-        <v>0.3500000000000001</v>
+        <v>0.5377056232555415</v>
       </c>
       <c r="H122">
-        <v>2.4912821921632e-17</v>
+        <v>0.08139542170646155</v>
       </c>
     </row>
     <row r="123">
@@ -4102,26 +4031,26 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>specific_factorIntrinsic goals:moderator_designLongitudinal</t>
+          <t>specific_factorOthers positive behaviour:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C123">
-        <v>-0.06421960251317869</v>
+        <v>-0.009633674804149887</v>
       </c>
       <c r="D123">
-        <v>0.1787563977711744</v>
+        <v>0.07666698235411411</v>
       </c>
       <c r="E123">
-        <v>1.010244751347214</v>
+        <v>1.237357323478272</v>
       </c>
       <c r="F123">
-        <v>-0.9793706787971724</v>
+        <v>-0.5624485144773911</v>
       </c>
       <c r="G123">
-        <v>0.9733996425837433</v>
+        <v>0.5491332989686795</v>
       </c>
       <c r="H123">
-        <v>0.7796782982461015</v>
+        <v>0.9172750659011664</v>
       </c>
     </row>
     <row r="124">
@@ -4132,14 +4061,26 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>specific_factorNeed frustration:moderator_designLongitudinal</t>
+          <t>specific_factorOthers' abilities:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C124">
-        <v>0.17</v>
+        <v>-0.3858323579168289</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>0.1326584209706288</v>
+      </c>
+      <c r="E124">
+        <v>1.045114362182159</v>
+      </c>
+      <c r="F124">
+        <v>-0.9587249056740457</v>
+      </c>
+      <c r="G124">
+        <v>0.8062103866746509</v>
+      </c>
+      <c r="H124">
+        <v>0.1919057240838122</v>
       </c>
     </row>
     <row r="125">
@@ -4150,14 +4091,26 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>specific_factorNeed satisfaction:moderator_designLongitudinal</t>
+          <t>specific_factorothers' autonomous motivation:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C125">
-        <v>-0.14</v>
+        <v>-0.3641234743566398</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>0.1410442201342707</v>
+      </c>
+      <c r="E125">
+        <v>1.681374492224405</v>
+      </c>
+      <c r="F125">
+        <v>-0.8051876166518441</v>
+      </c>
+      <c r="G125">
+        <v>0.336312105506373</v>
+      </c>
+      <c r="H125">
+        <v>0.1363905269820886</v>
       </c>
     </row>
     <row r="126">
@@ -4168,14 +4121,26 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>specific_factorOthers' abilities:moderator_designLongitudinal</t>
+          <t>specific_factorOthers' autonomous motivation:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C126">
-        <v>-0.29</v>
+        <v>0.08810299103787748</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>0.09424072045005115</v>
+      </c>
+      <c r="E126">
+        <v>1.896877945620701</v>
+      </c>
+      <c r="F126">
+        <v>-0.3266090447747397</v>
+      </c>
+      <c r="G126">
+        <v>0.4743680013429501</v>
+      </c>
+      <c r="H126">
+        <v>0.452123310537794</v>
       </c>
     </row>
     <row r="127">
@@ -4186,14 +4151,26 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative behaviours:moderator_designLongitudinal</t>
+          <t>specific_factorOthers' controlled motivation:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C127">
-        <v>0.3000000000000001</v>
+        <v>0.08286696751519647</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>0.03600752408655594</v>
+      </c>
+      <c r="E127">
+        <v>1.067425670105913</v>
+      </c>
+      <c r="F127">
+        <v>-0.3018133608242285</v>
+      </c>
+      <c r="G127">
+        <v>0.4443422423088074</v>
+      </c>
+      <c r="H127">
+        <v>0.2476463106806356</v>
       </c>
     </row>
     <row r="128">
@@ -4204,26 +4181,26 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative emotions:moderator_designLongitudinal</t>
+          <t>specific_factorothers' negative behaviours:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C128">
-        <v>0.3011919971946089</v>
+        <v>0.2589443937639408</v>
       </c>
       <c r="D128">
-        <v>1.635765996999862e-17</v>
+        <v>0.0119383695444932</v>
       </c>
       <c r="E128">
-        <v>1</v>
+        <v>1.302160378587403</v>
       </c>
       <c r="F128">
-        <v>0.3011919971946087</v>
+        <v>0.1738975799582566</v>
       </c>
       <c r="G128">
-        <v>0.3011919971946091</v>
+        <v>0.3401571261309967</v>
       </c>
       <c r="H128">
-        <v>3.350258834283228e-17</v>
+        <v>0.01224242757082812</v>
       </c>
     </row>
     <row r="129">
@@ -4234,14 +4211,848 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>specific_factorOthers' positive behaviours:moderator_designLongitudinal</t>
+          <t>specific_factorOthers' negative behaviours:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C129">
-        <v>-0.04000000000000004</v>
+        <v>0.5742441838758511</v>
       </c>
       <c r="D129">
+        <v>0.0691167734925438</v>
+      </c>
+      <c r="E129">
+        <v>1.281289006528452</v>
+      </c>
+      <c r="F129">
+        <v>0.1218382604775185</v>
+      </c>
+      <c r="G129">
+        <v>0.8290898843599077</v>
+      </c>
+      <c r="H129">
+        <v>0.0384576545918431</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>specific_factorothers' negative emotions:moderator_designCross-sectional</t>
+        </is>
+      </c>
+      <c r="C130">
+        <v>0.1845681803881669</v>
+      </c>
+      <c r="D130">
+        <v>0.07666698235411419</v>
+      </c>
+      <c r="E130">
+        <v>1.237357323478272</v>
+      </c>
+      <c r="F130">
+        <v>-0.4136988724227119</v>
+      </c>
+      <c r="G130">
+        <v>0.6715063161398348</v>
+      </c>
+      <c r="H130">
+        <v>0.2077717334846551</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>specific_factorOthers' negative emotions:moderator_designCross-sectional</t>
+        </is>
+      </c>
+      <c r="C131">
+        <v>0.2458970316479273</v>
+      </c>
+      <c r="D131">
+        <v>0.02816563089364928</v>
+      </c>
+      <c r="E131">
+        <v>1.168347597212156</v>
+      </c>
+      <c r="F131">
+        <v>-0.005291477075658978</v>
+      </c>
+      <c r="G131">
+        <v>0.4678963595072845</v>
+      </c>
+      <c r="H131">
+        <v>0.05122135914082752</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>specific_factorOthers' positive emotions:moderator_designCross-sectional</t>
+        </is>
+      </c>
+      <c r="C132">
+        <v>-0.1535168649012243</v>
+      </c>
+      <c r="D132">
+        <v>0.02449151067707133</v>
+      </c>
+      <c r="E132">
+        <v>1.09931693894842</v>
+      </c>
+      <c r="F132">
+        <v>-0.3857202186391014</v>
+      </c>
+      <c r="G132">
+        <v>0.09697625350008514</v>
+      </c>
+      <c r="H132">
+        <v>0.08494061530715226</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>specific_factorPerformance goals:moderator_designCross-sectional</t>
+        </is>
+      </c>
+      <c r="C133">
+        <v>0.1635805803370119</v>
+      </c>
+      <c r="D133">
+        <v>0.05051976963242486</v>
+      </c>
+      <c r="E133">
+        <v>1.886452955088492</v>
+      </c>
+      <c r="F133">
+        <v>-0.0652448140135802</v>
+      </c>
+      <c r="G133">
+        <v>0.376061697156337</v>
+      </c>
+      <c r="H133">
+        <v>0.0888887012531962</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>specific_factorpersonal responsibility for others:moderator_designCross-sectional</t>
+        </is>
+      </c>
+      <c r="C134">
+        <v>-0.1224683506266019</v>
+      </c>
+      <c r="D134">
+        <v>0.0330672261736789</v>
+      </c>
+      <c r="E134">
+        <v>1.197662325305981</v>
+      </c>
+      <c r="F134">
+        <v>-0.3885803999905032</v>
+      </c>
+      <c r="G134">
+        <v>0.1625010057778672</v>
+      </c>
+      <c r="H134">
+        <v>0.1340665036204481</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>specific_factorPersonal responsibility for others' motivation:moderator_designCross-sectional</t>
+        </is>
+      </c>
+      <c r="C135">
+        <v>-0.1192084189786488</v>
+      </c>
+      <c r="D135">
+        <v>0.11529349749273</v>
+      </c>
+      <c r="E135">
+        <v>1.893788662340678</v>
+      </c>
+      <c r="F135">
+        <v>-0.5672673753577644</v>
+      </c>
+      <c r="G135">
+        <v>0.3833053024381161</v>
+      </c>
+      <c r="H135">
+        <v>0.4131416920946556</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>specific_factorprior positive related experiences:moderator_designCross-sectional</t>
+        </is>
+      </c>
+      <c r="C136">
+        <v>-0.04103787858464197</v>
+      </c>
+      <c r="D136">
+        <v>0.03264702826931136</v>
+      </c>
+      <c r="E136">
+        <v>1.302921911997232</v>
+      </c>
+      <c r="F136">
+        <v>-0.2775314816916116</v>
+      </c>
+      <c r="G136">
+        <v>0.2001450775074504</v>
+      </c>
+      <c r="H136">
+        <v>0.3883826142936884</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>specific_factorself-efficacy:moderator_designCross-sectional</t>
+        </is>
+      </c>
+      <c r="C137">
+        <v>-0.09092033908495004</v>
+      </c>
+      <c r="D137">
+        <v>0.03264702759286001</v>
+      </c>
+      <c r="E137">
+        <v>1.302921911997231</v>
+      </c>
+      <c r="F137">
+        <v>-0.3231108706620313</v>
+      </c>
+      <c r="G137">
+        <v>0.1515949458061519</v>
+      </c>
+      <c r="H137">
+        <v>0.1697028864835363</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>specific_factorSelf-efficacy:moderator_designCross-sectional</t>
+        </is>
+      </c>
+      <c r="C138">
+        <v>-0.08361615964188679</v>
+      </c>
+      <c r="D138">
+        <v>0.06274981021692229</v>
+      </c>
+      <c r="E138">
+        <v>1.026339971982981</v>
+      </c>
+      <c r="F138">
+        <v>-0.6828093397400683</v>
+      </c>
+      <c r="G138">
+        <v>0.5828278848480313</v>
+      </c>
+      <c r="H138">
+        <v>0.4049143452217356</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>specific_factorSocial connection/support:moderator_designCross-sectional</t>
+        </is>
+      </c>
+      <c r="C139">
+        <v>-0.1204230911818032</v>
+      </c>
+      <c r="D139">
+        <v>0.05263751476265509</v>
+      </c>
+      <c r="E139">
+        <v>1.520199669905522</v>
+      </c>
+      <c r="F139">
+        <v>-0.406895916860222</v>
+      </c>
+      <c r="G139">
+        <v>0.1876159046443442</v>
+      </c>
+      <c r="H139">
+        <v>0.1868421058431689</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>specific_factorstyle-related beliefs:moderator_designCross-sectional</t>
+        </is>
+      </c>
+      <c r="C140">
+        <v>0.294107094339209</v>
+      </c>
+      <c r="D140">
+        <v>0.01289818532580291</v>
+      </c>
+      <c r="E140">
+        <v>1.311595800522304</v>
+      </c>
+      <c r="F140">
+        <v>0.2048071066857786</v>
+      </c>
+      <c r="G140">
+        <v>0.3785514212233209</v>
+      </c>
+      <c r="H140">
+        <v>0.01107402148648657</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>specific_factorStyle-related beliefs:moderator_designCross-sectional</t>
+        </is>
+      </c>
+      <c r="C141">
+        <v>0.4913306803840954</v>
+      </c>
+      <c r="D141">
+        <v>2.468637520017745e-17</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+      <c r="F141">
+        <v>0.4913306803840951</v>
+      </c>
+      <c r="G141">
+        <v>0.4913306803840956</v>
+      </c>
+      <c r="H141">
+        <v>2.922174714703262e-17</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>specific_factorwell-being:moderator_designCross-sectional</t>
+        </is>
+      </c>
+      <c r="C142">
+        <v>-0.1306575372168735</v>
+      </c>
+      <c r="D142">
+        <v>0.03264702766767363</v>
+      </c>
+      <c r="E142">
+        <v>1.302921911997232</v>
+      </c>
+      <c r="F142">
+        <v>-0.3586653449683735</v>
+      </c>
+      <c r="G142">
+        <v>0.1120631977184446</v>
+      </c>
+      <c r="H142">
+        <v>0.1092076160492176</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>specific_factorWell-being:moderator_designCross-sectional</t>
+        </is>
+      </c>
+      <c r="C143">
+        <v>-0.1992619513791371</v>
+      </c>
+      <c r="D143">
+        <v>0.05731022505501352</v>
+      </c>
+      <c r="E143">
+        <v>3.924935332302119</v>
+      </c>
+      <c r="F143">
+        <v>-0.3472294799715895</v>
+      </c>
+      <c r="G143">
+        <v>-0.04161375585108873</v>
+      </c>
+      <c r="H143">
+        <v>0.02513070983973972</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>specific_factorAutonomous causality orientation:moderator_designExperimental (non-randomized)</t>
+        </is>
+      </c>
+      <c r="C144">
+        <v>-0.2400000000000002</v>
+      </c>
+      <c r="D144">
+        <v>4.283944139822548e-17</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144">
+        <v>-0.2400000000000007</v>
+      </c>
+      <c r="G144">
+        <v>-0.2399999999999997</v>
+      </c>
+      <c r="H144">
+        <v>1.1141878989976e-16</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>specific_factorControlled causality orientation:moderator_designExperimental (non-randomized)</t>
+        </is>
+      </c>
+      <c r="C145">
+        <v>0.5999999999999998</v>
+      </c>
+      <c r="D145">
+        <v>4.494174016130114e-17</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145">
+        <v>0.5999999999999993</v>
+      </c>
+      <c r="G145">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="H145">
+        <v>4.127665984037886e-17</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>specific_factorEmotional intelligence:moderator_designExperimental (non-randomized)</t>
+        </is>
+      </c>
+      <c r="C146">
+        <v>-0.2300000000000003</v>
+      </c>
+      <c r="D146">
+        <v>3.69530048616137e-17</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146">
+        <v>-0.2300000000000007</v>
+      </c>
+      <c r="G146">
+        <v>-0.2299999999999998</v>
+      </c>
+      <c r="H146">
+        <v>1.004529104952056e-16</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>specific_factorInternal pressures:moderator_designExperimental (non-randomized)</t>
+        </is>
+      </c>
+      <c r="C147">
+        <v>0.224</v>
+      </c>
+      <c r="D147">
         <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>specific_factorMastery goals:moderator_designExperimental (non-randomized)</t>
+        </is>
+      </c>
+      <c r="C148">
+        <v>-0.2200000000000003</v>
+      </c>
+      <c r="D148">
+        <v>3.958087831545826e-17</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148">
+        <v>-0.2200000000000008</v>
+      </c>
+      <c r="G148">
+        <v>-0.2199999999999998</v>
+      </c>
+      <c r="H148">
+        <v>1.126639010823362e-16</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>specific_factorNeed frustration:moderator_designExperimental (non-randomized)</t>
+        </is>
+      </c>
+      <c r="C149">
+        <v>0.3140000000000001</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>specific_factornegative personality:moderator_designExperimental (non-randomized)</t>
+        </is>
+      </c>
+      <c r="C150">
+        <v>0.3600413657543434</v>
+      </c>
+      <c r="D150">
+        <v>4.004175981493176e-17</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+      <c r="F150">
+        <v>0.3600413657543429</v>
+      </c>
+      <c r="G150">
+        <v>0.3600413657543438</v>
+      </c>
+      <c r="H150">
+        <v>6.762832424232778e-17</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>specific_factorOthers' autonomous motivation:moderator_designExperimental (non-randomized)</t>
+        </is>
+      </c>
+      <c r="C151">
+        <v>-0.1100000000000004</v>
+      </c>
+      <c r="D151">
+        <v>3.272975462281276e-17</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151">
+        <v>-0.1100000000000008</v>
+      </c>
+      <c r="G151">
+        <v>-0.11</v>
+      </c>
+      <c r="H151">
+        <v>1.886554168449672e-16</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>specific_factorAutonomous motivation:moderator_designLongitudinal</t>
+        </is>
+      </c>
+      <c r="C152">
+        <v>0.02999999999999999</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>specific_factorControlled motivation:moderator_designLongitudinal</t>
+        </is>
+      </c>
+      <c r="C153">
+        <v>0.25</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>specific_factorExtrinsic goals:moderator_designLongitudinal</t>
+        </is>
+      </c>
+      <c r="C154">
+        <v>0.5399999999999999</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>specific_factorIll-being:moderator_designLongitudinal</t>
+        </is>
+      </c>
+      <c r="C155">
+        <v>0.35</v>
+      </c>
+      <c r="D155">
+        <v>4.174270959455278e-17</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+      <c r="F155">
+        <v>0.3499999999999995</v>
+      </c>
+      <c r="G155">
+        <v>0.3500000000000005</v>
+      </c>
+      <c r="H155">
+        <v>7.271771365493071e-17</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>specific_factorIntrinsic goals:moderator_designLongitudinal</t>
+        </is>
+      </c>
+      <c r="C156">
+        <v>0.1799999999999999</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>specific_factorNeed frustration:moderator_designLongitudinal</t>
+        </is>
+      </c>
+      <c r="C157">
+        <v>0.17</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>specific_factorNeed satisfaction:moderator_designLongitudinal</t>
+        </is>
+      </c>
+      <c r="C158">
+        <v>-0.1400000000000001</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>specific_factorothers' negative behaviours:moderator_designLongitudinal</t>
+        </is>
+      </c>
+      <c r="C159">
+        <v>0.3000000000000001</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>specific_factorothers' negative emotions:moderator_designLongitudinal</t>
+        </is>
+      </c>
+      <c r="C160">
+        <v>0.3011919971946089</v>
+      </c>
+      <c r="D160">
+        <v>3.195083712018991e-17</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160">
+        <v>0.3011919971946085</v>
+      </c>
+      <c r="G160">
+        <v>0.3011919971946093</v>
+      </c>
+      <c r="H160">
+        <v>6.543941769237653e-17</v>
       </c>
     </row>
   </sheetData>
@@ -4251,7 +5062,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4306,19 +5117,19 @@
         </is>
       </c>
       <c r="C2">
-        <v>3.175524278531309</v>
+        <v>3.605928257740796</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>6.709347295486836</v>
+        <v>6.502883757824852</v>
       </c>
       <c r="F2">
-        <v>0.01649479196342875</v>
+        <v>0.009831443702296161</v>
       </c>
       <c r="G2">
-        <v>0.1704461836220971</v>
+        <v>0.09831443702296161</v>
       </c>
     </row>
     <row r="3">
@@ -4333,19 +5144,19 @@
         </is>
       </c>
       <c r="C3">
-        <v>1.368380136693353</v>
+        <v>0.9748254613209778</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1.656237888783084</v>
+        <v>1.160499835377897</v>
       </c>
       <c r="F3">
-        <v>0.327421040479379</v>
+        <v>0.4894405971182555</v>
       </c>
       <c r="G3">
-        <v>0.7250037324900536</v>
+        <v>0.6992008530260793</v>
       </c>
     </row>
     <row r="4">
@@ -4360,19 +5171,19 @@
         </is>
       </c>
       <c r="C4">
-        <v>0.1944434758536379</v>
+        <v>0.1075521204147438</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>2.253759292000637</v>
+        <v>1.644476245101597</v>
       </c>
       <c r="F4">
-        <v>0.8619715548200577</v>
+        <v>0.9259946350532825</v>
       </c>
       <c r="G4">
-        <v>0.9147822490779648</v>
+        <v>0.9806052977117552</v>
       </c>
     </row>
     <row r="5">
@@ -4383,23 +5194,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>specific_factorIll-being:moderator_designExperimental (non-randomized - specific_factorIll-being:moderator_designCross-sectional</t>
+          <t>specific_factorill-being:moderator_designExperimental (non-randomized - specific_factorill-being:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C5">
-        <v>2.286510172561661</v>
+        <v>2.800126672841326</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>7.794307966155797</v>
+        <v>1.601799475998967</v>
       </c>
       <c r="F5">
-        <v>0.05238111921917291</v>
+        <v>0.1366421667291508</v>
       </c>
       <c r="G5">
-        <v>0.3332212755709273</v>
+        <v>0.4888530683118223</v>
       </c>
     </row>
     <row r="6">
@@ -4410,23 +5221,23 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>specific_factorIll-being:moderator_designLongitudinal - specific_factorIll-being:moderator_designCross-sectional</t>
+          <t>specific_factorill-being:moderator_designLongitudinal - specific_factorill-being:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C6">
-        <v>0.8750415260704161</v>
+        <v>1.768536415070618</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>2.682490661871199</v>
+        <v>1.601637378529777</v>
       </c>
       <c r="F6">
-        <v>0.4528141338388738</v>
+        <v>0.249108897663932</v>
       </c>
       <c r="G6">
-        <v>0.7798465638336159</v>
+        <v>0.4898685809951718</v>
       </c>
     </row>
     <row r="7">
@@ -4437,23 +5248,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>specific_factorIll-being:moderator_designLongitudinal - specific_factorIll-being:moderator_designExperimental (non-randomized</t>
+          <t>specific_factorill-being:moderator_designLongitudinal - specific_factorill-being:moderator_designExperimental (non-randomized</t>
         </is>
       </c>
       <c r="C7">
-        <v>1.075935304383154</v>
+        <v>344.4886600654036</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>1.833207320007496</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.4031101269735813</v>
+        <v>0.00184800853556375</v>
       </c>
       <c r="G7">
-        <v>0.7350831727165306</v>
+        <v>0.02772012803345624</v>
       </c>
     </row>
     <row r="8">
@@ -4468,19 +5279,19 @@
         </is>
       </c>
       <c r="C8">
-        <v>2.445025306929014</v>
+        <v>2.449150664614502</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>2.496850353202404</v>
+        <v>2.512059927005653</v>
       </c>
       <c r="F8">
-        <v>0.1092650685531656</v>
+        <v>0.1082957363745391</v>
       </c>
       <c r="G8">
-        <v>0.4234021406435167</v>
+        <v>0.4888530683118223</v>
       </c>
     </row>
     <row r="9">
@@ -4495,19 +5306,19 @@
         </is>
       </c>
       <c r="C9">
-        <v>0.2769234496414358</v>
+        <v>0.314271200373301</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>2.407187650805185</v>
+        <v>2.489485443865668</v>
       </c>
       <c r="F9">
-        <v>0.8038554217779444</v>
+        <v>0.7777573692473985</v>
       </c>
       <c r="G9">
-        <v>0.9147822490779648</v>
+        <v>0.8641748547193316</v>
       </c>
     </row>
     <row r="10">
@@ -4522,19 +5333,19 @@
         </is>
       </c>
       <c r="C10">
-        <v>0.18531517467671</v>
+        <v>2.082178623041535</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10">
-        <v>2.882852174404985</v>
+        <v>1.820775157747363</v>
       </c>
       <c r="F10">
-        <v>0.8652480633018985</v>
+        <v>0.1851646178129933</v>
       </c>
       <c r="G10">
-        <v>0.9147822490779648</v>
+        <v>0.4888530683118223</v>
       </c>
     </row>
     <row r="11">
@@ -4549,19 +5360,19 @@
         </is>
       </c>
       <c r="C11">
-        <v>2.407486682876428</v>
+        <v>1.306967718877295</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>4.145049625940017</v>
+        <v>3.184532309857949</v>
       </c>
       <c r="F11">
-        <v>0.07151703131877245</v>
+        <v>0.277592195897264</v>
       </c>
       <c r="G11">
-        <v>0.3695046618136577</v>
+        <v>0.4898685809951718</v>
       </c>
     </row>
     <row r="12">
@@ -4576,19 +5387,19 @@
         </is>
       </c>
       <c r="C12">
-        <v>4.776120144355462</v>
+        <v>3.132028345685681</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>1.737486321024575</v>
+        <v>1.419186009353757</v>
       </c>
       <c r="F12">
-        <v>0.05374536702756892</v>
+        <v>0.1344106626720164</v>
       </c>
       <c r="G12">
-        <v>0.3332212755709273</v>
+        <v>0.4888530683118223</v>
       </c>
     </row>
     <row r="13">
@@ -4603,19 +5414,19 @@
         </is>
       </c>
       <c r="C13">
-        <v>10.49050187690569</v>
+        <v>6.229920329046696</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>2.344326005323607</v>
+        <v>2.07528619176321</v>
       </c>
       <c r="F13">
-        <v>0.005060396733165074</v>
+        <v>0.02265825822319455</v>
       </c>
       <c r="G13">
-        <v>0.07843614936405864</v>
+        <v>0.1699369366739591</v>
       </c>
     </row>
     <row r="14">
@@ -4630,19 +5441,19 @@
         </is>
       </c>
       <c r="C14">
-        <v>7.321437696661033</v>
+        <v>6.958060097948808</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14">
-        <v>16.81682596200787</v>
+        <v>15.65275413590154</v>
       </c>
       <c r="F14">
-        <v>1.27419075305687e-06</v>
+        <v>3.637348319594087e-06</v>
       </c>
       <c r="G14">
-        <v>3.949991334476298e-05</v>
+        <v>0.0001091204495878226</v>
       </c>
     </row>
     <row r="15">
@@ -4657,19 +5468,19 @@
         </is>
       </c>
       <c r="C15">
-        <v>0.4234480261753759</v>
+        <v>0.3963979232808876</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>1.28091113513711</v>
+        <v>1.233729776631014</v>
       </c>
       <c r="F15">
-        <v>0.7320851829350186</v>
+        <v>0.7494397208173297</v>
       </c>
       <c r="G15">
-        <v>0.907785626839423</v>
+        <v>0.8641748547193316</v>
       </c>
     </row>
     <row r="16">
@@ -4684,19 +5495,19 @@
         </is>
       </c>
       <c r="C16">
-        <v>2.98637131786396</v>
+        <v>2.820592126489257</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>1.143955800412507</v>
+        <v>1.098293459954118</v>
       </c>
       <c r="F16">
-        <v>0.1797728785722869</v>
+        <v>0.1985352977355007</v>
       </c>
       <c r="G16">
-        <v>0.5066326577946266</v>
+        <v>0.4888530683118223</v>
       </c>
     </row>
     <row r="17">
@@ -4707,23 +5518,13 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>specific_factorNegative personality:moderator_designExperimental (non-randomized) - specific_factorNegative personality:moderator_designCross-sectional</t>
-        </is>
-      </c>
-      <c r="C17">
-        <v>4.067605374651628</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>1.0443212094221</v>
-      </c>
-      <c r="F17">
-        <v>0.1452711691443307</v>
-      </c>
-      <c r="G17">
-        <v>0.4654159555867163</v>
+          <t>specific_factornegative personality:moderator_designExperimental (non-randomized) - specific_factornegative personality:moderator_designCross-sectional</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -4738,19 +5539,19 @@
         </is>
       </c>
       <c r="C18">
-        <v>0.6233509948189049</v>
+        <v>0.5764461627581614</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18">
-        <v>7.532653298883747</v>
+        <v>4.044968071581092</v>
       </c>
       <c r="F18">
-        <v>0.5514555052337028</v>
+        <v>0.5948728605127822</v>
       </c>
       <c r="G18">
-        <v>0.8483036033439582</v>
+        <v>0.7800389114746121</v>
       </c>
     </row>
     <row r="19">
@@ -4782,7 +5583,7 @@
         </is>
       </c>
       <c r="C20">
-        <v>2.430123260482021</v>
+        <v>2.322473510232636</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -4791,10 +5592,10 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>0.2485250252840805</v>
+        <v>0.2588391472872267</v>
       </c>
       <c r="G20">
-        <v>0.6420229819838746</v>
+        <v>0.4898685809951718</v>
       </c>
     </row>
     <row r="21">
@@ -4809,7 +5610,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>0.7456466205664115</v>
+        <v>0.7287739888975284</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -4818,10 +5619,10 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>0.5921119065136753</v>
+        <v>0.5990711966170774</v>
       </c>
       <c r="G21">
-        <v>0.8483036033439582</v>
+        <v>0.7800389114746121</v>
       </c>
     </row>
     <row r="22">
@@ -4832,23 +5633,23 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous motivation:moderator_designLongitudinal - specific_factorAutonomous motivation:moderator_designCross-sectional</t>
+          <t>specific_factorautonomous motivation:moderator_designLongitudinal - specific_factorautonomous motivation:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C22">
-        <v>0.1794083238182946</v>
+        <v>1.72532535278588</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22">
-        <v>1.081077433992887</v>
+        <v>2.263331125480923</v>
       </c>
       <c r="F22">
-        <v>0.8852731442689981</v>
+        <v>0.2118363296017897</v>
       </c>
       <c r="G22">
-        <v>0.9147822490779648</v>
+        <v>0.4888530683118223</v>
       </c>
     </row>
     <row r="23">
@@ -4859,23 +5660,23 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>specific_factorControlled motivation:moderator_designLongitudinal - specific_factorControlled motivation:moderator_designCross-sectional</t>
+          <t>specific_factorAutonomous motivation:moderator_designLongitudinal - specific_factorAutonomous motivation:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C23">
-        <v>1.37151073142219</v>
+        <v>2.057120482963225</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23">
-        <v>1.121911879404106</v>
+        <v>20.18593196838857</v>
       </c>
       <c r="F23">
-        <v>0.382454454477989</v>
+        <v>0.05282751037974438</v>
       </c>
       <c r="G23">
-        <v>0.7350831727165306</v>
+        <v>0.3169650622784663</v>
       </c>
     </row>
     <row r="24">
@@ -4886,23 +5687,23 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressures:moderator_designLongitudinal - specific_factorExternal pressures:moderator_designCross-sectional</t>
+          <t>specific_factorcontrolled motivation:moderator_designLongitudinal - specific_factorcontrolled motivation:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C24">
-        <v>1.618845216342067</v>
+        <v>1.660972822511505</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24">
-        <v>6.899815590747703</v>
+        <v>1.54813258186575</v>
       </c>
       <c r="F24">
-        <v>0.1501341792215214</v>
+        <v>0.2730912334964955</v>
       </c>
       <c r="G24">
-        <v>0.4654159555867163</v>
+        <v>0.4898685809951718</v>
       </c>
     </row>
     <row r="25">
@@ -4913,23 +5714,23 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>specific_factorExtrinsic goals:moderator_designLongitudinal - specific_factorExtrinsic goals:moderator_designCross-sectional</t>
+          <t>specific_factorControlled motivation:moderator_designLongitudinal - specific_factorControlled motivation:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C25">
-        <v>7.188150212813524</v>
+        <v>0.8261737049206298</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25">
-        <v>1.003858501964696</v>
+        <v>11.63095145381681</v>
       </c>
       <c r="F25">
-        <v>0.0873940489290021</v>
+        <v>0.4253289158284463</v>
       </c>
       <c r="G25">
-        <v>0.3870307881141522</v>
+        <v>0.6379933737426695</v>
       </c>
     </row>
     <row r="26">
@@ -4940,23 +5741,23 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>specific_factorIntrinsic goals:moderator_designLongitudinal - specific_factorIntrinsic goals:moderator_designCross-sectional</t>
+          <t>specific_factorExternal pressures:moderator_designLongitudinal - specific_factorExternal pressures:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C26">
-        <v>0.619119990168581</v>
+        <v>1.053117796192842</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26">
-        <v>1.003858501964695</v>
+        <v>2.265275107499661</v>
       </c>
       <c r="F26">
-        <v>0.6467623301289041</v>
+        <v>0.3915032345861802</v>
       </c>
       <c r="G26">
-        <v>0.8717231406085229</v>
+        <v>0.6379933737426695</v>
       </c>
     </row>
     <row r="27">
@@ -4967,23 +5768,13 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>specific_factorNeed frustration:moderator_designLongitudinal - specific_factorNeed frustration:moderator_designCross-sectional</t>
-        </is>
-      </c>
-      <c r="C27">
-        <v>1.258510844266692</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>1.392031181248218</v>
-      </c>
-      <c r="F27">
-        <v>0.379117023421127</v>
-      </c>
-      <c r="G27">
-        <v>0.7350831727165306</v>
+          <t>specific_factorExtrinsic goals:moderator_designLongitudinal - specific_factorExtrinsic goals:moderator_designCross-sectional</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -4994,23 +5785,23 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>specific_factorOthers' abilities:moderator_designLongitudinal - specific_factorOthers' abilities:moderator_designCross-sectional</t>
+          <t>specific_factorIll-being:moderator_designLongitudinal - specific_factorIll-being:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C28">
-        <v>0.6403646162685065</v>
+        <v>0.5760052011715957</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28">
-        <v>1.583711300972457</v>
+        <v>1.785309386924647</v>
       </c>
       <c r="F28">
-        <v>0.6020219120505509</v>
+        <v>0.6288237628827857</v>
       </c>
       <c r="G28">
-        <v>0.8483036033439582</v>
+        <v>0.7800389114746121</v>
       </c>
     </row>
     <row r="29">
@@ -5021,23 +5812,13 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative behaviours:moderator_designLongitudinal - specific_factorOthers' negative behaviours:moderator_designCross-sectional</t>
-        </is>
-      </c>
-      <c r="C29">
-        <v>0.188746104641814</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>2.009441564872473</v>
-      </c>
-      <c r="F29">
-        <v>0.8676368492116132</v>
-      </c>
-      <c r="G29">
-        <v>0.9147822490779648</v>
+          <t>specific_factorIntrinsic goals:moderator_designLongitudinal - specific_factorIntrinsic goals:moderator_designCross-sectional</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -5048,23 +5829,23 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>specific_factorOthers' positive behaviours:moderator_designLongitudinal - specific_factorOthers' positive behaviours:moderator_designCross-sectional</t>
+          <t>specific_factorNeed frustration:moderator_designLongitudinal - specific_factorNeed frustration:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C30">
-        <v>0.4877392323753161</v>
+        <v>1.156085802505165</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30">
-        <v>1.507001889557267</v>
+        <v>1.377396774954925</v>
       </c>
       <c r="F30">
-        <v>0.6872479299740232</v>
+        <v>0.4097774075107196</v>
       </c>
       <c r="G30">
-        <v>0.8876952428831133</v>
+        <v>0.6379933737426695</v>
       </c>
     </row>
     <row r="31">
@@ -5075,23 +5856,23 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>specific_factorPositive beliefs about knowledge and learning:moderator_designLongitudinal - specific_factorPositive beliefs about knowledge and learning:moderator_designCross-sectional</t>
+          <t>specific_factorothers' negative behaviours:moderator_designLongitudinal - specific_factorothers' negative behaviours:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C31">
-        <v>1.311141077337705</v>
+        <v>0.02727671123267906</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31">
-        <v>2.15075683214755</v>
+        <v>2.105578985827108</v>
       </c>
       <c r="F31">
-        <v>0.3122724270676592</v>
+        <v>0.9806052977117552</v>
       </c>
       <c r="G31">
-        <v>0.7250037324900536</v>
+        <v>0.9806052977117552</v>
       </c>
     </row>
     <row r="32">
@@ -5102,23 +5883,23 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>specific_factorSelf-efficacy:moderator_designLongitudinal - specific_factorSelf-efficacy:moderator_designCross-sectional</t>
+          <t>specific_factorothers' positive behaviours:moderator_designLongitudinal - specific_factorothers' positive behaviours:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C32">
-        <v>0.08595968946701124</v>
+        <v>0.0709710212135173</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32">
-        <v>1.287180794346848</v>
+        <v>1.735017628711881</v>
       </c>
       <c r="F32">
-        <v>0.9428978364946685</v>
+        <v>0.9507350019669276</v>
       </c>
       <c r="G32">
-        <v>0.9428978364946685</v>
+        <v>0.9806052977117552</v>
       </c>
     </row>
     <row r="33">
@@ -5129,67 +5910,77 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>specific_factorSocial connection/support:moderator_designLongitudinal - specific_factorSocial connection/support:moderator_designCross-sectional</t>
+          <t>specific_factorPositive beliefs about knowledge and learning:moderator_designLongitudinal - specific_factorPositive beliefs about knowledge and learning:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C33">
-        <v>0.7581604567434284</v>
+        <v>4.037243943325916</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33">
-        <v>1.328349208541767</v>
+        <v>1.015585080326684</v>
       </c>
       <c r="F33">
-        <v>0.5597643399233887</v>
+        <v>0.1516166885631725</v>
       </c>
       <c r="G33">
-        <v>0.8483036033439582</v>
+        <v>0.4888530683118223</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>specific_factorWell-being:moderator_designCross-sectional - specific_factorWell-being:moderator_designCross-lagged</t>
+          <t>specific_factorself-efficacy:moderator_designLongitudinal - specific_factorself-efficacy:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C34">
-        <v>1.479764199678801</v>
+        <v>2.134190020604668</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34">
-        <v>4.993834127387244</v>
+        <v>1.803726997393544</v>
       </c>
       <c r="F34">
-        <v>0.1990771001763329</v>
+        <v>0.1800889033075376</v>
       </c>
       <c r="G34">
-        <v>0.5308722671368877</v>
+        <v>0.4888530683118223</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous causality orientation:moderator_designExperimental (non-randomized) - specific_factorAutonomous causality orientation:moderator_designCross-sectional</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Inf</t>
-        </is>
+          <t>specific_factorSocial connection/support:moderator_designLongitudinal - specific_factorSocial connection/support:moderator_designCross-sectional</t>
+        </is>
+      </c>
+      <c r="C35">
+        <v>0.5707573466756017</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1.318851355610654</v>
+      </c>
+      <c r="F35">
+        <v>0.6500324262288435</v>
+      </c>
+      <c r="G35">
+        <v>0.7800389114746121</v>
       </c>
     </row>
     <row r="36">
@@ -5200,13 +5991,23 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>specific_factorControlled causality orientation:moderator_designExperimental (non-randomized) - specific_factorControlled causality orientation:moderator_designCross-sectional</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Inf</t>
-        </is>
+          <t>specific_factorWell-being:moderator_designCross-sectional - specific_factorWell-being:moderator_designCross-lagged</t>
+        </is>
+      </c>
+      <c r="C36">
+        <v>1.419177982110642</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>3.924935332302118</v>
+      </c>
+      <c r="F36">
+        <v>0.2301488144156886</v>
+      </c>
+      <c r="G36">
+        <v>0.3885656554235354</v>
       </c>
     </row>
     <row r="37">
@@ -5217,23 +6018,13 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>specific_factorEmotional intelligence:moderator_designExperimental (non-randomized) - specific_factorEmotional intelligence:moderator_designCross-sectional</t>
-        </is>
-      </c>
-      <c r="C37">
-        <v>0.09368770572957411</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>2.459868939599231</v>
-      </c>
-      <c r="F37">
-        <v>0.9324482296911367</v>
-      </c>
-      <c r="G37">
-        <v>0.9765344486254578</v>
+          <t>specific_factorAutonomous causality orientation:moderator_designExperimental (non-randomized) - specific_factorAutonomous causality orientation:moderator_designCross-sectional</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -5244,23 +6035,13 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>specific_factorInternal pressures:moderator_designExperimental (non-randomized) - specific_factorInternal pressures:moderator_designCross-sectional</t>
-        </is>
-      </c>
-      <c r="C38">
-        <v>1.819350812176209</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>1.007454183429207</v>
-      </c>
-      <c r="F38">
-        <v>0.3185498232274478</v>
-      </c>
-      <c r="G38">
-        <v>0.6338068491630463</v>
+          <t>specific_factorControlled causality orientation:moderator_designExperimental (non-randomized) - specific_factorControlled causality orientation:moderator_designCross-sectional</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -5271,23 +6052,23 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>specific_factorMastery goals:moderator_designExperimental (non-randomized) - specific_factorMastery goals:moderator_designCross-sectional</t>
+          <t>specific_factorEmotional intelligence:moderator_designExperimental (non-randomized) - specific_factorEmotional intelligence:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C39">
-        <v>2.612271690157519</v>
+        <v>0.7892287220142636</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39">
-        <v>1.75632517798953</v>
+        <v>1.661574223471302</v>
       </c>
       <c r="F39">
-        <v>0.1374092287538588</v>
+        <v>0.5268277660333207</v>
       </c>
       <c r="G39">
-        <v>0.4397095320123483</v>
+        <v>0.5795105426366528</v>
       </c>
     </row>
     <row r="40">
@@ -5298,23 +6079,23 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>specific_factorNegative personality:moderator_designExperimental (non-randomized) - specific_factorNegative personality:moderator_designCross-sectional</t>
+          <t>specific_factorInternal pressures:moderator_designExperimental (non-randomized) - specific_factorInternal pressures:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C40">
-        <v>2.946210020032739</v>
+        <v>2.422476214554217</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40">
-        <v>2.029037839293108</v>
+        <v>1.009883723519094</v>
       </c>
       <c r="F40">
-        <v>0.09681922694353465</v>
+        <v>0.2472690534513407</v>
       </c>
       <c r="G40">
-        <v>0.3872769077741386</v>
+        <v>0.3885656554235354</v>
       </c>
     </row>
     <row r="41">
@@ -5325,23 +6106,23 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>specific_factorOthers' autonomous motivation:moderator_designExperimental (non-randomized) - specific_factorOthers' autonomous motivation:moderator_designCross-sectional</t>
+          <t>specific_factorMastery goals:moderator_designExperimental (non-randomized) - specific_factorMastery goals:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C41">
-        <v>0.4388488594636623</v>
+        <v>2.797648805268859</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41">
-        <v>4.12229133755368</v>
+        <v>1.756610685649191</v>
       </c>
       <c r="F41">
-        <v>0.6827956991592854</v>
+        <v>0.1239456261882274</v>
       </c>
       <c r="G41">
-        <v>0.8096938322688298</v>
+        <v>0.3663149089404388</v>
       </c>
     </row>
     <row r="42">
@@ -5352,23 +6133,23 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous motivation:moderator_designLongitudinal - specific_factorAutonomous motivation:moderator_designCross-sectional</t>
+          <t>specific_factorOthers' autonomous motivation:moderator_designExperimental (non-randomized) - specific_factorOthers' autonomous motivation:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C42">
-        <v>2.910168514886205</v>
+        <v>2.109267939432522</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42">
-        <v>12.39300549192795</v>
+        <v>1.896877945620699</v>
       </c>
       <c r="F42">
-        <v>0.01269905960867875</v>
+        <v>0.1762949798882971</v>
       </c>
       <c r="G42">
-        <v>0.2031849537388599</v>
+        <v>0.3878489557542538</v>
       </c>
     </row>
     <row r="43">
@@ -5379,23 +6160,23 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>specific_factorControlled motivation:moderator_designLongitudinal - specific_factorControlled motivation:moderator_designCross-sectional</t>
+          <t>specific_factorAutonomous motivation:moderator_designLongitudinal - specific_factorAutonomous motivation:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C43">
-        <v>2.256825279675448</v>
+        <v>2.608248200193544</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43">
-        <v>10.66428500005642</v>
+        <v>9.988971664764925</v>
       </c>
       <c r="F43">
-        <v>0.0460597215890814</v>
+        <v>0.02614111288179702</v>
       </c>
       <c r="G43">
-        <v>0.3592449313814295</v>
+        <v>0.2875522416997672</v>
       </c>
     </row>
     <row r="44">
@@ -5406,23 +6187,23 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>specific_factorExtrinsic goals:moderator_designLongitudinal - specific_factorExtrinsic goals:moderator_designCross-sectional</t>
+          <t>specific_factorControlled motivation:moderator_designLongitudinal - specific_factorControlled motivation:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C44">
-        <v>0.5379764846352315</v>
+        <v>1.64155768947369</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44">
-        <v>1.010244751347214</v>
+        <v>9.533924504296095</v>
       </c>
       <c r="F44">
-        <v>0.6850554321565665</v>
+        <v>0.1332054214328869</v>
       </c>
       <c r="G44">
-        <v>0.8096938322688298</v>
+        <v>0.3663149089404388</v>
       </c>
     </row>
     <row r="45">
@@ -5433,23 +6214,13 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>specific_factorIll-being:moderator_designLongitudinal - specific_factorIll-being:moderator_designCross-sectional</t>
-        </is>
-      </c>
-      <c r="C45">
-        <v>0.9911885611311627</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>6.602855538947464</v>
-      </c>
-      <c r="F45">
-        <v>0.3565163526542136</v>
-      </c>
-      <c r="G45">
-        <v>0.6338068491630463</v>
+          <t>specific_factorExtrinsic goals:moderator_designLongitudinal - specific_factorExtrinsic goals:moderator_designCross-sectional</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -5460,23 +6231,23 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>specific_factorIntrinsic goals:moderator_designLongitudinal - specific_factorIntrinsic goals:moderator_designCross-sectional</t>
+          <t>specific_factorIll-being:moderator_designLongitudinal - specific_factorIll-being:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C46">
-        <v>0.03680387522256</v>
+        <v>0.9228487826346305</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46">
-        <v>1.010244751347214</v>
+        <v>5.659691504143252</v>
       </c>
       <c r="F46">
-        <v>0.9765344486254578</v>
+        <v>0.3937273788539898</v>
       </c>
       <c r="G46">
-        <v>0.9765344486254578</v>
+        <v>0.4812223519326543</v>
       </c>
     </row>
     <row r="47">
@@ -5487,23 +6258,13 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>specific_factorNeed satisfaction:moderator_designLongitudinal - specific_factorNeed satisfaction:moderator_designCross-sectional</t>
-        </is>
-      </c>
-      <c r="C47">
-        <v>0.3857363102046006</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>9.176707452158281</v>
-      </c>
-      <c r="F47">
-        <v>0.7084821032352262</v>
-      </c>
-      <c r="G47">
-        <v>0.8096938322688298</v>
+          <t>specific_factorIntrinsic goals:moderator_designLongitudinal - specific_factorIntrinsic goals:moderator_designCross-sectional</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -5514,23 +6275,23 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>specific_factorOthers' abilities:moderator_designLongitudinal - specific_factorOthers' abilities:moderator_designCross-sectional</t>
+          <t>specific_factorNeed satisfaction:moderator_designLongitudinal - specific_factorNeed satisfaction:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C48">
-        <v>0.9270281431109243</v>
+        <v>0.3201349073330191</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48">
-        <v>1.041151077540826</v>
+        <v>8.465626478456675</v>
       </c>
       <c r="F48">
-        <v>0.5191353842922952</v>
+        <v>0.7566254489654376</v>
       </c>
       <c r="G48">
-        <v>0.7551060135160658</v>
+        <v>0.7566254489654376</v>
       </c>
     </row>
     <row r="49">
@@ -5541,23 +6302,23 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative behaviours:moderator_designLongitudinal - specific_factorOthers' negative behaviours:moderator_designCross-sectional</t>
+          <t>specific_factorothers' negative behaviours:moderator_designLongitudinal - specific_factorothers' negative behaviours:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C49">
-        <v>1.195189582490322</v>
+        <v>3.731079299660095</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49">
-        <v>1.014744391680445</v>
+        <v>1.302160378587405</v>
       </c>
       <c r="F49">
-        <v>0.4413267106914353</v>
+        <v>0.1199775848210161</v>
       </c>
       <c r="G49">
-        <v>0.7061227371062965</v>
+        <v>0.3663149089404388</v>
       </c>
     </row>
     <row r="50">
@@ -5568,50 +6329,238 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative emotions:moderator_designLongitudinal - specific_factorOthers' negative emotions:moderator_designCross-sectional</t>
+          <t>specific_factorothers' negative emotions:moderator_designLongitudinal - specific_factorothers' negative emotions:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C50">
-        <v>3.343449623849682</v>
+        <v>1.618977535979517</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50">
-        <v>2.24378509536447</v>
+        <v>1.237357323478273</v>
       </c>
       <c r="F50">
-        <v>0.06735842463401805</v>
+        <v>0.3155995772312467</v>
       </c>
       <c r="G50">
-        <v>0.3592449313814295</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>specific_factorOthers' positive behaviours:moderator_designLongitudinal - specific_factorOthers' positive behaviours:moderator_designCross-sectional</t>
-        </is>
-      </c>
-      <c r="C51">
-        <v>1.248774128610792</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51">
-        <v>2.012143170144324</v>
-      </c>
-      <c r="F51">
-        <v>0.3374506312140427</v>
-      </c>
-      <c r="G51">
-        <v>0.6338068491630463</v>
+        <v>0.4339494186929642</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>outcome</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>moderator_design</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>n_effect_sizes</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>k_studies</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="C2">
+        <v>732</v>
+      </c>
+      <c r="D2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Experimental (non-randomized)</t>
+        </is>
+      </c>
+      <c r="C3">
+        <v>21</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Longitudinal</t>
+        </is>
+      </c>
+      <c r="C4">
+        <v>65</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Experimental (RCT)</t>
+        </is>
+      </c>
+      <c r="C5">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cross-lagged</t>
+        </is>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="C7">
+        <v>395</v>
+      </c>
+      <c r="D7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Experimental (non-randomized)</t>
+        </is>
+      </c>
+      <c r="C8">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Longitudinal</t>
+        </is>
+      </c>
+      <c r="C9">
+        <v>23</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cross-lagged</t>
+        </is>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Experimental (non-randomized</t>
+        </is>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/09-specific-design.xlsx
+++ b/output/09-specific-design.xlsx
@@ -409,25 +409,25 @@
         </is>
       </c>
       <c r="B2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C2">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="D2">
-        <v>0.009982515980106564</v>
+        <v>0.008747558669004889</v>
       </c>
       <c r="E2">
-        <v>0.02320409922871177</v>
+        <v>0.02454276994440365</v>
       </c>
       <c r="F2">
-        <v>94.45594721461916</v>
+        <v>94.48300010675544</v>
       </c>
       <c r="G2">
-        <v>66.04364916755925</v>
+        <v>69.65610229342037</v>
       </c>
       <c r="H2">
-        <v>28.41229804705991</v>
+        <v>24.82689781333507</v>
       </c>
     </row>
     <row r="3">
@@ -437,25 +437,25 @@
         </is>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="D3">
-        <v>7.925617209619455e-09</v>
+        <v>3.584456615616611e-09</v>
       </c>
       <c r="E3">
-        <v>0.0206009147855392</v>
+        <v>0.02330154336772803</v>
       </c>
       <c r="F3">
-        <v>86.32012393380562</v>
+        <v>88.26360803184464</v>
       </c>
       <c r="G3">
-        <v>86.3200907246009</v>
+        <v>88.26359445433091</v>
       </c>
       <c r="H3">
-        <v>3.320920472245442e-05</v>
+        <v>1.357751373233505e-05</v>
       </c>
     </row>
   </sheetData>
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H160"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -525,22 +525,22 @@
         </is>
       </c>
       <c r="C2">
-        <v>0.1509031501759659</v>
+        <v>0.1509031501759657</v>
       </c>
       <c r="D2">
-        <v>1.663526574924202e-15</v>
+        <v>5.789573023436185e-16</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.1509031501759452</v>
+        <v>0.1509031501759585</v>
       </c>
       <c r="G2">
-        <v>0.1509031501759866</v>
+        <v>0.1509031501759729</v>
       </c>
       <c r="H2">
-        <v>6.964372934548106e-15</v>
+        <v>2.423811333993631e-15</v>
       </c>
     </row>
     <row r="3">
@@ -555,22 +555,22 @@
         </is>
       </c>
       <c r="C3">
-        <v>-0.2856375863784066</v>
+        <v>-0.2886845470587346</v>
       </c>
       <c r="D3">
-        <v>0.07331887904621388</v>
+        <v>0.07176109744617215</v>
       </c>
       <c r="E3">
-        <v>3.279942366341496</v>
+        <v>3.199266940470383</v>
       </c>
       <c r="F3">
-        <v>-0.4748173562530525</v>
+        <v>-0.4758970279264057</v>
       </c>
       <c r="G3">
-        <v>-0.07122714447237684</v>
+        <v>-0.07644527211339207</v>
       </c>
       <c r="H3">
-        <v>0.02356341145098569</v>
+        <v>0.02255776091657363</v>
       </c>
     </row>
     <row r="4">
@@ -585,22 +585,22 @@
         </is>
       </c>
       <c r="C4">
-        <v>0.2072767471440492</v>
+        <v>0.2139248777025904</v>
       </c>
       <c r="D4">
-        <v>0.1120290920298442</v>
+        <v>0.1093728619603988</v>
       </c>
       <c r="E4">
-        <v>2.512059927005645</v>
+        <v>2.496850353202395</v>
       </c>
       <c r="F4">
-        <v>-0.186558332073302</v>
+        <v>-0.1723061916260843</v>
       </c>
       <c r="G4">
-        <v>0.543716802700105</v>
+        <v>0.5431437973969191</v>
       </c>
       <c r="H4">
-        <v>0.1746972098193458</v>
+        <v>0.1593600639834534</v>
       </c>
     </row>
     <row r="5">
@@ -611,26 +611,26 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>specific_factorautonomous motivation:moderator_designCross-sectional</t>
+          <t>specific_factorAutonomous motivation:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C5">
-        <v>0.2337889867678651</v>
+        <v>0.2978029903408838</v>
       </c>
       <c r="D5">
-        <v>0.1214253479526888</v>
+        <v>0.0430922472360608</v>
       </c>
       <c r="E5">
-        <v>2.26333112548092</v>
+        <v>23.31231473074775</v>
       </c>
       <c r="F5">
-        <v>-0.2261422140448008</v>
+        <v>0.2146395986762412</v>
       </c>
       <c r="G5">
-        <v>0.6084821557990319</v>
+        <v>0.3766792223929933</v>
       </c>
       <c r="H5">
-        <v>0.1737905935704181</v>
+        <v>2.714303548835548e-07</v>
       </c>
     </row>
     <row r="6">
@@ -641,26 +641,26 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous motivation:moderator_designCross-sectional</t>
+          <t>specific_factorControlled causality orientation:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C6">
-        <v>0.3108586636934202</v>
+        <v>-0.1749652928652731</v>
       </c>
       <c r="D6">
-        <v>0.04756140221670335</v>
+        <v>0.09260241710203099</v>
       </c>
       <c r="E6">
-        <v>20.18593196838856</v>
+        <v>2.407187650805177</v>
       </c>
       <c r="F6">
-        <v>0.2187499403030584</v>
+        <v>-0.4754729035895218</v>
       </c>
       <c r="G6">
-        <v>0.3974765667807954</v>
+        <v>0.1621071298714447</v>
       </c>
       <c r="H6">
-        <v>1.350603413648413e-06</v>
+        <v>0.1744887343873141</v>
       </c>
     </row>
     <row r="7">
@@ -671,26 +671,26 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>specific_factorControlled causality orientation:moderator_designCross-sectional</t>
+          <t>specific_factorControlled motivation:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C7">
-        <v>-0.1792392033288383</v>
+        <v>-0.04036037572111817</v>
       </c>
       <c r="D7">
-        <v>0.09563743623652704</v>
+        <v>0.03722196364270199</v>
       </c>
       <c r="E7">
-        <v>2.489485443865668</v>
+        <v>12.91248304101341</v>
       </c>
       <c r="F7">
-        <v>-0.48086022977388</v>
+        <v>-0.1202659902427611</v>
       </c>
       <c r="G7">
-        <v>0.1603146062806932</v>
+        <v>0.04006483109696184</v>
       </c>
       <c r="H7">
-        <v>0.173015038110286</v>
+        <v>0.2978042509458746</v>
       </c>
     </row>
     <row r="8">
@@ -701,26 +701,26 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>specific_factorcontrolled motivation:moderator_designCross-sectional</t>
+          <t>specific_factorEmotional intelligence:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C8">
-        <v>-0.007409288029472289</v>
+        <v>0.2840595279348826</v>
       </c>
       <c r="D8">
-        <v>0.08038430890804832</v>
+        <v>0.08217668981422918</v>
       </c>
       <c r="E8">
-        <v>1.548132581865746</v>
+        <v>2.882852174404991</v>
       </c>
       <c r="F8">
-        <v>-0.4386411956330943</v>
+        <v>0.02444855235463499</v>
       </c>
       <c r="G8">
-        <v>0.4265961721117051</v>
+        <v>0.5077781120046507</v>
       </c>
       <c r="H8">
-        <v>0.9370495906087517</v>
+        <v>0.04046718122904695</v>
       </c>
     </row>
     <row r="9">
@@ -731,26 +731,26 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>specific_factorControlled motivation:moderator_designCross-sectional</t>
+          <t>specific_factorEntity beliefs:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C9">
-        <v>-0.03784809747478905</v>
+        <v>-0.2257944708552008</v>
       </c>
       <c r="D9">
-        <v>0.03903354130452114</v>
+        <v>0.0349839394974976</v>
       </c>
       <c r="E9">
-        <v>11.63095145381682</v>
+        <v>1.956532459397718</v>
       </c>
       <c r="F9">
-        <v>-0.122593466051259</v>
+        <v>-0.3657672252304221</v>
       </c>
       <c r="G9">
-        <v>0.04744520417027488</v>
+        <v>-0.07583342170493819</v>
       </c>
       <c r="H9">
-        <v>0.3517415396314808</v>
+        <v>0.02368264978209532</v>
       </c>
     </row>
     <row r="10">
@@ -761,26 +761,26 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>specific_factoremotional intelligence:moderator_designCross-sectional</t>
+          <t>specific_factorExternal pressure in terms of constraints:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C10">
-        <v>0.1599461564425539</v>
+        <v>0.00452356150616224</v>
       </c>
       <c r="D10">
-        <v>0.08481544712628562</v>
+        <v>0.04017464132313572</v>
       </c>
       <c r="E10">
-        <v>1.479313509510741</v>
+        <v>5.392695018221377</v>
       </c>
       <c r="F10">
-        <v>-0.3444117199332569</v>
+        <v>-0.0962284769021518</v>
       </c>
       <c r="G10">
-        <v>0.5926573924394311</v>
+        <v>0.1051838445697671</v>
       </c>
       <c r="H10">
-        <v>0.2400896613029523</v>
+        <v>0.9144218110991462</v>
       </c>
     </row>
     <row r="11">
@@ -791,26 +791,26 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>specific_factorEmotional intelligence:moderator_designCross-sectional</t>
+          <t>specific_factorExternal pressures:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C11">
-        <v>0.3743757414548737</v>
+        <v>0.01014561583913241</v>
       </c>
       <c r="D11">
-        <v>0.05601759810042672</v>
+        <v>0.05098186924857668</v>
       </c>
       <c r="E11">
-        <v>1.820775157747368</v>
+        <v>6.899815590747679</v>
       </c>
       <c r="F11">
-        <v>0.1275537658567307</v>
+        <v>-0.1103120017138216</v>
       </c>
       <c r="G11">
-        <v>0.5775326564009271</v>
+        <v>0.130309494587581</v>
       </c>
       <c r="H11">
-        <v>0.0250820364894512</v>
+        <v>0.8479911230664905</v>
       </c>
     </row>
     <row r="12">
@@ -821,26 +821,26 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>specific_factorentity beliefs:moderator_designCross-sectional</t>
+          <t>specific_factorExtrinsic goals:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C12">
-        <v>-0.2130305513427445</v>
+        <v>0.09835984062354475</v>
       </c>
       <c r="D12">
-        <v>0.04239288000366549</v>
+        <v>6.279539275658321e-17</v>
       </c>
       <c r="E12">
-        <v>1.993614570490845</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>-0.3793555705665085</v>
+        <v>0.09835984062354397</v>
       </c>
       <c r="G12">
-        <v>-0.03336859903562499</v>
+        <v>0.09835984062354554</v>
       </c>
       <c r="H12">
-        <v>0.03655930970102979</v>
+        <v>4.051199503878328e-16</v>
       </c>
     </row>
     <row r="13">
@@ -851,26 +851,26 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressure in terms of constraints:moderator_designCross-sectional</t>
+          <t>specific_factorIll-being:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C13">
-        <v>0.005035729102092413</v>
+        <v>-0.2526923772275875</v>
       </c>
       <c r="D13">
-        <v>0.04128771383640618</v>
+        <v>0.1146807406241891</v>
       </c>
       <c r="E13">
-        <v>5.592882840092219</v>
+        <v>7.793009814048637</v>
       </c>
       <c r="F13">
-        <v>-0.09749067684193903</v>
+        <v>-0.4807572298315209</v>
       </c>
       <c r="G13">
-        <v>0.1074563737884461</v>
+        <v>0.007395030056284044</v>
       </c>
       <c r="H13">
-        <v>0.9071877228460397</v>
+        <v>0.05523442450700265</v>
       </c>
     </row>
     <row r="14">
@@ -881,26 +881,26 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>specific_factorexternal pressures:moderator_designCross-sectional</t>
+          <t>specific_factorIncremental beliefs:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C14">
-        <v>-0.0109711852156729</v>
+        <v>0.1355430351399312</v>
       </c>
       <c r="D14">
-        <v>0.0830740195261799</v>
+        <v>0.01830666730916733</v>
       </c>
       <c r="E14">
-        <v>3.456983642063988</v>
+        <v>1.085549552254471</v>
       </c>
       <c r="F14">
-        <v>-0.2511480925130979</v>
+        <v>-0.05701875622158065</v>
       </c>
       <c r="G14">
-        <v>0.2304783264215252</v>
+        <v>0.3183818605172247</v>
       </c>
       <c r="H14">
-        <v>0.902249749236936</v>
+        <v>0.07282017318275948</v>
       </c>
     </row>
     <row r="15">
@@ -911,26 +911,26 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressures:moderator_designCross-sectional</t>
+          <t>specific_factorInternal pressures:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C15">
-        <v>0.03153569172718956</v>
+        <v>-0.09840516894174532</v>
       </c>
       <c r="D15">
-        <v>0.09868976064232843</v>
+        <v>0.06992564085073148</v>
       </c>
       <c r="E15">
-        <v>2.265275107499674</v>
+        <v>1.909272036501495</v>
       </c>
       <c r="F15">
-        <v>-0.3353241932561702</v>
+        <v>-0.3916226096965653</v>
       </c>
       <c r="G15">
-        <v>0.3900909372255355</v>
+        <v>0.2129560728719955</v>
       </c>
       <c r="H15">
-        <v>0.7763473021050151</v>
+        <v>0.2989299335954078</v>
       </c>
     </row>
     <row r="16">
@@ -941,26 +941,26 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>specific_factorExtrinsic goals:moderator_designCross-sectional</t>
+          <t>specific_factorIntrinsic goals:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C16">
-        <v>0.09835984062354486</v>
+        <v>0.3356408577661755</v>
       </c>
       <c r="D16">
-        <v>5.899517881054794e-16</v>
+        <v>3.248071017043304e-17</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>0.09835984062353743</v>
+        <v>0.3356408577661752</v>
       </c>
       <c r="G16">
-        <v>0.09835984062355228</v>
+        <v>0.3356408577661759</v>
       </c>
       <c r="H16">
-        <v>3.806031440156076e-15</v>
+        <v>5.92197358382021e-17</v>
       </c>
     </row>
     <row r="17">
@@ -971,26 +971,26 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>specific_factorill-being:moderator_designCross-sectional</t>
+          <t>specific_factorInvitation from others' to help:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C17">
-        <v>-0.1945385584663347</v>
+        <v>0.1823241447425966</v>
       </c>
       <c r="D17">
-        <v>0.07177419992332329</v>
+        <v>0.04340946004074812</v>
       </c>
       <c r="E17">
-        <v>1.601637378529774</v>
+        <v>8.745423832886059</v>
       </c>
       <c r="F17">
-        <v>-0.5317095296896092</v>
+        <v>0.08553965180061031</v>
       </c>
       <c r="G17">
-        <v>0.1958617544598307</v>
+        <v>0.2756998790013391</v>
       </c>
       <c r="H17">
-        <v>0.1404802858826617</v>
+        <v>0.002294326809485658</v>
       </c>
     </row>
     <row r="18">
@@ -1001,26 +1001,26 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>specific_factorIll-being:moderator_designCross-sectional</t>
+          <t>specific_factorLow Personal responsibility for others' motivation:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C18">
-        <v>-0.256703277092928</v>
+        <v>0.1414434053218989</v>
       </c>
       <c r="D18">
-        <v>0.1245937849292416</v>
+        <v>0.04340946003515543</v>
       </c>
       <c r="E18">
-        <v>6.840183875371579</v>
+        <v>8.745423832886436</v>
       </c>
       <c r="F18">
-        <v>-0.5069339114505779</v>
+        <v>0.04373373197239539</v>
       </c>
       <c r="G18">
-        <v>0.03343029866164437</v>
+        <v>0.236472770219935</v>
       </c>
       <c r="H18">
-        <v>0.07398444835583737</v>
+        <v>0.009899551939543319</v>
       </c>
     </row>
     <row r="19">
@@ -1031,26 +1031,26 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>specific_factorIncremental beliefs:moderator_designCross-sectional</t>
+          <t>specific_factorMastery goals:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C19">
-        <v>0.1399917960216241</v>
+        <v>0.2296549544118118</v>
       </c>
       <c r="D19">
-        <v>0.02476752816074427</v>
+        <v>0.03135260771642753</v>
       </c>
       <c r="E19">
-        <v>2.816794493872936</v>
+        <v>2.344326005323608</v>
       </c>
       <c r="F19">
-        <v>0.05904602276204387</v>
+        <v>0.1157214121963441</v>
       </c>
       <c r="G19">
-        <v>0.219108662726334</v>
+        <v>0.3376238136012397</v>
       </c>
       <c r="H19">
-        <v>0.01274140403542866</v>
+        <v>0.01105674535821013</v>
       </c>
     </row>
     <row r="20">
@@ -1061,26 +1061,26 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>specific_factorInternal pressures:moderator_designCross-sectional</t>
+          <t>specific_factorNeed frustration:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C20">
-        <v>-0.08116043547725404</v>
+        <v>-0.1887575683618664</v>
       </c>
       <c r="D20">
-        <v>0.08535488180016465</v>
+        <v>0.05923511678925993</v>
       </c>
       <c r="E20">
-        <v>1.93321868876638</v>
+        <v>8.254922381781286</v>
       </c>
       <c r="F20">
-        <v>-0.4309159781699747</v>
+        <v>-0.3157453023685333</v>
       </c>
       <c r="G20">
-        <v>0.289794855685281</v>
+        <v>-0.0551269262374456</v>
       </c>
       <c r="H20">
-        <v>0.4441486341914562</v>
+        <v>0.01164737465341226</v>
       </c>
     </row>
     <row r="21">
@@ -1091,26 +1091,26 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>specific_factorIntrinsic goals:moderator_designCross-sectional</t>
+          <t>specific_factorNeed satisfaction:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C21">
-        <v>0.3356408577661756</v>
+        <v>0.275521587297945</v>
       </c>
       <c r="D21">
-        <v>6.076394971867196e-16</v>
+        <v>0.04413191767633452</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>16.81682596200784</v>
       </c>
       <c r="F21">
-        <v>0.3356408577661688</v>
+        <v>0.1874005356448014</v>
       </c>
       <c r="G21">
-        <v>0.3356408577661825</v>
+        <v>0.3592432738537836</v>
       </c>
       <c r="H21">
-        <v>1.107865262780236e-15</v>
+        <v>6.824392576729899e-06</v>
       </c>
     </row>
     <row r="22">
@@ -1121,26 +1121,26 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>specific_factorInvitation from others to help:moderator_designCross-sectional</t>
+          <t>specific_factorNegative beliefs (religious):moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C22">
-        <v>0.1508005512486577</v>
+        <v>-0.05759308966138251</v>
       </c>
       <c r="D22">
-        <v>0.05263997587528557</v>
+        <v>8.182781236602085e-17</v>
       </c>
       <c r="E22">
-        <v>3.464732627720637</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>-0.003542741809267308</v>
+        <v>-0.05759308966138355</v>
       </c>
       <c r="G22">
-        <v>0.2981262318929914</v>
+        <v>-0.05759308966138147</v>
       </c>
       <c r="H22">
-        <v>0.05312801343617525</v>
+        <v>9.035034491138863e-16</v>
       </c>
     </row>
     <row r="23">
@@ -1151,26 +1151,26 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>specific_factorlow personal responsibility for others:moderator_designCross-sectional</t>
+          <t>specific_factorNegative beliefs about knowledge and learning:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C23">
-        <v>0.1095307633565739</v>
+        <v>-0.03967029264015232</v>
       </c>
       <c r="D23">
-        <v>0.05263997588082221</v>
+        <v>0.2086331058515403</v>
       </c>
       <c r="E23">
-        <v>3.464732627720605</v>
+        <v>1.358782967087353</v>
       </c>
       <c r="F23">
-        <v>-0.04549887949979302</v>
+        <v>-0.9042397119074224</v>
       </c>
       <c r="G23">
-        <v>0.2594085944332303</v>
+        <v>0.8886801085208039</v>
       </c>
       <c r="H23">
-        <v>0.1156265544063878</v>
+        <v>0.8735711795677921</v>
       </c>
     </row>
     <row r="24">
@@ -1181,26 +1181,26 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>specific_factormastery goals:moderator_designCross-sectional</t>
+          <t>specific_factorNegative beliefs about motivation:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C24">
-        <v>0.126823573101329</v>
+        <v>-0.2721263362008615</v>
       </c>
       <c r="D24">
-        <v>0.1011508155860349</v>
+        <v>0.110581676713583</v>
       </c>
       <c r="E24">
-        <v>1.69192371590645</v>
+        <v>1.050662508410053</v>
       </c>
       <c r="F24">
-        <v>-0.3741243992855165</v>
+        <v>-0.9110757837392094</v>
       </c>
       <c r="G24">
-        <v>0.5704775562535538</v>
+        <v>0.7511117095530296</v>
       </c>
       <c r="H24">
-        <v>0.3536838903701968</v>
+        <v>0.2303154748567001</v>
       </c>
     </row>
     <row r="25">
@@ -1211,26 +1211,26 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>specific_factorMastery goals:moderator_designCross-sectional</t>
+          <t>specific_factorNegative personality:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C25">
-        <v>0.1878233059118344</v>
+        <v>-0.1220821076644517</v>
       </c>
       <c r="D25">
-        <v>0.05981615036169102</v>
+        <v>0.07488966352432615</v>
       </c>
       <c r="E25">
-        <v>2.075286191763211</v>
+        <v>1.044321209422097</v>
       </c>
       <c r="F25">
-        <v>-0.0584779825588204</v>
+        <v>-0.7547641651308019</v>
       </c>
       <c r="G25">
-        <v>0.4125701244427007</v>
+        <v>0.6282661963740315</v>
       </c>
       <c r="H25">
-        <v>0.08235278194993036</v>
+        <v>0.3410896542077761</v>
       </c>
     </row>
     <row r="26">
@@ -1241,26 +1241,26 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>specific_factorneed frustration:moderator_designCross-sectional</t>
+          <t>specific_factorOthers' abilities:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C26">
-        <v>-0.1163455308882335</v>
+        <v>0.2382017492475994</v>
       </c>
       <c r="D26">
-        <v>0.0803843089080485</v>
+        <v>0.09548124038383364</v>
       </c>
       <c r="E26">
-        <v>1.548132581865747</v>
+        <v>2.310317866944887</v>
       </c>
       <c r="F26">
-        <v>-0.5226744425624659</v>
+        <v>-0.118790607433684</v>
       </c>
       <c r="G26">
-        <v>0.3330570503924098</v>
+        <v>0.5406600303924541</v>
       </c>
       <c r="H26">
-        <v>0.3158172229219168</v>
+        <v>0.1093360310108926</v>
       </c>
     </row>
     <row r="27">
@@ -1271,26 +1271,26 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>specific_factorNeed frustration:moderator_designCross-sectional</t>
+          <t>specific_factorOthers' autonomous motivation:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C27">
-        <v>-0.2088645301241854</v>
+        <v>0.1761781069259512</v>
       </c>
       <c r="D27">
-        <v>0.07466898657120369</v>
+        <v>0.05636590189081372</v>
       </c>
       <c r="E27">
-        <v>7.090341682036264</v>
+        <v>7.532653298883732</v>
       </c>
       <c r="F27">
-        <v>-0.3697149293010921</v>
+        <v>0.04660464243154828</v>
       </c>
       <c r="G27">
-        <v>-0.03585934062463075</v>
+        <v>0.2999209906248959</v>
       </c>
       <c r="H27">
-        <v>0.02474490820638055</v>
+        <v>0.01450380045691349</v>
       </c>
     </row>
     <row r="28">
@@ -1301,26 +1301,26 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>specific_factorneed satisfaction:moderator_designCross-sectional</t>
+          <t>specific_factorOthers' controlled motivation:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C28">
-        <v>0.3192564789921509</v>
+        <v>0.03669138124052042</v>
       </c>
       <c r="D28">
-        <v>0.08038430890804851</v>
+        <v>0.03512046184976795</v>
       </c>
       <c r="E28">
-        <v>1.548132581865748</v>
+        <v>1.684871010863634</v>
       </c>
       <c r="F28">
-        <v>-0.1315517666924377</v>
+        <v>-0.143990439498879</v>
       </c>
       <c r="G28">
-        <v>0.6606445973329408</v>
+        <v>0.2150057567635309</v>
       </c>
       <c r="H28">
-        <v>0.08222472893948783</v>
+        <v>0.4226311038441096</v>
       </c>
     </row>
     <row r="29">
@@ -1331,26 +1331,26 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>specific_factorNeed satisfaction:moderator_designCross-sectional</t>
+          <t>specific_factorOthers' negative behaviours:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C29">
-        <v>0.272035150298635</v>
+        <v>-0.1462922635520178</v>
       </c>
       <c r="D29">
-        <v>0.04589499654559088</v>
+        <v>0.1111862341625566</v>
       </c>
       <c r="E29">
-        <v>15.65275413590156</v>
+        <v>4.214680480510665</v>
       </c>
       <c r="F29">
-        <v>0.1796215056349531</v>
+        <v>-0.4218566379889484</v>
       </c>
       <c r="G29">
-        <v>0.3596893706234982</v>
+        <v>0.1540140857749855</v>
       </c>
       <c r="H29">
-        <v>1.750392309126429e-05</v>
+        <v>0.252368571008562</v>
       </c>
     </row>
     <row r="30">
@@ -1361,26 +1361,26 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>specific_factorNegative beliefs (religious):moderator_designCross-sectional</t>
+          <t>specific_factorOthers' negative emotions:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C30">
-        <v>-0.05759308966138248</v>
+        <v>-0.1670372238149526</v>
       </c>
       <c r="D30">
-        <v>3.921071206438396e-17</v>
+        <v>0.0510359552281167</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3.455460397635098</v>
       </c>
       <c r="F30">
-        <v>-0.05759308966138298</v>
+        <v>-0.3091199542329838</v>
       </c>
       <c r="G30">
-        <v>-0.05759308966138198</v>
+        <v>-0.01766064451831222</v>
       </c>
       <c r="H30">
-        <v>4.329458721677073e-16</v>
+        <v>0.03706001973922757</v>
       </c>
     </row>
     <row r="31">
@@ -1391,26 +1391,26 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>specific_factorNegative beliefs about knowledge and learning:moderator_designCross-sectional</t>
+          <t>specific_factorOthers' positive behaviours:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C31">
-        <v>0.08390299488277327</v>
+        <v>0.180481304699795</v>
       </c>
       <c r="D31">
-        <v>0.03943599839461505</v>
+        <v>0.04607709754726173</v>
       </c>
       <c r="E31">
-        <v>1.00694701342665</v>
+        <v>4.218405641592572</v>
       </c>
       <c r="F31">
-        <v>-0.3875257576767945</v>
+        <v>0.05705790741576615</v>
       </c>
       <c r="G31">
-        <v>0.5205447526276271</v>
+        <v>0.2984711196170022</v>
       </c>
       <c r="H31">
-        <v>0.2777815542454826</v>
+        <v>0.01503081525810179</v>
       </c>
     </row>
     <row r="32">
@@ -1421,26 +1421,26 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>specific_factorNegative beliefs about motivation:moderator_designCross-sectional</t>
+          <t>specific_factorOthers' positive emotions:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C32">
-        <v>-0.2459357645766036</v>
+        <v>0.2286303309858703</v>
       </c>
       <c r="D32">
-        <v>0.09492206493855875</v>
+        <v>0.0525710629555682</v>
       </c>
       <c r="E32">
-        <v>1.072998562889458</v>
+        <v>4.325220073137179</v>
       </c>
       <c r="F32">
-        <v>-0.8563670010844069</v>
+        <v>0.09076074551055839</v>
       </c>
       <c r="G32">
-        <v>0.6512078170300758</v>
+        <v>0.3579009111347787</v>
       </c>
       <c r="H32">
-        <v>0.2161977517238302</v>
+        <v>0.0095840383468871</v>
       </c>
     </row>
     <row r="33">
@@ -1451,14 +1451,26 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>specific_factornegative personality:moderator_designCross-sectional</t>
+          <t>specific_factorPerformance goals:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C33">
-        <v>-0.214</v>
+        <v>-0.07373086665040562</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>0.2315949187812771</v>
+      </c>
+      <c r="E33">
+        <v>2.492094148130027</v>
+      </c>
+      <c r="F33">
+        <v>-0.7180553961734546</v>
+      </c>
+      <c r="G33">
+        <v>0.6386491415283612</v>
+      </c>
+      <c r="H33">
+        <v>0.7745812940147643</v>
       </c>
     </row>
     <row r="34">
@@ -1469,26 +1481,26 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>specific_factorNegative personality:moderator_designCross-sectional</t>
+          <t>specific_factorPersonal responsibility for others' motivation:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C34">
-        <v>-0.02812976405737158</v>
+        <v>0.2627888477594733</v>
       </c>
       <c r="D34">
-        <v>0.04564194246149898</v>
+        <v>0.06658579335212932</v>
       </c>
       <c r="E34">
-        <v>1.277615728752931</v>
+        <v>1.341594112621226</v>
       </c>
       <c r="F34">
-        <v>-0.3633884377015679</v>
+        <v>-0.2021431509082944</v>
       </c>
       <c r="G34">
-        <v>0.3135791545429976</v>
+        <v>0.6310563265886797</v>
       </c>
       <c r="H34">
-        <v>0.6291216349641433</v>
+        <v>0.104244796720758</v>
       </c>
     </row>
     <row r="35">
@@ -1499,26 +1511,26 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>specific_factorOthers positive behaviour:moderator_designCross-sectional</t>
+          <t>specific_factorPersonal responsibility for others' motivation motivation:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C35">
-        <v>0.2544829228844023</v>
+        <v>0.2227761811875193</v>
       </c>
       <c r="D35">
-        <v>0.08481544712628597</v>
+        <v>0.06502372167017527</v>
       </c>
       <c r="E35">
-        <v>1.479313509510739</v>
+        <v>2.012470762984572</v>
       </c>
       <c r="F35">
-        <v>-0.254501765946302</v>
+        <v>-0.0514986894175822</v>
       </c>
       <c r="G35">
-        <v>0.6530631233221342</v>
+        <v>0.4658015365678442</v>
       </c>
       <c r="H35">
-        <v>0.1316680135681698</v>
+        <v>0.07275625310671972</v>
       </c>
     </row>
     <row r="36">
@@ -1529,26 +1541,26 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>specific_factorOthers' abilities:moderator_designCross-sectional</t>
+          <t>specific_factorPositive attitudes:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C36">
-        <v>0.239214854696244</v>
+        <v>0.2468993108579967</v>
       </c>
       <c r="D36">
-        <v>0.08561705262388934</v>
+        <v>0.0298426271644521</v>
       </c>
       <c r="E36">
-        <v>2.575107592457523</v>
+        <v>2.203558313558724</v>
       </c>
       <c r="F36">
-        <v>-0.05575933241713208</v>
+        <v>0.1336247094636908</v>
       </c>
       <c r="G36">
-        <v>0.4957832536073865</v>
+        <v>0.3538059197983089</v>
       </c>
       <c r="H36">
-        <v>0.07794029583334318</v>
+        <v>0.01016984702464914</v>
       </c>
     </row>
     <row r="37">
@@ -1559,26 +1571,26 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>specific_factorothers' autonomous motivation:moderator_designCross-sectional</t>
+          <t>specific_factorPositive beliefs (religious):moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C37">
-        <v>0.1840690225491774</v>
+        <v>0.1730474015149224</v>
       </c>
       <c r="D37">
-        <v>0.1134216323627927</v>
+        <v>6.558906332529167e-17</v>
       </c>
       <c r="E37">
-        <v>2.237845237030982</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>-0.2499298679384259</v>
+        <v>0.1730474015149216</v>
       </c>
       <c r="G37">
-        <v>0.5564805030357109</v>
+        <v>0.1730474015149232</v>
       </c>
       <c r="H37">
-        <v>0.229078501361197</v>
+        <v>2.388658809086069e-16</v>
       </c>
     </row>
     <row r="38">
@@ -1589,26 +1601,26 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>specific_factorOthers' autonomous motivation:moderator_designCross-sectional</t>
+          <t>specific_factorPositive beliefs about knowledge and learning:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C38">
-        <v>0.1682070891391362</v>
+        <v>0.1931443963782076</v>
       </c>
       <c r="D38">
-        <v>0.07520281453658458</v>
+        <v>0.08042911519359976</v>
       </c>
       <c r="E38">
-        <v>4.044968071581068</v>
+        <v>1.193783550860199</v>
       </c>
       <c r="F38">
-        <v>-0.03804488562375952</v>
+        <v>-0.4674797845188098</v>
       </c>
       <c r="G38">
-        <v>0.3607129094589798</v>
+        <v>0.715343727655546</v>
       </c>
       <c r="H38">
-        <v>0.0861126095129401</v>
+        <v>0.2145227305465456</v>
       </c>
     </row>
     <row r="39">
@@ -1619,26 +1631,26 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>specific_factorOthers' controlled motivation:moderator_designCross-sectional</t>
+          <t>specific_factorPrior positive related experiences:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C39">
-        <v>0.04634410200723189</v>
+        <v>0.1497721645342742</v>
       </c>
       <c r="D39">
-        <v>0.03454071821531558</v>
+        <v>0.04340945997392782</v>
       </c>
       <c r="E39">
-        <v>1.735438358697858</v>
+        <v>8.745423832885981</v>
       </c>
       <c r="F39">
-        <v>-0.1255429603539485</v>
+        <v>0.052223314839881</v>
       </c>
       <c r="G39">
-        <v>0.2155299107696245</v>
+        <v>0.2444898363300885</v>
       </c>
       <c r="H39">
-        <v>0.3281721929882152</v>
+        <v>0.007290349643360878</v>
       </c>
     </row>
     <row r="40">
@@ -1649,26 +1661,26 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>specific_factorothers' negative behaviours:moderator_designCross-sectional</t>
+          <t>specific_factorSelf-efficacy:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C40">
-        <v>-0.1124673362722159</v>
+        <v>0.2474362617169789</v>
       </c>
       <c r="D40">
-        <v>0.1104557523324096</v>
+        <v>0.04848735725735027</v>
       </c>
       <c r="E40">
-        <v>2.969855530786485</v>
+        <v>5.973678591705813</v>
       </c>
       <c r="F40">
-        <v>-0.4353603932742124</v>
+        <v>0.1331141927499124</v>
       </c>
       <c r="G40">
-        <v>0.2360637741415908</v>
+        <v>0.3552603620965425</v>
       </c>
       <c r="H40">
-        <v>0.3824773346749639</v>
+        <v>0.002019838557024822</v>
       </c>
     </row>
     <row r="41">
@@ -1679,26 +1691,26 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative behaviours:moderator_designCross-sectional</t>
+          <t>specific_factorSocial competence:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C41">
-        <v>-0.3093730865545987</v>
+        <v>0.312620436294448</v>
       </c>
       <c r="D41">
-        <v>0.03955774267803625</v>
+        <v>0.02503217226472276</v>
       </c>
       <c r="E41">
-        <v>4.110340334193894</v>
+        <v>1.689859717105745</v>
       </c>
       <c r="F41">
-        <v>-0.4040911089230144</v>
+        <v>0.1919819696607173</v>
       </c>
       <c r="G41">
-        <v>-0.2080910313574363</v>
+        <v>0.4239517920233683</v>
       </c>
       <c r="H41">
-        <v>0.001132023350320434</v>
+        <v>0.01092692125856675</v>
       </c>
     </row>
     <row r="42">
@@ -1709,26 +1721,26 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>specific_factorothers' negative emotions:moderator_designCross-sectional</t>
+          <t>specific_factorSocial connection/support:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C42">
-        <v>-0.1569645189140047</v>
+        <v>0.3018726547799611</v>
       </c>
       <c r="D42">
-        <v>0.08481544712628582</v>
+        <v>0.09504622432357485</v>
       </c>
       <c r="E42">
-        <v>1.479313509510739</v>
+        <v>7.512100868503483</v>
       </c>
       <c r="F42">
-        <v>-0.5906696161448308</v>
+        <v>0.08965762239554168</v>
       </c>
       <c r="G42">
-        <v>0.3471045170652903</v>
+        <v>0.4878679296507213</v>
       </c>
       <c r="H42">
-        <v>0.2454701399900851</v>
+        <v>0.01224256968003999</v>
       </c>
     </row>
     <row r="43">
@@ -1739,26 +1751,26 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative emotions:moderator_designCross-sectional</t>
+          <t>specific_factorStyle-related beliefs:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C43">
-        <v>-0.174850040760102</v>
+        <v>0.5078415474402764</v>
       </c>
       <c r="D43">
-        <v>0.07676308942079095</v>
+        <v>2.470473553719274e-18</v>
       </c>
       <c r="E43">
-        <v>2.304238754649715</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>-0.4369756801286293</v>
+        <v>0.5078415474402764</v>
       </c>
       <c r="G43">
-        <v>0.1146495764465136</v>
+        <v>0.5078415474402764</v>
       </c>
       <c r="H43">
-        <v>0.1311482475769921</v>
+        <v>2.809404981635773e-18</v>
       </c>
     </row>
     <row r="44">
@@ -1769,26 +1781,26 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>specific_factorothers' positive behaviours:moderator_designCross-sectional</t>
+          <t>specific_factorWell-being:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C44">
-        <v>0.1133302111396575</v>
+        <v>0.3261592410412441</v>
       </c>
       <c r="D44">
-        <v>0.04497204306924886</v>
+        <v>0.05871777313796036</v>
       </c>
       <c r="E44">
-        <v>1.358218500074335</v>
+        <v>6.709347295486847</v>
       </c>
       <c r="F44">
-        <v>-0.1974596194383388</v>
+        <v>0.1958853159813108</v>
       </c>
       <c r="G44">
-        <v>0.403419207675197</v>
+        <v>0.4451203855432243</v>
       </c>
       <c r="H44">
-        <v>0.1831603512519263</v>
+        <v>0.0008007849471335791</v>
       </c>
     </row>
     <row r="45">
@@ -1799,26 +1811,26 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>specific_factorOthers' positive behaviours:moderator_designCross-sectional</t>
+          <t>specific_factorIll-being:moderator_designExperimental (non-randomized</t>
         </is>
       </c>
       <c r="C45">
-        <v>0.2056313672821183</v>
+        <v>0.003932261921159598</v>
       </c>
       <c r="D45">
-        <v>0.1471971138786864</v>
+        <v>0.0001885428276973159</v>
       </c>
       <c r="E45">
-        <v>1.073850608747898</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>-0.8817401620264862</v>
+        <v>0.001536617209444459</v>
       </c>
       <c r="G45">
-        <v>0.9468831147396283</v>
+        <v>0.006327861497631579</v>
       </c>
       <c r="H45">
-        <v>0.3793395273682585</v>
+        <v>0.03050092329236695</v>
       </c>
     </row>
     <row r="46">
@@ -1829,26 +1841,26 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>specific_factorothers' positive emotions:moderator_designCross-sectional</t>
+          <t>specific_factorAutonomous causality orientation:moderator_designExperimental (non-randomized)</t>
         </is>
       </c>
       <c r="C46">
-        <v>0.1277505624474895</v>
+        <v>0.4499999999999995</v>
       </c>
       <c r="D46">
-        <v>0.05762119609927243</v>
+        <v>6.021785156403715e-16</v>
       </c>
       <c r="E46">
-        <v>1.322441374347851</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>-0.2835675105876955</v>
+        <v>0.4499999999999933</v>
       </c>
       <c r="G46">
-        <v>0.4993667211057424</v>
+        <v>0.4500000000000056</v>
       </c>
       <c r="H46">
-        <v>0.2169394190352871</v>
+        <v>7.909191854884285e-16</v>
       </c>
     </row>
     <row r="47">
@@ -1859,26 +1871,26 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>specific_factorOthers' positive emotions:moderator_designCross-sectional</t>
+          <t>specific_factorControlled causality orientation:moderator_designExperimental (non-randomized)</t>
         </is>
       </c>
       <c r="C47">
-        <v>0.2887890456950868</v>
+        <v>-0.1500000000000005</v>
       </c>
       <c r="D47">
-        <v>0.05553868809159845</v>
+        <v>6.27203534823732e-16</v>
       </c>
       <c r="E47">
-        <v>2.317932358413748</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>0.08687937759085497</v>
+        <v>-0.1500000000000083</v>
       </c>
       <c r="G47">
-        <v>0.4679093420858949</v>
+        <v>-0.1499999999999927</v>
       </c>
       <c r="H47">
-        <v>0.02388247410261046</v>
+        <v>2.641848748772104e-15</v>
       </c>
     </row>
     <row r="48">
@@ -1889,26 +1901,26 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>specific_factorperformance goals:moderator_designCross-sectional</t>
+          <t>specific_factorEmotional intelligence:moderator_designExperimental (non-randomized)</t>
         </is>
       </c>
       <c r="C48">
-        <v>-0.5265982248303173</v>
+        <v>0.2699999999999995</v>
       </c>
       <c r="D48">
-        <v>0.1011508155860352</v>
+        <v>5.562993138042096e-16</v>
       </c>
       <c r="E48">
-        <v>1.691923715906449</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>-0.8026960888164464</v>
+        <v>0.269999999999993</v>
       </c>
       <c r="G48">
-        <v>-0.06461584847327559</v>
+        <v>0.270000000000006</v>
       </c>
       <c r="H48">
-        <v>0.04133349133443048</v>
+        <v>1.279152830897152e-15</v>
       </c>
     </row>
     <row r="49">
@@ -1919,26 +1931,26 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>specific_factorPerformance goals:moderator_designCross-sectional</t>
+          <t>specific_factorMastery goals:moderator_designExperimental (non-randomized)</t>
         </is>
       </c>
       <c r="C49">
-        <v>0.02717680388127273</v>
+        <v>0.5099999999999997</v>
       </c>
       <c r="D49">
-        <v>0.1064792912052668</v>
+        <v>5.385732585493291e-16</v>
       </c>
       <c r="E49">
-        <v>2.183671499731656</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>-0.3764723276329731</v>
+        <v>0.5099999999999946</v>
       </c>
       <c r="G49">
-        <v>0.4221538189455098</v>
+        <v>0.5100000000000047</v>
       </c>
       <c r="H49">
-        <v>0.8205554216772546</v>
+        <v>6.092913578317898e-16</v>
       </c>
     </row>
     <row r="50">
@@ -1949,26 +1961,26 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>specific_factorpersonal responsibility for others:moderator_designCross-sectional</t>
+          <t>specific_factorNeed satisfaction:moderator_designExperimental (non-randomized)</t>
         </is>
       </c>
       <c r="C50">
-        <v>0.2514532526206729</v>
+        <v>-0.04025806720155965</v>
       </c>
       <c r="D50">
-        <v>0.1067088642729584</v>
+        <v>1.06162457982666e-15</v>
       </c>
       <c r="E50">
-        <v>1.519792136397771</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>-0.3570386438853712</v>
+        <v>-0.04025806720157311</v>
       </c>
       <c r="G50">
-        <v>0.7101145311757253</v>
+        <v>-0.04025806720154618</v>
       </c>
       <c r="H50">
-        <v>0.1761148190562717</v>
+        <v>1.677889594123814e-14</v>
       </c>
     </row>
     <row r="51">
@@ -1979,26 +1991,26 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>specific_factorPersonal responsibility for others' motivation:moderator_designCross-sectional</t>
+          <t>specific_factorNegative personality:moderator_designExperimental (non-randomized)</t>
         </is>
       </c>
       <c r="C51">
-        <v>0.2533525630525481</v>
+        <v>-0.4030755561639726</v>
       </c>
       <c r="D51">
-        <v>0.06165172694307676</v>
+        <v>5.888232022010555e-16</v>
       </c>
       <c r="E51">
-        <v>2.079916618266664</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>0.003257869747029205</v>
+        <v>-0.4030755561639788</v>
       </c>
       <c r="G51">
-        <v>0.4736195200861337</v>
+        <v>-0.4030755561639663</v>
       </c>
       <c r="H51">
-        <v>0.04880498056137463</v>
+        <v>8.772354934784624e-16</v>
       </c>
     </row>
     <row r="52">
@@ -2009,26 +2021,26 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>specific_factorPositive attitudes:moderator_designCross-sectional</t>
+          <t>specific_factorOthers' autonomous motivation:moderator_designExperimental (non-randomized)</t>
         </is>
       </c>
       <c r="C52">
-        <v>0.2299788044181121</v>
+        <v>0.2099999999999994</v>
       </c>
       <c r="D52">
-        <v>0.02927205112225212</v>
+        <v>5.212259738608201e-16</v>
       </c>
       <c r="E52">
-        <v>2.552256458817053</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>0.130301566335319</v>
+        <v>0.2099999999999931</v>
       </c>
       <c r="G52">
-        <v>0.3250536957749801</v>
+        <v>0.2100000000000057</v>
       </c>
       <c r="H52">
-        <v>0.007150890266836143</v>
+        <v>1.556601138842018e-15</v>
       </c>
     </row>
     <row r="53">
@@ -2039,26 +2051,26 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>specific_factorPositive beliefs (religious):moderator_designCross-sectional</t>
+          <t>specific_factorStyle-related beliefs:moderator_designExperimental (non-randomized)</t>
         </is>
       </c>
       <c r="C53">
-        <v>0.1730474015149225</v>
+        <v>0.1459394460298268</v>
       </c>
       <c r="D53">
-        <v>3.692163338759041e-17</v>
+        <v>1.102442845737979e-15</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
       <c r="F53">
-        <v>0.173047401514922</v>
+        <v>0.1459394460298131</v>
       </c>
       <c r="G53">
-        <v>0.1730474015149229</v>
+        <v>0.1459394460298405</v>
       </c>
       <c r="H53">
-        <v>1.344632479346692e-16</v>
+        <v>4.774758734484934e-15</v>
       </c>
     </row>
     <row r="54">
@@ -2069,26 +2081,26 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>specific_factorPositive beliefs about knowledge and learning:moderator_designCross-sectional</t>
+          <t>specific_factorStyle-related beliefs:moderator_designExperimental (RCT)</t>
         </is>
       </c>
       <c r="C54">
-        <v>0.2747652646911116</v>
+        <v>-0.03573725674590011</v>
       </c>
       <c r="D54">
-        <v>0.04249534242461742</v>
+        <v>0.2450778381989965</v>
       </c>
       <c r="E54">
-        <v>1.015585080326683</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>-0.2343155822360024</v>
+        <v>-0.996332377532376</v>
       </c>
       <c r="G54">
-        <v>0.6655841022555085</v>
+        <v>0.9957697052987633</v>
       </c>
       <c r="H54">
-        <v>0.09270922574740989</v>
+        <v>0.9077790689871605</v>
       </c>
     </row>
     <row r="55">
@@ -2099,26 +2111,26 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>specific_factorprior positive related experiences:moderator_designCross-sectional</t>
+          <t>specific_factorAutonomous motivation:moderator_designLongitudinal</t>
         </is>
       </c>
       <c r="C55">
-        <v>0.1179298696317131</v>
+        <v>0.3170395329809217</v>
       </c>
       <c r="D55">
-        <v>0.05263997594143404</v>
+        <v>0.1102999239320069</v>
       </c>
       <c r="E55">
-        <v>3.464732627720599</v>
+        <v>1.006552024488062</v>
       </c>
       <c r="F55">
-        <v>-0.03700418906910072</v>
+        <v>-0.7824918236859878</v>
       </c>
       <c r="G55">
-        <v>0.2673275361056102</v>
+        <v>0.9364595935633236</v>
       </c>
       <c r="H55">
-        <v>0.09791742378367825</v>
+        <v>0.2050038061212692</v>
       </c>
     </row>
     <row r="56">
@@ -2129,26 +2141,26 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>specific_factorself-efficacy:moderator_designCross-sectional</t>
+          <t>specific_factorCoherence of mind:moderator_designLongitudinal</t>
         </is>
       </c>
       <c r="C56">
-        <v>0.1767216474683123</v>
+        <v>0.1100445571831773</v>
       </c>
       <c r="D56">
-        <v>0.05111328353108318</v>
+        <v>1.394184466702783e-16</v>
       </c>
       <c r="E56">
-        <v>1.803726997393545</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>-0.06583332673908265</v>
+        <v>0.1100445571831756</v>
       </c>
       <c r="G56">
-        <v>0.3995572082801197</v>
+        <v>0.1100445571831791</v>
       </c>
       <c r="H56">
-        <v>0.08453499010960577</v>
+        <v>8.032846230210812e-16</v>
       </c>
     </row>
     <row r="57">
@@ -2159,26 +2171,26 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>specific_factorSelf-efficacy:moderator_designCross-sectional</t>
+          <t>specific_factorControlled motivation:moderator_designLongitudinal</t>
         </is>
       </c>
       <c r="C57">
-        <v>0.321312391672225</v>
+        <v>-0.1123652952420013</v>
       </c>
       <c r="D57">
-        <v>0.05007137356393836</v>
+        <v>0.03749312026144389</v>
       </c>
       <c r="E57">
-        <v>4.550910567914347</v>
+        <v>1.006552024488062</v>
       </c>
       <c r="F57">
-        <v>0.1978380676245878</v>
+        <v>-0.5240966123068839</v>
       </c>
       <c r="G57">
-        <v>0.4347494874912323</v>
+        <v>0.3419397788316184</v>
       </c>
       <c r="H57">
-        <v>0.001656519171653388</v>
+        <v>0.202910399615088</v>
       </c>
     </row>
     <row r="58">
@@ -2189,26 +2201,26 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>specific_factorSocial competence:moderator_designCross-sectional</t>
+          <t>specific_factorEmotional intelligence:moderator_designLongitudinal</t>
         </is>
       </c>
       <c r="C58">
-        <v>0.3374456378204975</v>
+        <v>0.4827628602197193</v>
       </c>
       <c r="D58">
-        <v>0.02768400552257465</v>
+        <v>0.05228441809024007</v>
       </c>
       <c r="E58">
-        <v>1.883548186856603</v>
+        <v>1.737486321024575</v>
       </c>
       <c r="F58">
-        <v>0.2210400354979302</v>
+        <v>0.2596114127984071</v>
       </c>
       <c r="G58">
-        <v>0.444371572817699</v>
+        <v>0.6569729986881502</v>
       </c>
       <c r="H58">
-        <v>0.007694938329346176</v>
+        <v>0.01524133712536981</v>
       </c>
     </row>
     <row r="59">
@@ -2219,26 +2231,26 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>specific_factorSocial connection/support:moderator_designCross-sectional</t>
+          <t>specific_factorExternal pressures:moderator_designLongitudinal</t>
         </is>
       </c>
       <c r="C59">
-        <v>0.2720228900366277</v>
+        <v>-0.07225962892237231</v>
       </c>
       <c r="D59">
-        <v>0.08065916066687315</v>
+        <v>6.892359148616339e-17</v>
       </c>
       <c r="E59">
-        <v>7.244115074058485</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>0.0893745604209695</v>
+        <v>-0.07225962892237318</v>
       </c>
       <c r="G59">
-        <v>0.4369707354235315</v>
+        <v>-0.07225962892237144</v>
       </c>
       <c r="H59">
-        <v>0.01000125687616781</v>
+        <v>6.061703602958339e-16</v>
       </c>
     </row>
     <row r="60">
@@ -2249,26 +2261,26 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>specific_factorStyle-related beliefs:moderator_designCross-sectional</t>
+          <t>specific_factorExtrinsic goals:moderator_designLongitudinal</t>
         </is>
       </c>
       <c r="C60">
-        <v>0.5078415474402765</v>
+        <v>-0.1872936731240021</v>
       </c>
       <c r="D60">
-        <v>1.077706745986275e-17</v>
+        <v>0.04009513714002388</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>1.003858501964696</v>
       </c>
       <c r="F60">
-        <v>0.5078415474402764</v>
+        <v>-0.6007908606428954</v>
       </c>
       <c r="G60">
-        <v>0.5078415474402767</v>
+        <v>0.3052708267224735</v>
       </c>
       <c r="H60">
-        <v>1.225560458381804e-17</v>
+        <v>0.1320095791061917</v>
       </c>
     </row>
     <row r="61">
@@ -2279,26 +2291,26 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>specific_factorwell-being:moderator_designCross-sectional</t>
+          <t>specific_factorIll-being:moderator_designLongitudinal</t>
         </is>
       </c>
       <c r="C61">
-        <v>0.2263731581596578</v>
+        <v>-0.1169564098530021</v>
       </c>
       <c r="D61">
-        <v>0.05263997581506966</v>
+        <v>0.1128564297204999</v>
       </c>
       <c r="E61">
-        <v>3.464732627720672</v>
+        <v>1.833141245277981</v>
       </c>
       <c r="F61">
-        <v>0.07472159591993359</v>
+        <v>-0.5703162444130488</v>
       </c>
       <c r="G61">
-        <v>0.3677905977412921</v>
+        <v>0.3910196869143958</v>
       </c>
       <c r="H61">
-        <v>0.01630073171400135</v>
+        <v>0.4155214250479734</v>
       </c>
     </row>
     <row r="62">
@@ -2309,26 +2321,26 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>specific_factorWell-being:moderator_designCross-sectional</t>
+          <t>specific_factorIntrinsic goals:moderator_designLongitudinal</t>
         </is>
       </c>
       <c r="C62">
-        <v>0.357001297294982</v>
+        <v>0.2539391484859065</v>
       </c>
       <c r="D62">
-        <v>0.06139347088858434</v>
+        <v>0.1446452988401649</v>
       </c>
       <c r="E62">
-        <v>6.502883757824868</v>
+        <v>1.003858501964695</v>
       </c>
       <c r="F62">
-        <v>0.2222218344563729</v>
+        <v>-0.9156896157342237</v>
       </c>
       <c r="G62">
-        <v>0.4783926048484884</v>
+        <v>0.9693191346526847</v>
       </c>
       <c r="H62">
-        <v>0.0006629380381077903</v>
+        <v>0.3228795025064691</v>
       </c>
     </row>
     <row r="63">
@@ -2339,26 +2351,26 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>specific_factorill-being:moderator_designExperimental (non-randomized</t>
+          <t>specific_factorNeed frustration:moderator_designLongitudinal</t>
         </is>
       </c>
       <c r="C63">
-        <v>0.003927775682992192</v>
+        <v>-0.09839931460154547</v>
       </c>
       <c r="D63">
-        <v>0.0002149344089350603</v>
+        <v>0.04328419402843336</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>1.143955800412507</v>
       </c>
       <c r="F63">
-        <v>0.001196794705488491</v>
+        <v>-0.4694171992003719</v>
       </c>
       <c r="G63">
-        <v>0.006658698072127197</v>
+        <v>0.3021510235972093</v>
       </c>
       <c r="H63">
-        <v>0.0348020024595055</v>
+        <v>0.2372250487964176</v>
       </c>
     </row>
     <row r="64">
@@ -2369,26 +2381,26 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous causality orientation:moderator_designExperimental (non-randomized)</t>
+          <t>specific_factorNeed satisfaction:moderator_designLongitudinal</t>
         </is>
       </c>
       <c r="C64">
-        <v>0.45</v>
+        <v>0.3273711545460601</v>
       </c>
       <c r="D64">
-        <v>5.751202734526875e-16</v>
+        <v>0.127298583874865</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>1.143955800412507</v>
       </c>
       <c r="F64">
-        <v>0.4499999999999941</v>
+        <v>-0.7002049941407276</v>
       </c>
       <c r="G64">
-        <v>0.4500000000000058</v>
+        <v>0.9133661876788502</v>
       </c>
       <c r="H64">
-        <v>7.553800848463641e-16</v>
+        <v>0.2020785382541029</v>
       </c>
     </row>
     <row r="65">
@@ -2399,26 +2411,26 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>specific_factorControlled causality orientation:moderator_designExperimental (non-randomized)</t>
+          <t>specific_factorNegative life events:moderator_designLongitudinal</t>
         </is>
       </c>
       <c r="C65">
-        <v>-0.15</v>
+        <v>0.1466519662212898</v>
       </c>
       <c r="D65">
-        <v>5.701910973369846e-16</v>
+        <v>2.348805665691304e-16</v>
       </c>
       <c r="E65">
         <v>1</v>
       </c>
       <c r="F65">
-        <v>-0.1500000000000071</v>
+        <v>0.1466519662212869</v>
       </c>
       <c r="G65">
-        <v>-0.1499999999999929</v>
+        <v>0.1466519662212927</v>
       </c>
       <c r="H65">
-        <v>2.40170622999447e-15</v>
+        <v>1.012270279969215e-15</v>
       </c>
     </row>
     <row r="66">
@@ -2429,26 +2441,26 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>specific_factorEmotional intelligence:moderator_designExperimental (non-randomized)</t>
+          <t>specific_factorOthers' abilities:moderator_designLongitudinal</t>
         </is>
       </c>
       <c r="C66">
-        <v>0.27</v>
+        <v>0.1615785282365897</v>
       </c>
       <c r="D66">
-        <v>5.603327451055791e-16</v>
+        <v>0.08022376290905245</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>1.002657781864355</v>
       </c>
       <c r="F66">
-        <v>0.2699999999999934</v>
+        <v>-0.691053507255859</v>
       </c>
       <c r="G66">
-        <v>0.2700000000000066</v>
+        <v>0.8261809540744417</v>
       </c>
       <c r="H66">
-        <v>1.288427289699002e-15</v>
+        <v>0.290640431635916</v>
       </c>
     </row>
     <row r="67">
@@ -2459,26 +2471,26 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>specific_factorMastery goals:moderator_designExperimental (non-randomized)</t>
+          <t>specific_factorOthers' negative behaviours:moderator_designLongitudinal</t>
         </is>
       </c>
       <c r="C67">
-        <v>0.51</v>
+        <v>-0.1201532690687305</v>
       </c>
       <c r="D67">
-        <v>5.859644609072338e-16</v>
+        <v>0.08670785989549901</v>
       </c>
       <c r="E67">
         <v>1</v>
       </c>
       <c r="F67">
-        <v>0.5099999999999946</v>
+        <v>-0.840379612082628</v>
       </c>
       <c r="G67">
-        <v>0.5100000000000056</v>
+        <v>0.7534947017180825</v>
       </c>
       <c r="H67">
-        <v>6.629053269168957e-16</v>
+        <v>0.3964922627493373</v>
       </c>
     </row>
     <row r="68">
@@ -2489,26 +2501,26 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>specific_factorNeed satisfaction:moderator_designExperimental (non-randomized)</t>
+          <t>specific_factorOthers' positive behaviours:moderator_designLongitudinal</t>
         </is>
       </c>
       <c r="C68">
-        <v>-0.04025806720155957</v>
+        <v>0.1202369962333899</v>
       </c>
       <c r="D68">
-        <v>4.368010934131233e-16</v>
+        <v>0.1177209673363106</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>1.002657781864354</v>
       </c>
       <c r="F68">
-        <v>-0.04025806720156511</v>
+        <v>-0.8776920045473043</v>
       </c>
       <c r="G68">
-        <v>-0.04025806720155403</v>
+        <v>0.9227557471680923</v>
       </c>
       <c r="H68">
-        <v>6.90360814233834e-15</v>
+        <v>0.4913669572591537</v>
       </c>
     </row>
     <row r="69">
@@ -2519,26 +2531,26 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>specific_factornegative personality:moderator_designExperimental (non-randomized)</t>
+          <t>specific_factorPositive beliefs about knowledge and learning:moderator_designLongitudinal</t>
         </is>
       </c>
       <c r="C69">
-        <v>-0.4030755561639722</v>
+        <v>0.08041212177422175</v>
       </c>
       <c r="D69">
-        <v>6.085030791162464e-16</v>
+        <v>0.0350173853236829</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="F69">
-        <v>-0.4030755561639786</v>
+        <v>-0.3490415777156057</v>
       </c>
       <c r="G69">
-        <v>-0.4030755561639657</v>
+        <v>0.4819523263677383</v>
       </c>
       <c r="H69">
-        <v>9.065547975968463e-16</v>
+        <v>0.2609619110717319</v>
       </c>
     </row>
     <row r="70">
@@ -2549,26 +2561,26 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>specific_factorOthers' autonomous motivation:moderator_designExperimental (non-randomized)</t>
+          <t>specific_factorSelf-efficacy:moderator_designLongitudinal</t>
         </is>
       </c>
       <c r="C70">
-        <v>0.2099999999999999</v>
+        <v>0.2522565681231434</v>
       </c>
       <c r="D70">
-        <v>5.204208588109121e-16</v>
+        <v>0.03501738532368284</v>
       </c>
       <c r="E70">
         <v>1</v>
       </c>
       <c r="F70">
-        <v>0.2099999999999936</v>
+        <v>-0.1849631315248645</v>
       </c>
       <c r="G70">
-        <v>0.2100000000000062</v>
+        <v>0.6061163184693895</v>
       </c>
       <c r="H70">
-        <v>1.554196724890225e-15</v>
+        <v>0.08594006903394343</v>
       </c>
     </row>
     <row r="71">
@@ -2579,26 +2591,26 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>specific_factorStyle-related beliefs:moderator_designExperimental (non-randomized)</t>
+          <t>specific_factorSocial connection/support:moderator_designLongitudinal</t>
         </is>
       </c>
       <c r="C71">
-        <v>0.1459394460298269</v>
+        <v>0.2041802705973552</v>
       </c>
       <c r="D71">
-        <v>4.845515820653624e-16</v>
+        <v>0.09979943928874672</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="F71">
-        <v>0.1459394460298209</v>
+        <v>-0.786039138060649</v>
       </c>
       <c r="G71">
-        <v>0.1459394460298329</v>
+        <v>0.9005577752062517</v>
       </c>
       <c r="H71">
-        <v>2.09862752315866e-15</v>
+        <v>0.2858883259544995</v>
       </c>
     </row>
     <row r="72">
@@ -2609,548 +2621,656 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>specific_factorStyle-related beliefs:moderator_designExperimental (RCT)</t>
+          <t>specific_factorWell-being:moderator_designLongitudinal</t>
         </is>
       </c>
       <c r="C72">
-        <v>-0.0417664796959881</v>
+        <v>0.3555349505660497</v>
       </c>
       <c r="D72">
-        <v>0.2590374709163396</v>
+        <v>0.1605554783378195</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>1.656237888783085</v>
       </c>
       <c r="F72">
-        <v>-0.9974571579649107</v>
+        <v>-0.4433563184849865</v>
       </c>
       <c r="G72">
-        <v>0.9969951903295385</v>
+        <v>0.8396339467508519</v>
       </c>
       <c r="H72">
-        <v>0.8981708632435945</v>
+        <v>0.1722307291989152</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>specific_factorautonomous motivation:moderator_designLongitudinal</t>
+          <t>specific_factorWell-being:moderator_designCross-lagged</t>
         </is>
       </c>
       <c r="C73">
-        <v>0.42</v>
+        <v>-0.1200487213609953</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>2.703186929068138e-16</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>-0.1200487213609987</v>
+      </c>
+      <c r="G73">
+        <v>-0.1200487213609919</v>
+      </c>
+      <c r="H73">
+        <v>1.426590116902456e-15</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous motivation:moderator_designLongitudinal</t>
+          <t>specific_factorAmotivation:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C74">
-        <v>0.22</v>
+        <v>0.3159956301188686</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>0.06083224339811464</v>
+      </c>
+      <c r="E74">
+        <v>3.790746899358012</v>
+      </c>
+      <c r="F74">
+        <v>0.1533346664708475</v>
+      </c>
+      <c r="G74">
+        <v>0.4619841315996501</v>
+      </c>
+      <c r="H74">
+        <v>0.006718601494911258</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>specific_factorCoherence of mind:moderator_designLongitudinal</t>
+          <t>specific_factorAutonomous causality orientation:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C75">
-        <v>0.1100445571831774</v>
+        <v>-0.06028160416217333</v>
       </c>
       <c r="D75">
-        <v>9.639606782517734e-17</v>
+        <v>2.177794077088058e-17</v>
       </c>
       <c r="E75">
         <v>1</v>
       </c>
       <c r="F75">
-        <v>0.1100445571831762</v>
+        <v>-0.0602816041621736</v>
       </c>
       <c r="G75">
-        <v>0.1100445571831786</v>
+        <v>-0.06028160416217305</v>
       </c>
       <c r="H75">
-        <v>5.554033978501471e-16</v>
+        <v>2.297128274349318e-16</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>specific_factorcontrolled motivation:moderator_designLongitudinal</t>
+          <t>specific_factorAutonomous motivation:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C76">
-        <v>-0.1400000000000001</v>
+        <v>-0.07454657234646385</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>0.03597528074502949</v>
+      </c>
+      <c r="E76">
+        <v>12.39300549192797</v>
+      </c>
+      <c r="F76">
+        <v>-0.1516156904975433</v>
+      </c>
+      <c r="G76">
+        <v>0.003423465325771633</v>
+      </c>
+      <c r="H76">
+        <v>0.05932206894540167</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>specific_factorControlled motivation:moderator_designLongitudinal</t>
+          <t>specific_factorControlled causality orientation:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C77">
-        <v>-0.07000000000000008</v>
+        <v>0.2705024953939134</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>3.858278904852201e-17</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>0.2705024953939129</v>
+      </c>
+      <c r="G77">
+        <v>0.2705024953939138</v>
+      </c>
+      <c r="H77">
+        <v>8.854377471362111e-17</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>specific_factorEmotional intelligence:moderator_designLongitudinal</t>
+          <t>specific_factorControlled motivation:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C78">
-        <v>0.4760880030916776</v>
+        <v>0.141716147885998</v>
       </c>
       <c r="D78">
-        <v>0.07696278611949571</v>
+        <v>0.04995351174036921</v>
       </c>
       <c r="E78">
-        <v>1.419186009353757</v>
+        <v>10.66428500005646</v>
       </c>
       <c r="F78">
-        <v>0.01605895062266426</v>
+        <v>0.03229452986235828</v>
       </c>
       <c r="G78">
-        <v>0.7697714412385024</v>
+        <v>0.2477808964835338</v>
       </c>
       <c r="H78">
-        <v>0.04786153757943442</v>
+        <v>0.01607270940304842</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressures:moderator_designLongitudinal</t>
+          <t>specific_factorEmotional intelligence:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C79">
-        <v>-0.07225962892237232</v>
+        <v>-0.223596661393797</v>
       </c>
       <c r="D79">
-        <v>1.387916023704028e-17</v>
+        <v>0.07205428422184867</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>2.459868939599237</v>
       </c>
       <c r="F79">
-        <v>-0.0722596289223725</v>
+        <v>-0.4526590284834692</v>
       </c>
       <c r="G79">
-        <v>-0.07225962892237214</v>
+        <v>0.03314962307560414</v>
       </c>
       <c r="H79">
-        <v>1.220646716179797e-16</v>
+        <v>0.06669163787653573</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>specific_factorExtrinsic goals:moderator_designLongitudinal</t>
+          <t>specific_factorEntity beliefs:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C80">
-        <v>-0.1299999999999999</v>
+        <v>0.215946224496123</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>0.03071858990639596</v>
+      </c>
+      <c r="E80">
+        <v>1.018371328253487</v>
+      </c>
+      <c r="F80">
+        <v>-0.1534426875383151</v>
+      </c>
+      <c r="G80">
+        <v>0.5323827169774994</v>
+      </c>
+      <c r="H80">
+        <v>0.08570813679331797</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>specific_factorill-being:moderator_designLongitudinal</t>
+          <t>specific_factorExternal pressure in terms of constraints:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C81">
-        <v>-0.07000000000000006</v>
+        <v>0.04544968791214454</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>0.05262623755563442</v>
+      </c>
+      <c r="E81">
+        <v>3.307069860646395</v>
+      </c>
+      <c r="F81">
+        <v>-0.1130509435599087</v>
+      </c>
+      <c r="G81">
+        <v>0.2016945449637055</v>
+      </c>
+      <c r="H81">
+        <v>0.4456104934282714</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>specific_factorIll-being:moderator_designLongitudinal</t>
+          <t>specific_factorExternal pressures:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C82">
-        <v>-0.1370418644940802</v>
+        <v>0.2749989154007469</v>
       </c>
       <c r="D82">
-        <v>0.1769731111227026</v>
+        <v>0.03618326447363845</v>
       </c>
       <c r="E82">
-        <v>1.316394695126001</v>
+        <v>4.028124405149771</v>
       </c>
       <c r="F82">
-        <v>-0.8932387220500172</v>
+        <v>0.1800930948142632</v>
       </c>
       <c r="G82">
-        <v>0.8216598501116423</v>
+        <v>0.3648320065666189</v>
       </c>
       <c r="H82">
-        <v>0.5513923531820595</v>
+        <v>0.001415480601511497</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>specific_factorIntrinsic goals:moderator_designLongitudinal</t>
+          <t>specific_factorExtrinsic goals:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C83">
-        <v>0.4000000000000001</v>
+        <v>0.1987266618120521</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>7.464176098559373e-18</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>0.198726661812052</v>
+      </c>
+      <c r="G83">
+        <v>0.1987266618120521</v>
+      </c>
+      <c r="H83">
+        <v>2.359328932703413e-17</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>specific_factorNeed frustration:moderator_designLongitudinal</t>
+          <t>specific_factorHarmonious passion:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C84">
-        <v>-0.1034011102009204</v>
+        <v>0.05650191969114101</v>
       </c>
       <c r="D84">
-        <v>0.05644333980097247</v>
+        <v>0.06022291023738067</v>
       </c>
       <c r="E84">
-        <v>1.098293459954118</v>
+        <v>1.363020696859398</v>
       </c>
       <c r="F84">
-        <v>-0.5952255796264888</v>
+        <v>-0.3464834975752084</v>
       </c>
       <c r="G84">
-        <v>0.4447818345624654</v>
+        <v>0.4418813743026241</v>
       </c>
       <c r="H84">
-        <v>0.2997705311466049</v>
+        <v>0.4837475345056197</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>specific_factorNeed satisfaction:moderator_designLongitudinal</t>
+          <t>specific_factorIll-being:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C85">
-        <v>0.3228520306363382</v>
+        <v>0.2716708473345364</v>
       </c>
       <c r="D85">
-        <v>0.1329889504893876</v>
+        <v>0.08754824841162417</v>
       </c>
       <c r="E85">
-        <v>1.098293459954118</v>
+        <v>6.602855538947477</v>
       </c>
       <c r="F85">
-        <v>-0.7764344233969288</v>
+        <v>0.06898734544318429</v>
       </c>
       <c r="G85">
-        <v>0.9361530632231346</v>
+        <v>0.4528158525845826</v>
       </c>
       <c r="H85">
-        <v>0.2223360309205598</v>
+        <v>0.01668398404486675</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>specific_factorNegative life events:moderator_designLongitudinal</t>
+          <t>specific_factorIncremental beliefs:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C86">
-        <v>0.1466519662212898</v>
+        <v>-0.05829266360247003</v>
       </c>
       <c r="D86">
-        <v>5.196705591695725e-17</v>
+        <v>0.01451563941169727</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>1.380183688684756</v>
       </c>
       <c r="F86">
-        <v>0.1466519662212892</v>
+        <v>-0.1558641238751012</v>
       </c>
       <c r="G86">
-        <v>0.1466519662212905</v>
+        <v>0.04040535424540644</v>
       </c>
       <c r="H86">
-        <v>2.239636382465532e-16</v>
+        <v>0.1007634601396692</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>specific_factorothers abilities:moderator_designLongitudinal</t>
+          <t>specific_factorInternal pressures:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C87">
-        <v>0.1635394083263118</v>
+        <v>0.1377381926477992</v>
       </c>
       <c r="D87">
-        <v>0.08128995889275682</v>
+        <v>0.04905276047826692</v>
       </c>
       <c r="E87">
-        <v>1.001938300991284</v>
+        <v>1.007454183429207</v>
       </c>
       <c r="F87">
-        <v>-0.697879995322125</v>
+        <v>-0.4413146918664639</v>
       </c>
       <c r="G87">
-        <v>0.8315681036382089</v>
+        <v>0.6358052638619131</v>
       </c>
       <c r="H87">
-        <v>0.2910126637383934</v>
+        <v>0.2150327543114584</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>specific_factorothers' negative behaviours:moderator_designLongitudinal</t>
+          <t>specific_factorIntrinsic goals:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C88">
-        <v>-0.1163125262763407</v>
+        <v>-0.05766513221470127</v>
       </c>
       <c r="D88">
-        <v>0.09056761006541036</v>
+        <v>1.099288590241804e-17</v>
       </c>
       <c r="E88">
         <v>1</v>
       </c>
       <c r="F88">
-        <v>-0.8531490962810325</v>
+        <v>-0.05766513221470141</v>
       </c>
       <c r="G88">
-        <v>0.7754794444107731</v>
+        <v>-0.05766513221470113</v>
       </c>
       <c r="H88">
-        <v>0.4197828262606402</v>
+        <v>1.212261951286244e-16</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>specific_factorothers' positive behaviours:moderator_designLongitudinal</t>
+          <t>specific_factorInvitation from others' to help:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C89">
-        <v>0.1222214990118723</v>
+        <v>-0.1116565732124208</v>
       </c>
       <c r="D89">
-        <v>0.1188175427477575</v>
+        <v>0.02601767493696294</v>
       </c>
       <c r="E89">
-        <v>1.001938300991285</v>
+        <v>1.587106583087598</v>
       </c>
       <c r="F89">
-        <v>-0.8809512970911608</v>
+        <v>-0.2516559554118402</v>
       </c>
       <c r="G89">
-        <v>0.9254426579679461</v>
+        <v>0.03291986685468126</v>
       </c>
       <c r="H89">
-        <v>0.4891522746390903</v>
+        <v>0.07386001393659308</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>specific_factorPositive beliefs about knowledge and learning:moderator_designLongitudinal</t>
+          <t>specific_factorLow Personal responsibility for others' motivation:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C90">
-        <v>0.1100000000000001</v>
+        <v>-0.03690973777072161</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>0.02601767485042753</v>
+      </c>
+      <c r="E90">
+        <v>1.587106583087597</v>
+      </c>
+      <c r="F90">
+        <v>-0.1799996903584385</v>
+      </c>
+      <c r="G90">
+        <v>0.1077098906012587</v>
+      </c>
+      <c r="H90">
+        <v>0.3205206955317949</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>specific_factorself-efficacy:moderator_designLongitudinal</t>
+          <t>specific_factorMastery goals:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C91">
-        <v>0.2800000000000001</v>
+        <v>-0.09778828466174688</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>0.04806327090179614</v>
+      </c>
+      <c r="E91">
+        <v>1.756325177989529</v>
+      </c>
+      <c r="F91">
+        <v>-0.3229912069735961</v>
+      </c>
+      <c r="G91">
+        <v>0.1378954110452905</v>
+      </c>
+      <c r="H91">
+        <v>0.1954098681504807</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>specific_factorSocial connection/support:moderator_designLongitudinal</t>
+          <t>specific_factorNeed frustration:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C92">
-        <v>0.202504466773531</v>
+        <v>0.2854580505644116</v>
       </c>
       <c r="D92">
-        <v>0.1008452077055355</v>
+        <v>0.040308790436616</v>
       </c>
       <c r="E92">
-        <v>0.9999999999999998</v>
+        <v>6.972864326277386</v>
       </c>
       <c r="F92">
-        <v>-0.7917174298307061</v>
+        <v>0.1956678669445346</v>
       </c>
       <c r="G92">
-        <v>0.9027161954776998</v>
+        <v>0.3705018988748465</v>
       </c>
       <c r="H92">
-        <v>0.2906218512307415</v>
+        <v>0.0001681284517911573</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>specific_factorWell-being:moderator_designLongitudinal</t>
+          <t>specific_factorNeed satisfaction:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C93">
-        <v>0.3368811035517325</v>
+        <v>-0.1262977322435331</v>
       </c>
       <c r="D93">
-        <v>0.2036320089510088</v>
+        <v>0.0361641161161036</v>
       </c>
       <c r="E93">
-        <v>1.160499835377897</v>
+        <v>9.176707452158281</v>
       </c>
       <c r="F93">
-        <v>-0.9099352469608112</v>
+        <v>-0.2055735706294789</v>
       </c>
       <c r="G93">
-        <v>0.9770620940927653</v>
+        <v>-0.04537517554630097</v>
       </c>
       <c r="H93">
-        <v>0.30837388727266</v>
+        <v>0.006411242701786021</v>
       </c>
     </row>
     <row r="94">
@@ -3161,26 +3281,26 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>specific_factorWell-being:moderator_designCross-lagged</t>
+          <t>specific_factorNegative personality:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C94">
-        <v>-0.1200487213609953</v>
+        <v>0.2715826378855486</v>
       </c>
       <c r="D94">
-        <v>2.439721015952702e-17</v>
+        <v>0.03338585182222745</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>2.029037839293111</v>
       </c>
       <c r="F94">
-        <v>-0.1200487213609956</v>
+        <v>0.1360276789841159</v>
       </c>
       <c r="G94">
-        <v>-0.120048721360995</v>
+        <v>0.3971555735452996</v>
       </c>
       <c r="H94">
-        <v>1.287547617196108e-16</v>
+        <v>0.01346692509725676</v>
       </c>
     </row>
     <row r="95">
@@ -3191,26 +3311,26 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>specific_factorAmotivation:moderator_designCross-sectional</t>
+          <t>specific_factorObsessive passion:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C95">
-        <v>0.3209112799298996</v>
+        <v>0.2463562072538777</v>
       </c>
       <c r="D95">
-        <v>0.06072267247325164</v>
+        <v>0.06022291023738054</v>
       </c>
       <c r="E95">
-        <v>3.826468399094686</v>
+        <v>1.363020696859399</v>
       </c>
       <c r="F95">
-        <v>0.1596338450744582</v>
+        <v>-0.1649532324487999</v>
       </c>
       <c r="G95">
-        <v>0.4655034468046575</v>
+        <v>0.5846732327330831</v>
       </c>
       <c r="H95">
-        <v>0.006141163699282123</v>
+        <v>0.09766524177349069</v>
       </c>
     </row>
     <row r="96">
@@ -3221,26 +3341,26 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous causality orientation:moderator_designCross-sectional</t>
+          <t>specific_factorOthers' abilities:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C96">
-        <v>-0.06028160416217346</v>
+        <v>-0.3952327376907631</v>
       </c>
       <c r="D96">
-        <v>1.03592628625093e-16</v>
+        <v>0.1288204129658955</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>1.041151077540827</v>
       </c>
       <c r="F96">
-        <v>-0.06028160416217478</v>
+        <v>-0.9570491385644422</v>
       </c>
       <c r="G96">
-        <v>-0.06028160416217215</v>
+        <v>0.7908119373707185</v>
       </c>
       <c r="H96">
-        <v>1.092690804573471e-15</v>
+        <v>0.1823758280907309</v>
       </c>
     </row>
     <row r="97">
@@ -3251,26 +3371,26 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>specific_factorautonomous motivation:moderator_designCross-sectional</t>
+          <t>specific_factorOthers' autonomous motivation:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C97">
-        <v>-0.05893069337206377</v>
+        <v>-0.1766097441548252</v>
       </c>
       <c r="D97">
-        <v>0.1222698019292043</v>
+        <v>0.1550287465537047</v>
       </c>
       <c r="E97">
-        <v>1.945374360311154</v>
+        <v>4.122291337553682</v>
       </c>
       <c r="F97">
-        <v>-0.5366911379824553</v>
+        <v>-0.5398334452462876</v>
       </c>
       <c r="G97">
-        <v>0.4474427595219698</v>
+        <v>0.2420573058582028</v>
       </c>
       <c r="H97">
-        <v>0.6782519641494784</v>
+        <v>0.3119857683630403</v>
       </c>
     </row>
     <row r="98">
@@ -3281,26 +3401,26 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous motivation:moderator_designCross-sectional</t>
+          <t>specific_factorOthers' controlled motivation:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C98">
-        <v>-0.07618601792921199</v>
+        <v>0.04331654287780414</v>
       </c>
       <c r="D98">
-        <v>0.04077178723585998</v>
+        <v>0.03965409454112571</v>
       </c>
       <c r="E98">
-        <v>9.988971664764938</v>
+        <v>1.051358684457225</v>
       </c>
       <c r="F98">
-        <v>-0.1656520911946845</v>
+        <v>-0.384995076908534</v>
       </c>
       <c r="G98">
-        <v>0.01452384307606533</v>
+        <v>0.4562760976331239</v>
       </c>
       <c r="H98">
-        <v>0.09070852949404258</v>
+        <v>0.4646705173892948</v>
       </c>
     </row>
     <row r="99">
@@ -3311,26 +3431,26 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>specific_factorControlled causality orientation:moderator_designCross-sectional</t>
+          <t>specific_factorOthers' negative behaviours:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C99">
-        <v>0.2705024953939132</v>
+        <v>0.4774402032538593</v>
       </c>
       <c r="D99">
-        <v>1.138796450852535e-16</v>
+        <v>0.1758246782841903</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>1.014744391680445</v>
       </c>
       <c r="F99">
-        <v>0.2705024953939119</v>
+        <v>-0.9273512346119969</v>
       </c>
       <c r="G99">
-        <v>0.2705024953939145</v>
+        <v>0.9906134398654891</v>
       </c>
       <c r="H99">
-        <v>2.613427874852422e-16</v>
+        <v>0.2047699668511881</v>
       </c>
     </row>
     <row r="100">
@@ -3341,26 +3461,26 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>specific_factorcontrolled motivation:moderator_designCross-sectional</t>
+          <t>specific_factorOthers' negative emotions:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C100">
-        <v>-0.1006995446084522</v>
+        <v>0.2357878058632937</v>
       </c>
       <c r="D100">
-        <v>0.1155173376445055</v>
+        <v>0.02109222153170499</v>
       </c>
       <c r="E100">
-        <v>1.184337584431045</v>
+        <v>2.243785095364469</v>
       </c>
       <c r="F100">
-        <v>-0.8093842380320661</v>
+        <v>0.1570694470653372</v>
       </c>
       <c r="G100">
-        <v>0.7273875212986812</v>
+        <v>0.3115290079705608</v>
       </c>
       <c r="H100">
-        <v>0.5233126221993991</v>
+        <v>0.004964652968537092</v>
       </c>
     </row>
     <row r="101">
@@ -3371,26 +3491,26 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>specific_factorControlled motivation:moderator_designCross-sectional</t>
+          <t>specific_factorOthers' positive behaviours:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C101">
-        <v>0.1750065032379231</v>
+        <v>0.03567666899281843</v>
       </c>
       <c r="D101">
-        <v>0.04787287316531798</v>
+        <v>0.06062999655466827</v>
       </c>
       <c r="E101">
-        <v>9.533924504296101</v>
+        <v>2.012143170144324</v>
       </c>
       <c r="F101">
-        <v>0.06933681725718339</v>
+        <v>-0.2200180946905217</v>
       </c>
       <c r="G101">
-        <v>0.2767926088006172</v>
+        <v>0.2867842183548156</v>
       </c>
       <c r="H101">
-        <v>0.004501762873504132</v>
+        <v>0.6153878433879773</v>
       </c>
     </row>
     <row r="102">
@@ -3401,26 +3521,26 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>specific_factoremotional intelligence:moderator_designCross-sectional</t>
+          <t>specific_factorOthers' positive emotions:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C102">
-        <v>-0.3810260988498431</v>
+        <v>-0.1605810723913453</v>
       </c>
       <c r="D102">
-        <v>0.07666698235411414</v>
+        <v>0.02590449104585781</v>
       </c>
       <c r="E102">
-        <v>1.237357323478272</v>
+        <v>1.097454167556</v>
       </c>
       <c r="F102">
-        <v>-0.7731182510801266</v>
+        <v>-0.404899553573509</v>
       </c>
       <c r="G102">
-        <v>0.2217673215569232</v>
+        <v>0.1051392532966644</v>
       </c>
       <c r="H102">
-        <v>0.08586431556081754</v>
+        <v>0.08615003431759299</v>
       </c>
     </row>
     <row r="103">
@@ -3431,26 +3551,26 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>specific_factorEmotional intelligence:moderator_designCross-sectional</t>
+          <t>specific_factorPerformance goals:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C103">
-        <v>-0.1652114554594451</v>
+        <v>0.1574995723481245</v>
       </c>
       <c r="D103">
-        <v>0.08546288680539681</v>
+        <v>0.04940522049019555</v>
       </c>
       <c r="E103">
-        <v>1.661574223471302</v>
+        <v>1.883225697972472</v>
       </c>
       <c r="F103">
-        <v>-0.5486420648495856</v>
+        <v>-0.06679702337323408</v>
       </c>
       <c r="G103">
-        <v>0.2756397564496493</v>
+        <v>0.3666435898789862</v>
       </c>
       <c r="H103">
-        <v>0.2155690289478544</v>
+        <v>0.09153421862107702</v>
       </c>
     </row>
     <row r="104">
@@ -3461,26 +3581,26 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>specific_factorentity beliefs:moderator_designCross-sectional</t>
+          <t>specific_factorPersonal responsibility for others' motivation:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C104">
-        <v>0.2143045406041261</v>
+        <v>-0.1247585357171119</v>
       </c>
       <c r="D104">
-        <v>0.03885991675921205</v>
+        <v>0.02890527982839095</v>
       </c>
       <c r="E104">
-        <v>1.023590812573822</v>
+        <v>1.158819118582427</v>
       </c>
       <c r="F104">
-        <v>-0.2449065025511042</v>
+        <v>-0.3736930217399969</v>
       </c>
       <c r="G104">
-        <v>0.5949829630439728</v>
+        <v>0.140940344839307</v>
       </c>
       <c r="H104">
-        <v>0.1084394742187986</v>
+        <v>0.1179851109585681</v>
       </c>
     </row>
     <row r="105">
@@ -3491,26 +3611,26 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressure in terms of constraints:moderator_designCross-sectional</t>
+          <t>specific_factorPersonal responsibility for others' motivation motivation:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C105">
-        <v>0.04521681550489582</v>
+        <v>-0.1169078281438422</v>
       </c>
       <c r="D105">
-        <v>0.04877128427090555</v>
+        <v>0.1120037148319463</v>
       </c>
       <c r="E105">
-        <v>3.328988711354921</v>
+        <v>1.897462024464591</v>
       </c>
       <c r="F105">
-        <v>-0.1012889623209866</v>
+        <v>-0.5547346760767825</v>
       </c>
       <c r="G105">
-        <v>0.1898030386644916</v>
+        <v>0.3716233295740368</v>
       </c>
       <c r="H105">
-        <v>0.4157699672977433</v>
+        <v>0.4094275637552397</v>
       </c>
     </row>
     <row r="106">
@@ -3521,26 +3641,26 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>specific_factorexternal pressures:moderator_designCross-sectional</t>
+          <t>specific_factorPrior positive related experiences:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C106">
-        <v>0.2978962783406525</v>
+        <v>-0.04695059223533644</v>
       </c>
       <c r="D106">
-        <v>0.1067670070818743</v>
+        <v>0.02601767543255037</v>
       </c>
       <c r="E106">
-        <v>1.004012658970261</v>
+        <v>1.587106583087596</v>
       </c>
       <c r="F106">
-        <v>-0.7765611430280908</v>
+        <v>-0.189714502442842</v>
       </c>
       <c r="G106">
-        <v>0.9290039423705775</v>
+        <v>0.09775751722536351</v>
       </c>
       <c r="H106">
-        <v>0.212131893260267</v>
+        <v>0.2442777149674946</v>
       </c>
     </row>
     <row r="107">
@@ -3551,26 +3671,26 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressures:moderator_designCross-sectional</t>
+          <t>specific_factorSelf-efficacy:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C107">
-        <v>0.25616337455676</v>
+        <v>-0.09136093475089202</v>
       </c>
       <c r="D107">
-        <v>0.009371142793579038</v>
+        <v>0.02340981060781687</v>
       </c>
       <c r="E107">
-        <v>2.021147541766964</v>
+        <v>1.706171978784216</v>
       </c>
       <c r="F107">
-        <v>0.2184985345919238</v>
+        <v>-0.2078604058038037</v>
       </c>
       <c r="G107">
-        <v>0.2930661039926036</v>
+        <v>0.02769419459778713</v>
       </c>
       <c r="H107">
-        <v>0.001206646196349611</v>
+        <v>0.07643051435555936</v>
       </c>
     </row>
     <row r="108">
@@ -3581,26 +3701,26 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>specific_factorExtrinsic goals:moderator_designCross-sectional</t>
+          <t>specific_factorSocial connection/support:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C108">
-        <v>0.1987266618120521</v>
+        <v>-0.1123202602781438</v>
       </c>
       <c r="D108">
-        <v>2.370335314875587e-17</v>
+        <v>0.05949541418998368</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>1.495087300783324</v>
       </c>
       <c r="F108">
-        <v>0.1987266618120518</v>
+        <v>-0.4401461341957208</v>
       </c>
       <c r="G108">
-        <v>0.1987266618120523</v>
+        <v>0.2419267414658245</v>
       </c>
       <c r="H108">
-        <v>7.49232147627652e-17</v>
+        <v>0.2393676940674626</v>
       </c>
     </row>
     <row r="109">
@@ -3611,26 +3731,26 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>specific_factorHarmonious passion:moderator_designCross-sectional</t>
+          <t>specific_factorStyle-related beliefs:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C109">
-        <v>0.05210967855078241</v>
+        <v>0.4223108377866676</v>
       </c>
       <c r="D109">
-        <v>0.05327063418413661</v>
+        <v>0.1129247464224986</v>
       </c>
       <c r="E109">
-        <v>1.402130339174049</v>
+        <v>1.022528520501735</v>
       </c>
       <c r="F109">
-        <v>-0.2928135380598843</v>
+        <v>-0.721972964230611</v>
       </c>
       <c r="G109">
-        <v>0.3850325071476709</v>
+        <v>0.9481111745956722</v>
       </c>
       <c r="H109">
-        <v>0.466037133002884</v>
+        <v>0.1520932776815911</v>
       </c>
     </row>
     <row r="110">
@@ -3641,26 +3761,26 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>specific_factorIll-being:moderator_designCross-sectional</t>
+          <t>specific_factorWell-being:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C110">
-        <v>0.2703622443735711</v>
+        <v>-0.1887483459688732</v>
       </c>
       <c r="D110">
-        <v>0.09556187703903209</v>
+        <v>0.04758088883363605</v>
       </c>
       <c r="E110">
-        <v>5.659691504143255</v>
+        <v>4.99383412738724</v>
       </c>
       <c r="F110">
-        <v>0.03995100221301304</v>
+        <v>-0.3035224632970088</v>
       </c>
       <c r="G110">
-        <v>0.4734725920294083</v>
+        <v>-0.06857515587394773</v>
       </c>
       <c r="H110">
-        <v>0.02918528634603641</v>
+        <v>0.01019624782711913</v>
       </c>
     </row>
     <row r="111">
@@ -3671,26 +3791,26 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>specific_factorIncremental beliefs:moderator_designCross-sectional</t>
+          <t>specific_factorAutonomous causality orientation:moderator_designExperimental (non-randomized)</t>
         </is>
       </c>
       <c r="C111">
-        <v>-0.05438546479784295</v>
+        <v>-0.24</v>
       </c>
       <c r="D111">
-        <v>0.01450439767489908</v>
+        <v>4.496505269706636e-18</v>
       </c>
       <c r="E111">
-        <v>1.440801963947309</v>
+        <v>1</v>
       </c>
       <c r="F111">
-        <v>-0.145862271590007</v>
+        <v>-0.24</v>
       </c>
       <c r="G111">
-        <v>0.03801344005927883</v>
+        <v>-0.2399999999999999</v>
       </c>
       <c r="H111">
-        <v>0.1038749032324986</v>
+        <v>1.169471775487157e-17</v>
       </c>
     </row>
     <row r="112">
@@ -3701,26 +3821,26 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>specific_factorInternal pressures:moderator_designCross-sectional</t>
+          <t>specific_factorControlled causality orientation:moderator_designExperimental (non-randomized)</t>
         </is>
       </c>
       <c r="C112">
-        <v>0.1424938582438632</v>
+        <v>0.6</v>
       </c>
       <c r="D112">
-        <v>0.03483760464806163</v>
+        <v>4.496505269706634e-18</v>
       </c>
       <c r="E112">
-        <v>1.009883723519094</v>
+        <v>1</v>
       </c>
       <c r="F112">
-        <v>-0.2812842200035205</v>
+        <v>0.5999999999999999</v>
       </c>
       <c r="G112">
-        <v>0.519764106794447</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="H112">
-        <v>0.1497725479876535</v>
+        <v>4.129807119662235e-18</v>
       </c>
     </row>
     <row r="113">
@@ -3731,26 +3851,26 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>specific_factorIntrinsic goals:moderator_designCross-sectional</t>
+          <t>specific_factorEmotional intelligence:moderator_designExperimental (non-randomized)</t>
         </is>
       </c>
       <c r="C113">
-        <v>-0.05766513221470124</v>
+        <v>-0.2299999999999998</v>
       </c>
       <c r="D113">
-        <v>1.483389111999985e-17</v>
+        <v>1.139239953261033e-17</v>
       </c>
       <c r="E113">
         <v>1</v>
       </c>
       <c r="F113">
-        <v>-0.05766513221470143</v>
+        <v>-0.23</v>
       </c>
       <c r="G113">
-        <v>-0.05766513221470106</v>
+        <v>-0.2299999999999997</v>
       </c>
       <c r="H113">
-        <v>1.635836299396429e-16</v>
+        <v>3.09690563693162e-17</v>
       </c>
     </row>
     <row r="114">
@@ -3761,26 +3881,14 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>specific_factorInvitation from others to help:moderator_designCross-sectional</t>
+          <t>specific_factorInternal pressures:moderator_designExperimental (non-randomized)</t>
         </is>
       </c>
       <c r="C114">
-        <v>-0.105802430005915</v>
+        <v>0.224</v>
       </c>
       <c r="D114">
-        <v>0.03264702763047611</v>
-      </c>
-      <c r="E114">
-        <v>1.302921911997231</v>
-      </c>
-      <c r="F114">
-        <v>-0.3365036953398948</v>
-      </c>
-      <c r="G114">
-        <v>0.1368801128024721</v>
-      </c>
-      <c r="H114">
-        <v>0.1415928426537442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -3791,26 +3899,26 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>specific_factorlow personal responsibility for others:moderator_designCross-sectional</t>
+          <t>specific_factorMastery goals:moderator_designExperimental (non-randomized)</t>
         </is>
       </c>
       <c r="C115">
-        <v>-0.03099238636967755</v>
+        <v>-0.2199999999999999</v>
       </c>
       <c r="D115">
-        <v>0.03264702751892794</v>
+        <v>5.090978913060404e-18</v>
       </c>
       <c r="E115">
-        <v>1.302921911997231</v>
+        <v>1</v>
       </c>
       <c r="F115">
-        <v>-0.2682219305717892</v>
+        <v>-0.22</v>
       </c>
       <c r="G115">
-        <v>0.2097810434776593</v>
+        <v>-0.2199999999999999</v>
       </c>
       <c r="H115">
-        <v>0.4848666712107951</v>
+        <v>1.449107672907024e-17</v>
       </c>
     </row>
     <row r="116">
@@ -3821,26 +3929,14 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>specific_factorMastery goals:moderator_designCross-sectional</t>
+          <t>specific_factorNeed frustration:moderator_designExperimental (non-randomized)</t>
         </is>
       </c>
       <c r="C116">
-        <v>-0.09206007871001372</v>
+        <v>0.314</v>
       </c>
       <c r="D116">
-        <v>0.04694464438421245</v>
-      </c>
-      <c r="E116">
-        <v>1.75661068564919</v>
-      </c>
-      <c r="F116">
-        <v>-0.3128007045830177</v>
-      </c>
-      <c r="G116">
-        <v>0.1381154880816466</v>
-      </c>
-      <c r="H116">
-        <v>0.2054527012160724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -3851,26 +3947,26 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>specific_factorneed frustration:moderator_designCross-sectional</t>
+          <t>specific_factorNegative personality:moderator_designExperimental (non-randomized)</t>
         </is>
       </c>
       <c r="C117">
-        <v>0.1626560022778022</v>
+        <v>0.3600413657543437</v>
       </c>
       <c r="D117">
-        <v>0.1155173376445052</v>
+        <v>2.582024819193808e-18</v>
       </c>
       <c r="E117">
-        <v>1.184337584431046</v>
+        <v>1</v>
       </c>
       <c r="F117">
-        <v>-0.6963016744354523</v>
+        <v>0.3600413657543436</v>
       </c>
       <c r="G117">
-        <v>0.8300548552686173</v>
+        <v>0.3600413657543438</v>
       </c>
       <c r="H117">
-        <v>0.3628539309889272</v>
+        <v>4.360897535004456e-18</v>
       </c>
     </row>
     <row r="118">
@@ -3881,26 +3977,26 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>specific_factorNeed frustration:moderator_designCross-sectional</t>
+          <t>specific_factorOthers' autonomous motivation:moderator_designExperimental (non-randomized)</t>
         </is>
       </c>
       <c r="C118">
-        <v>0.3053977158631017</v>
+        <v>-0.1099999999999999</v>
       </c>
       <c r="D118">
-        <v>0.04641504887077517</v>
+        <v>1.158175681441817e-18</v>
       </c>
       <c r="E118">
-        <v>6.234484672556215</v>
+        <v>1</v>
       </c>
       <c r="F118">
-        <v>0.2001758391807632</v>
+        <v>-0.1099999999999999</v>
       </c>
       <c r="G118">
-        <v>0.4036551226408035</v>
+        <v>-0.1099999999999999</v>
       </c>
       <c r="H118">
-        <v>0.0004217813037302406</v>
+        <v>6.675763948740956e-18</v>
       </c>
     </row>
     <row r="119">
@@ -3911,26 +4007,14 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>specific_factorneed satisfaction:moderator_designCross-sectional</t>
+          <t>specific_factorAutonomous motivation:moderator_designLongitudinal</t>
         </is>
       </c>
       <c r="C119">
-        <v>-0.07263857946716457</v>
+        <v>0.03000000000000001</v>
       </c>
       <c r="D119">
-        <v>0.115517337644505</v>
-      </c>
-      <c r="E119">
-        <v>1.184337584431046</v>
-      </c>
-      <c r="F119">
-        <v>-0.7994064914321645</v>
-      </c>
-      <c r="G119">
-        <v>0.7404308154475904</v>
-      </c>
-      <c r="H119">
-        <v>0.6283235163357532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -3941,26 +4025,14 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>specific_factorNeed satisfaction:moderator_designCross-sectional</t>
+          <t>specific_factorControlled motivation:moderator_designLongitudinal</t>
         </is>
       </c>
       <c r="C120">
-        <v>-0.1507789882876109</v>
+        <v>0.2500000000000001</v>
       </c>
       <c r="D120">
-        <v>0.03439760557243064</v>
-      </c>
-      <c r="E120">
-        <v>8.465626478456675</v>
-      </c>
-      <c r="F120">
-        <v>-0.226507917420399</v>
-      </c>
-      <c r="G120">
-        <v>-0.07323808996193358</v>
-      </c>
-      <c r="H120">
-        <v>0.001947622490227643</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -3971,26 +4043,26 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>specific_factorNegative personality:moderator_designCross-sectional</t>
+          <t>specific_factorExtrinsic goals:moderator_designLongitudinal</t>
         </is>
       </c>
       <c r="C121">
-        <v>0.2593657273896673</v>
+        <v>0.3081655091449354</v>
       </c>
       <c r="D121">
-        <v>0.02526049525173796</v>
+        <v>0.2176872898680614</v>
       </c>
       <c r="E121">
-        <v>2.009236137564951</v>
+        <v>1.010244751347214</v>
       </c>
       <c r="F121">
-        <v>0.1559358307328327</v>
+        <v>-0.9830832188120188</v>
       </c>
       <c r="G121">
-        <v>0.3571697535325971</v>
+        <v>0.995239518728372</v>
       </c>
       <c r="H121">
-        <v>0.008795719750815733</v>
+        <v>0.379922199152228</v>
       </c>
     </row>
     <row r="122">
@@ -4001,26 +4073,26 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>specific_factorObsessive passion:moderator_designCross-sectional</t>
+          <t>specific_factorIll-being:moderator_designLongitudinal</t>
         </is>
       </c>
       <c r="C122">
-        <v>0.2422138587370587</v>
+        <v>0.35</v>
       </c>
       <c r="D122">
-        <v>0.05327063418413636</v>
+        <v>1.430089916729635e-17</v>
       </c>
       <c r="E122">
-        <v>1.402130339174049</v>
+        <v>1</v>
       </c>
       <c r="F122">
-        <v>-0.1062704203524072</v>
+        <v>0.3499999999999999</v>
       </c>
       <c r="G122">
-        <v>0.5377056232555415</v>
+        <v>0.3500000000000001</v>
       </c>
       <c r="H122">
-        <v>0.08139542170646155</v>
+        <v>2.4912821921632e-17</v>
       </c>
     </row>
     <row r="123">
@@ -4031,26 +4103,26 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>specific_factorOthers positive behaviour:moderator_designCross-sectional</t>
+          <t>specific_factorIntrinsic goals:moderator_designLongitudinal</t>
         </is>
       </c>
       <c r="C123">
-        <v>-0.009633674804149887</v>
+        <v>-0.06421960251317869</v>
       </c>
       <c r="D123">
-        <v>0.07666698235411411</v>
+        <v>0.1787563977711744</v>
       </c>
       <c r="E123">
-        <v>1.237357323478272</v>
+        <v>1.010244751347214</v>
       </c>
       <c r="F123">
-        <v>-0.5624485144773911</v>
+        <v>-0.9793706787971724</v>
       </c>
       <c r="G123">
-        <v>0.5491332989686795</v>
+        <v>0.9733996425837433</v>
       </c>
       <c r="H123">
-        <v>0.9172750659011664</v>
+        <v>0.7796782982461015</v>
       </c>
     </row>
     <row r="124">
@@ -4061,26 +4133,14 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>specific_factorOthers' abilities:moderator_designCross-sectional</t>
+          <t>specific_factorNeed frustration:moderator_designLongitudinal</t>
         </is>
       </c>
       <c r="C124">
-        <v>-0.3858323579168289</v>
+        <v>0.17</v>
       </c>
       <c r="D124">
-        <v>0.1326584209706288</v>
-      </c>
-      <c r="E124">
-        <v>1.045114362182159</v>
-      </c>
-      <c r="F124">
-        <v>-0.9587249056740457</v>
-      </c>
-      <c r="G124">
-        <v>0.8062103866746509</v>
-      </c>
-      <c r="H124">
-        <v>0.1919057240838122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -4091,26 +4151,14 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>specific_factorothers' autonomous motivation:moderator_designCross-sectional</t>
+          <t>specific_factorNeed satisfaction:moderator_designLongitudinal</t>
         </is>
       </c>
       <c r="C125">
-        <v>-0.3641234743566398</v>
+        <v>-0.14</v>
       </c>
       <c r="D125">
-        <v>0.1410442201342707</v>
-      </c>
-      <c r="E125">
-        <v>1.681374492224405</v>
-      </c>
-      <c r="F125">
-        <v>-0.8051876166518441</v>
-      </c>
-      <c r="G125">
-        <v>0.336312105506373</v>
-      </c>
-      <c r="H125">
-        <v>0.1363905269820886</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -4121,26 +4169,14 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>specific_factorOthers' autonomous motivation:moderator_designCross-sectional</t>
+          <t>specific_factorOthers' abilities:moderator_designLongitudinal</t>
         </is>
       </c>
       <c r="C126">
-        <v>0.08810299103787748</v>
+        <v>-0.29</v>
       </c>
       <c r="D126">
-        <v>0.09424072045005115</v>
-      </c>
-      <c r="E126">
-        <v>1.896877945620701</v>
-      </c>
-      <c r="F126">
-        <v>-0.3266090447747397</v>
-      </c>
-      <c r="G126">
-        <v>0.4743680013429501</v>
-      </c>
-      <c r="H126">
-        <v>0.452123310537794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -4151,26 +4187,14 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>specific_factorOthers' controlled motivation:moderator_designCross-sectional</t>
+          <t>specific_factorOthers' negative behaviours:moderator_designLongitudinal</t>
         </is>
       </c>
       <c r="C127">
-        <v>0.08286696751519647</v>
+        <v>0.3000000000000001</v>
       </c>
       <c r="D127">
-        <v>0.03600752408655594</v>
-      </c>
-      <c r="E127">
-        <v>1.067425670105913</v>
-      </c>
-      <c r="F127">
-        <v>-0.3018133608242285</v>
-      </c>
-      <c r="G127">
-        <v>0.4443422423088074</v>
-      </c>
-      <c r="H127">
-        <v>0.2476463106806356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -4181,26 +4205,26 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>specific_factorothers' negative behaviours:moderator_designCross-sectional</t>
+          <t>specific_factorOthers' negative emotions:moderator_designLongitudinal</t>
         </is>
       </c>
       <c r="C128">
-        <v>0.2589443937639408</v>
+        <v>0.3011919971946089</v>
       </c>
       <c r="D128">
-        <v>0.0119383695444932</v>
+        <v>1.635765996999862e-17</v>
       </c>
       <c r="E128">
-        <v>1.302160378587403</v>
+        <v>1</v>
       </c>
       <c r="F128">
-        <v>0.1738975799582566</v>
+        <v>0.3011919971946087</v>
       </c>
       <c r="G128">
-        <v>0.3401571261309967</v>
+        <v>0.3011919971946091</v>
       </c>
       <c r="H128">
-        <v>0.01224242757082812</v>
+        <v>3.350258834283228e-17</v>
       </c>
     </row>
     <row r="129">
@@ -4211,848 +4235,14 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative behaviours:moderator_designCross-sectional</t>
+          <t>specific_factorOthers' positive behaviours:moderator_designLongitudinal</t>
         </is>
       </c>
       <c r="C129">
-        <v>0.5742441838758511</v>
+        <v>-0.04000000000000004</v>
       </c>
       <c r="D129">
-        <v>0.0691167734925438</v>
-      </c>
-      <c r="E129">
-        <v>1.281289006528452</v>
-      </c>
-      <c r="F129">
-        <v>0.1218382604775185</v>
-      </c>
-      <c r="G129">
-        <v>0.8290898843599077</v>
-      </c>
-      <c r="H129">
-        <v>0.0384576545918431</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>specific_factorothers' negative emotions:moderator_designCross-sectional</t>
-        </is>
-      </c>
-      <c r="C130">
-        <v>0.1845681803881669</v>
-      </c>
-      <c r="D130">
-        <v>0.07666698235411419</v>
-      </c>
-      <c r="E130">
-        <v>1.237357323478272</v>
-      </c>
-      <c r="F130">
-        <v>-0.4136988724227119</v>
-      </c>
-      <c r="G130">
-        <v>0.6715063161398348</v>
-      </c>
-      <c r="H130">
-        <v>0.2077717334846551</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>specific_factorOthers' negative emotions:moderator_designCross-sectional</t>
-        </is>
-      </c>
-      <c r="C131">
-        <v>0.2458970316479273</v>
-      </c>
-      <c r="D131">
-        <v>0.02816563089364928</v>
-      </c>
-      <c r="E131">
-        <v>1.168347597212156</v>
-      </c>
-      <c r="F131">
-        <v>-0.005291477075658978</v>
-      </c>
-      <c r="G131">
-        <v>0.4678963595072845</v>
-      </c>
-      <c r="H131">
-        <v>0.05122135914082752</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>specific_factorOthers' positive emotions:moderator_designCross-sectional</t>
-        </is>
-      </c>
-      <c r="C132">
-        <v>-0.1535168649012243</v>
-      </c>
-      <c r="D132">
-        <v>0.02449151067707133</v>
-      </c>
-      <c r="E132">
-        <v>1.09931693894842</v>
-      </c>
-      <c r="F132">
-        <v>-0.3857202186391014</v>
-      </c>
-      <c r="G132">
-        <v>0.09697625350008514</v>
-      </c>
-      <c r="H132">
-        <v>0.08494061530715226</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>specific_factorPerformance goals:moderator_designCross-sectional</t>
-        </is>
-      </c>
-      <c r="C133">
-        <v>0.1635805803370119</v>
-      </c>
-      <c r="D133">
-        <v>0.05051976963242486</v>
-      </c>
-      <c r="E133">
-        <v>1.886452955088492</v>
-      </c>
-      <c r="F133">
-        <v>-0.0652448140135802</v>
-      </c>
-      <c r="G133">
-        <v>0.376061697156337</v>
-      </c>
-      <c r="H133">
-        <v>0.0888887012531962</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>specific_factorpersonal responsibility for others:moderator_designCross-sectional</t>
-        </is>
-      </c>
-      <c r="C134">
-        <v>-0.1224683506266019</v>
-      </c>
-      <c r="D134">
-        <v>0.0330672261736789</v>
-      </c>
-      <c r="E134">
-        <v>1.197662325305981</v>
-      </c>
-      <c r="F134">
-        <v>-0.3885803999905032</v>
-      </c>
-      <c r="G134">
-        <v>0.1625010057778672</v>
-      </c>
-      <c r="H134">
-        <v>0.1340665036204481</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>specific_factorPersonal responsibility for others' motivation:moderator_designCross-sectional</t>
-        </is>
-      </c>
-      <c r="C135">
-        <v>-0.1192084189786488</v>
-      </c>
-      <c r="D135">
-        <v>0.11529349749273</v>
-      </c>
-      <c r="E135">
-        <v>1.893788662340678</v>
-      </c>
-      <c r="F135">
-        <v>-0.5672673753577644</v>
-      </c>
-      <c r="G135">
-        <v>0.3833053024381161</v>
-      </c>
-      <c r="H135">
-        <v>0.4131416920946556</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>specific_factorprior positive related experiences:moderator_designCross-sectional</t>
-        </is>
-      </c>
-      <c r="C136">
-        <v>-0.04103787858464197</v>
-      </c>
-      <c r="D136">
-        <v>0.03264702826931136</v>
-      </c>
-      <c r="E136">
-        <v>1.302921911997232</v>
-      </c>
-      <c r="F136">
-        <v>-0.2775314816916116</v>
-      </c>
-      <c r="G136">
-        <v>0.2001450775074504</v>
-      </c>
-      <c r="H136">
-        <v>0.3883826142936884</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>specific_factorself-efficacy:moderator_designCross-sectional</t>
-        </is>
-      </c>
-      <c r="C137">
-        <v>-0.09092033908495004</v>
-      </c>
-      <c r="D137">
-        <v>0.03264702759286001</v>
-      </c>
-      <c r="E137">
-        <v>1.302921911997231</v>
-      </c>
-      <c r="F137">
-        <v>-0.3231108706620313</v>
-      </c>
-      <c r="G137">
-        <v>0.1515949458061519</v>
-      </c>
-      <c r="H137">
-        <v>0.1697028864835363</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>specific_factorSelf-efficacy:moderator_designCross-sectional</t>
-        </is>
-      </c>
-      <c r="C138">
-        <v>-0.08361615964188679</v>
-      </c>
-      <c r="D138">
-        <v>0.06274981021692229</v>
-      </c>
-      <c r="E138">
-        <v>1.026339971982981</v>
-      </c>
-      <c r="F138">
-        <v>-0.6828093397400683</v>
-      </c>
-      <c r="G138">
-        <v>0.5828278848480313</v>
-      </c>
-      <c r="H138">
-        <v>0.4049143452217356</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>specific_factorSocial connection/support:moderator_designCross-sectional</t>
-        </is>
-      </c>
-      <c r="C139">
-        <v>-0.1204230911818032</v>
-      </c>
-      <c r="D139">
-        <v>0.05263751476265509</v>
-      </c>
-      <c r="E139">
-        <v>1.520199669905522</v>
-      </c>
-      <c r="F139">
-        <v>-0.406895916860222</v>
-      </c>
-      <c r="G139">
-        <v>0.1876159046443442</v>
-      </c>
-      <c r="H139">
-        <v>0.1868421058431689</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>specific_factorstyle-related beliefs:moderator_designCross-sectional</t>
-        </is>
-      </c>
-      <c r="C140">
-        <v>0.294107094339209</v>
-      </c>
-      <c r="D140">
-        <v>0.01289818532580291</v>
-      </c>
-      <c r="E140">
-        <v>1.311595800522304</v>
-      </c>
-      <c r="F140">
-        <v>0.2048071066857786</v>
-      </c>
-      <c r="G140">
-        <v>0.3785514212233209</v>
-      </c>
-      <c r="H140">
-        <v>0.01107402148648657</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>specific_factorStyle-related beliefs:moderator_designCross-sectional</t>
-        </is>
-      </c>
-      <c r="C141">
-        <v>0.4913306803840954</v>
-      </c>
-      <c r="D141">
-        <v>2.468637520017745e-17</v>
-      </c>
-      <c r="E141">
-        <v>1</v>
-      </c>
-      <c r="F141">
-        <v>0.4913306803840951</v>
-      </c>
-      <c r="G141">
-        <v>0.4913306803840956</v>
-      </c>
-      <c r="H141">
-        <v>2.922174714703262e-17</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>specific_factorwell-being:moderator_designCross-sectional</t>
-        </is>
-      </c>
-      <c r="C142">
-        <v>-0.1306575372168735</v>
-      </c>
-      <c r="D142">
-        <v>0.03264702766767363</v>
-      </c>
-      <c r="E142">
-        <v>1.302921911997232</v>
-      </c>
-      <c r="F142">
-        <v>-0.3586653449683735</v>
-      </c>
-      <c r="G142">
-        <v>0.1120631977184446</v>
-      </c>
-      <c r="H142">
-        <v>0.1092076160492176</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>specific_factorWell-being:moderator_designCross-sectional</t>
-        </is>
-      </c>
-      <c r="C143">
-        <v>-0.1992619513791371</v>
-      </c>
-      <c r="D143">
-        <v>0.05731022505501352</v>
-      </c>
-      <c r="E143">
-        <v>3.924935332302119</v>
-      </c>
-      <c r="F143">
-        <v>-0.3472294799715895</v>
-      </c>
-      <c r="G143">
-        <v>-0.04161375585108873</v>
-      </c>
-      <c r="H143">
-        <v>0.02513070983973972</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>specific_factorAutonomous causality orientation:moderator_designExperimental (non-randomized)</t>
-        </is>
-      </c>
-      <c r="C144">
-        <v>-0.2400000000000002</v>
-      </c>
-      <c r="D144">
-        <v>4.283944139822548e-17</v>
-      </c>
-      <c r="E144">
-        <v>1</v>
-      </c>
-      <c r="F144">
-        <v>-0.2400000000000007</v>
-      </c>
-      <c r="G144">
-        <v>-0.2399999999999997</v>
-      </c>
-      <c r="H144">
-        <v>1.1141878989976e-16</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>specific_factorControlled causality orientation:moderator_designExperimental (non-randomized)</t>
-        </is>
-      </c>
-      <c r="C145">
-        <v>0.5999999999999998</v>
-      </c>
-      <c r="D145">
-        <v>4.494174016130114e-17</v>
-      </c>
-      <c r="E145">
-        <v>1</v>
-      </c>
-      <c r="F145">
-        <v>0.5999999999999993</v>
-      </c>
-      <c r="G145">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="H145">
-        <v>4.127665984037886e-17</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>specific_factorEmotional intelligence:moderator_designExperimental (non-randomized)</t>
-        </is>
-      </c>
-      <c r="C146">
-        <v>-0.2300000000000003</v>
-      </c>
-      <c r="D146">
-        <v>3.69530048616137e-17</v>
-      </c>
-      <c r="E146">
-        <v>1</v>
-      </c>
-      <c r="F146">
-        <v>-0.2300000000000007</v>
-      </c>
-      <c r="G146">
-        <v>-0.2299999999999998</v>
-      </c>
-      <c r="H146">
-        <v>1.004529104952056e-16</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>specific_factorInternal pressures:moderator_designExperimental (non-randomized)</t>
-        </is>
-      </c>
-      <c r="C147">
-        <v>0.224</v>
-      </c>
-      <c r="D147">
         <v>0</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>specific_factorMastery goals:moderator_designExperimental (non-randomized)</t>
-        </is>
-      </c>
-      <c r="C148">
-        <v>-0.2200000000000003</v>
-      </c>
-      <c r="D148">
-        <v>3.958087831545826e-17</v>
-      </c>
-      <c r="E148">
-        <v>1</v>
-      </c>
-      <c r="F148">
-        <v>-0.2200000000000008</v>
-      </c>
-      <c r="G148">
-        <v>-0.2199999999999998</v>
-      </c>
-      <c r="H148">
-        <v>1.126639010823362e-16</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>specific_factorNeed frustration:moderator_designExperimental (non-randomized)</t>
-        </is>
-      </c>
-      <c r="C149">
-        <v>0.3140000000000001</v>
-      </c>
-      <c r="D149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>specific_factornegative personality:moderator_designExperimental (non-randomized)</t>
-        </is>
-      </c>
-      <c r="C150">
-        <v>0.3600413657543434</v>
-      </c>
-      <c r="D150">
-        <v>4.004175981493176e-17</v>
-      </c>
-      <c r="E150">
-        <v>1</v>
-      </c>
-      <c r="F150">
-        <v>0.3600413657543429</v>
-      </c>
-      <c r="G150">
-        <v>0.3600413657543438</v>
-      </c>
-      <c r="H150">
-        <v>6.762832424232778e-17</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>specific_factorOthers' autonomous motivation:moderator_designExperimental (non-randomized)</t>
-        </is>
-      </c>
-      <c r="C151">
-        <v>-0.1100000000000004</v>
-      </c>
-      <c r="D151">
-        <v>3.272975462281276e-17</v>
-      </c>
-      <c r="E151">
-        <v>1</v>
-      </c>
-      <c r="F151">
-        <v>-0.1100000000000008</v>
-      </c>
-      <c r="G151">
-        <v>-0.11</v>
-      </c>
-      <c r="H151">
-        <v>1.886554168449672e-16</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>specific_factorAutonomous motivation:moderator_designLongitudinal</t>
-        </is>
-      </c>
-      <c r="C152">
-        <v>0.02999999999999999</v>
-      </c>
-      <c r="D152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>specific_factorControlled motivation:moderator_designLongitudinal</t>
-        </is>
-      </c>
-      <c r="C153">
-        <v>0.25</v>
-      </c>
-      <c r="D153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>specific_factorExtrinsic goals:moderator_designLongitudinal</t>
-        </is>
-      </c>
-      <c r="C154">
-        <v>0.5399999999999999</v>
-      </c>
-      <c r="D154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>specific_factorIll-being:moderator_designLongitudinal</t>
-        </is>
-      </c>
-      <c r="C155">
-        <v>0.35</v>
-      </c>
-      <c r="D155">
-        <v>4.174270959455278e-17</v>
-      </c>
-      <c r="E155">
-        <v>1</v>
-      </c>
-      <c r="F155">
-        <v>0.3499999999999995</v>
-      </c>
-      <c r="G155">
-        <v>0.3500000000000005</v>
-      </c>
-      <c r="H155">
-        <v>7.271771365493071e-17</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>specific_factorIntrinsic goals:moderator_designLongitudinal</t>
-        </is>
-      </c>
-      <c r="C156">
-        <v>0.1799999999999999</v>
-      </c>
-      <c r="D156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>specific_factorNeed frustration:moderator_designLongitudinal</t>
-        </is>
-      </c>
-      <c r="C157">
-        <v>0.17</v>
-      </c>
-      <c r="D157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>specific_factorNeed satisfaction:moderator_designLongitudinal</t>
-        </is>
-      </c>
-      <c r="C158">
-        <v>-0.1400000000000001</v>
-      </c>
-      <c r="D158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>specific_factorothers' negative behaviours:moderator_designLongitudinal</t>
-        </is>
-      </c>
-      <c r="C159">
-        <v>0.3000000000000001</v>
-      </c>
-      <c r="D159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>specific_factorothers' negative emotions:moderator_designLongitudinal</t>
-        </is>
-      </c>
-      <c r="C160">
-        <v>0.3011919971946089</v>
-      </c>
-      <c r="D160">
-        <v>3.195083712018991e-17</v>
-      </c>
-      <c r="E160">
-        <v>1</v>
-      </c>
-      <c r="F160">
-        <v>0.3011919971946085</v>
-      </c>
-      <c r="G160">
-        <v>0.3011919971946093</v>
-      </c>
-      <c r="H160">
-        <v>6.543941769237653e-17</v>
       </c>
     </row>
   </sheetData>
@@ -5062,7 +4252,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5117,19 +4307,19 @@
         </is>
       </c>
       <c r="C2">
-        <v>3.605928257740796</v>
+        <v>3.175524278531309</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>6.502883757824852</v>
+        <v>6.709347295486836</v>
       </c>
       <c r="F2">
-        <v>0.009831443702296161</v>
+        <v>0.01649479196342875</v>
       </c>
       <c r="G2">
-        <v>0.09831443702296161</v>
+        <v>0.1704461836220971</v>
       </c>
     </row>
     <row r="3">
@@ -5144,19 +4334,19 @@
         </is>
       </c>
       <c r="C3">
-        <v>0.9748254613209778</v>
+        <v>1.368380136693353</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1.160499835377897</v>
+        <v>1.656237888783084</v>
       </c>
       <c r="F3">
-        <v>0.4894405971182555</v>
+        <v>0.327421040479379</v>
       </c>
       <c r="G3">
-        <v>0.6992008530260793</v>
+        <v>0.7250037324900536</v>
       </c>
     </row>
     <row r="4">
@@ -5171,19 +4361,19 @@
         </is>
       </c>
       <c r="C4">
-        <v>0.1075521204147438</v>
+        <v>0.1944434758536379</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1.644476245101597</v>
+        <v>2.253759292000637</v>
       </c>
       <c r="F4">
-        <v>0.9259946350532825</v>
+        <v>0.8619715548200577</v>
       </c>
       <c r="G4">
-        <v>0.9806052977117552</v>
+        <v>0.9147822490779648</v>
       </c>
     </row>
     <row r="5">
@@ -5194,23 +4384,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>specific_factorill-being:moderator_designExperimental (non-randomized - specific_factorill-being:moderator_designCross-sectional</t>
+          <t>specific_factorIll-being:moderator_designExperimental (non-randomized - specific_factorIll-being:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C5">
-        <v>2.800126672841326</v>
+        <v>2.286510172561661</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>1.601799475998967</v>
+        <v>7.794307966155797</v>
       </c>
       <c r="F5">
-        <v>0.1366421667291508</v>
+        <v>0.05238111921917291</v>
       </c>
       <c r="G5">
-        <v>0.4888530683118223</v>
+        <v>0.3332212755709273</v>
       </c>
     </row>
     <row r="6">
@@ -5221,23 +4411,23 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>specific_factorill-being:moderator_designLongitudinal - specific_factorill-being:moderator_designCross-sectional</t>
+          <t>specific_factorIll-being:moderator_designLongitudinal - specific_factorIll-being:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C6">
-        <v>1.768536415070618</v>
+        <v>0.8750415260704161</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>1.601637378529777</v>
+        <v>2.682490661871199</v>
       </c>
       <c r="F6">
-        <v>0.249108897663932</v>
+        <v>0.4528141338388738</v>
       </c>
       <c r="G6">
-        <v>0.4898685809951718</v>
+        <v>0.7798465638336159</v>
       </c>
     </row>
     <row r="7">
@@ -5248,23 +4438,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>specific_factorill-being:moderator_designLongitudinal - specific_factorill-being:moderator_designExperimental (non-randomized</t>
+          <t>specific_factorIll-being:moderator_designLongitudinal - specific_factorIll-being:moderator_designExperimental (non-randomized</t>
         </is>
       </c>
       <c r="C7">
-        <v>344.4886600654036</v>
+        <v>1.075935304383154</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>1.833207320007496</v>
       </c>
       <c r="F7">
-        <v>0.00184800853556375</v>
+        <v>0.4031101269735813</v>
       </c>
       <c r="G7">
-        <v>0.02772012803345624</v>
+        <v>0.7350831727165306</v>
       </c>
     </row>
     <row r="8">
@@ -5279,19 +4469,19 @@
         </is>
       </c>
       <c r="C8">
-        <v>2.449150664614502</v>
+        <v>2.445025306929014</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>2.512059927005653</v>
+        <v>2.496850353202404</v>
       </c>
       <c r="F8">
-        <v>0.1082957363745391</v>
+        <v>0.1092650685531656</v>
       </c>
       <c r="G8">
-        <v>0.4888530683118223</v>
+        <v>0.4234021406435167</v>
       </c>
     </row>
     <row r="9">
@@ -5306,19 +4496,19 @@
         </is>
       </c>
       <c r="C9">
-        <v>0.314271200373301</v>
+        <v>0.2769234496414358</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>2.489485443865668</v>
+        <v>2.407187650805185</v>
       </c>
       <c r="F9">
-        <v>0.7777573692473985</v>
+        <v>0.8038554217779444</v>
       </c>
       <c r="G9">
-        <v>0.8641748547193316</v>
+        <v>0.9147822490779648</v>
       </c>
     </row>
     <row r="10">
@@ -5333,19 +4523,19 @@
         </is>
       </c>
       <c r="C10">
-        <v>2.082178623041535</v>
+        <v>0.18531517467671</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10">
-        <v>1.820775157747363</v>
+        <v>2.882852174404985</v>
       </c>
       <c r="F10">
-        <v>0.1851646178129933</v>
+        <v>0.8652480633018985</v>
       </c>
       <c r="G10">
-        <v>0.4888530683118223</v>
+        <v>0.9147822490779648</v>
       </c>
     </row>
     <row r="11">
@@ -5360,19 +4550,19 @@
         </is>
       </c>
       <c r="C11">
-        <v>1.306967718877295</v>
+        <v>2.407486682876428</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>3.184532309857949</v>
+        <v>4.145049625940017</v>
       </c>
       <c r="F11">
-        <v>0.277592195897264</v>
+        <v>0.07151703131877245</v>
       </c>
       <c r="G11">
-        <v>0.4898685809951718</v>
+        <v>0.3695046618136577</v>
       </c>
     </row>
     <row r="12">
@@ -5387,19 +4577,19 @@
         </is>
       </c>
       <c r="C12">
-        <v>3.132028345685681</v>
+        <v>4.776120144355462</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>1.419186009353757</v>
+        <v>1.737486321024575</v>
       </c>
       <c r="F12">
-        <v>0.1344106626720164</v>
+        <v>0.05374536702756892</v>
       </c>
       <c r="G12">
-        <v>0.4888530683118223</v>
+        <v>0.3332212755709273</v>
       </c>
     </row>
     <row r="13">
@@ -5414,19 +4604,19 @@
         </is>
       </c>
       <c r="C13">
-        <v>6.229920329046696</v>
+        <v>10.49050187690569</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>2.07528619176321</v>
+        <v>2.344326005323607</v>
       </c>
       <c r="F13">
-        <v>0.02265825822319455</v>
+        <v>0.005060396733165074</v>
       </c>
       <c r="G13">
-        <v>0.1699369366739591</v>
+        <v>0.07843614936405864</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +4631,19 @@
         </is>
       </c>
       <c r="C14">
-        <v>6.958060097948808</v>
+        <v>7.321437696661033</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14">
-        <v>15.65275413590154</v>
+        <v>16.81682596200787</v>
       </c>
       <c r="F14">
-        <v>3.637348319594087e-06</v>
+        <v>1.27419075305687e-06</v>
       </c>
       <c r="G14">
-        <v>0.0001091204495878226</v>
+        <v>3.949991334476298e-05</v>
       </c>
     </row>
     <row r="15">
@@ -5468,19 +4658,19 @@
         </is>
       </c>
       <c r="C15">
-        <v>0.3963979232808876</v>
+        <v>0.4234480261753759</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>1.233729776631014</v>
+        <v>1.28091113513711</v>
       </c>
       <c r="F15">
-        <v>0.7494397208173297</v>
+        <v>0.7320851829350186</v>
       </c>
       <c r="G15">
-        <v>0.8641748547193316</v>
+        <v>0.907785626839423</v>
       </c>
     </row>
     <row r="16">
@@ -5495,19 +4685,19 @@
         </is>
       </c>
       <c r="C16">
-        <v>2.820592126489257</v>
+        <v>2.98637131786396</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>1.098293459954118</v>
+        <v>1.143955800412507</v>
       </c>
       <c r="F16">
-        <v>0.1985352977355007</v>
+        <v>0.1797728785722869</v>
       </c>
       <c r="G16">
-        <v>0.4888530683118223</v>
+        <v>0.5066326577946266</v>
       </c>
     </row>
     <row r="17">
@@ -5518,13 +4708,23 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>specific_factornegative personality:moderator_designExperimental (non-randomized) - specific_factornegative personality:moderator_designCross-sectional</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Inf</t>
-        </is>
+          <t>specific_factorNegative personality:moderator_designExperimental (non-randomized) - specific_factorNegative personality:moderator_designCross-sectional</t>
+        </is>
+      </c>
+      <c r="C17">
+        <v>4.067605374651628</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1.0443212094221</v>
+      </c>
+      <c r="F17">
+        <v>0.1452711691443307</v>
+      </c>
+      <c r="G17">
+        <v>0.4654159555867163</v>
       </c>
     </row>
     <row r="18">
@@ -5539,19 +4739,19 @@
         </is>
       </c>
       <c r="C18">
-        <v>0.5764461627581614</v>
+        <v>0.6233509948189049</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18">
-        <v>4.044968071581092</v>
+        <v>7.532653298883747</v>
       </c>
       <c r="F18">
-        <v>0.5948728605127822</v>
+        <v>0.5514555052337028</v>
       </c>
       <c r="G18">
-        <v>0.7800389114746121</v>
+        <v>0.8483036033439582</v>
       </c>
     </row>
     <row r="19">
@@ -5583,7 +4783,7 @@
         </is>
       </c>
       <c r="C20">
-        <v>2.322473510232636</v>
+        <v>2.430123260482021</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -5592,10 +4792,10 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>0.2588391472872267</v>
+        <v>0.2485250252840805</v>
       </c>
       <c r="G20">
-        <v>0.4898685809951718</v>
+        <v>0.6420229819838746</v>
       </c>
     </row>
     <row r="21">
@@ -5610,7 +4810,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>0.7287739888975284</v>
+        <v>0.7456466205664115</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -5619,10 +4819,10 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>0.5990711966170774</v>
+        <v>0.5921119065136753</v>
       </c>
       <c r="G21">
-        <v>0.7800389114746121</v>
+        <v>0.8483036033439582</v>
       </c>
     </row>
     <row r="22">
@@ -5633,23 +4833,23 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>specific_factorautonomous motivation:moderator_designLongitudinal - specific_factorautonomous motivation:moderator_designCross-sectional</t>
+          <t>specific_factorAutonomous motivation:moderator_designLongitudinal - specific_factorAutonomous motivation:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C22">
-        <v>1.72532535278588</v>
+        <v>0.1794083238182946</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22">
-        <v>2.263331125480923</v>
+        <v>1.081077433992887</v>
       </c>
       <c r="F22">
-        <v>0.2118363296017897</v>
+        <v>0.8852731442689981</v>
       </c>
       <c r="G22">
-        <v>0.4888530683118223</v>
+        <v>0.9147822490779648</v>
       </c>
     </row>
     <row r="23">
@@ -5660,23 +4860,23 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous motivation:moderator_designLongitudinal - specific_factorAutonomous motivation:moderator_designCross-sectional</t>
+          <t>specific_factorControlled motivation:moderator_designLongitudinal - specific_factorControlled motivation:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C23">
-        <v>2.057120482963225</v>
+        <v>1.37151073142219</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23">
-        <v>20.18593196838857</v>
+        <v>1.121911879404106</v>
       </c>
       <c r="F23">
-        <v>0.05282751037974438</v>
+        <v>0.382454454477989</v>
       </c>
       <c r="G23">
-        <v>0.3169650622784663</v>
+        <v>0.7350831727165306</v>
       </c>
     </row>
     <row r="24">
@@ -5687,23 +4887,23 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>specific_factorcontrolled motivation:moderator_designLongitudinal - specific_factorcontrolled motivation:moderator_designCross-sectional</t>
+          <t>specific_factorExternal pressures:moderator_designLongitudinal - specific_factorExternal pressures:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C24">
-        <v>1.660972822511505</v>
+        <v>1.618845216342067</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24">
-        <v>1.54813258186575</v>
+        <v>6.899815590747703</v>
       </c>
       <c r="F24">
-        <v>0.2730912334964955</v>
+        <v>0.1501341792215214</v>
       </c>
       <c r="G24">
-        <v>0.4898685809951718</v>
+        <v>0.4654159555867163</v>
       </c>
     </row>
     <row r="25">
@@ -5714,23 +4914,23 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>specific_factorControlled motivation:moderator_designLongitudinal - specific_factorControlled motivation:moderator_designCross-sectional</t>
+          <t>specific_factorExtrinsic goals:moderator_designLongitudinal - specific_factorExtrinsic goals:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C25">
-        <v>0.8261737049206298</v>
+        <v>7.188150212813524</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25">
-        <v>11.63095145381681</v>
+        <v>1.003858501964696</v>
       </c>
       <c r="F25">
-        <v>0.4253289158284463</v>
+        <v>0.0873940489290021</v>
       </c>
       <c r="G25">
-        <v>0.6379933737426695</v>
+        <v>0.3870307881141522</v>
       </c>
     </row>
     <row r="26">
@@ -5741,23 +4941,23 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressures:moderator_designLongitudinal - specific_factorExternal pressures:moderator_designCross-sectional</t>
+          <t>specific_factorIntrinsic goals:moderator_designLongitudinal - specific_factorIntrinsic goals:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C26">
-        <v>1.053117796192842</v>
+        <v>0.619119990168581</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26">
-        <v>2.265275107499661</v>
+        <v>1.003858501964695</v>
       </c>
       <c r="F26">
-        <v>0.3915032345861802</v>
+        <v>0.6467623301289041</v>
       </c>
       <c r="G26">
-        <v>0.6379933737426695</v>
+        <v>0.8717231406085229</v>
       </c>
     </row>
     <row r="27">
@@ -5768,13 +4968,23 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>specific_factorExtrinsic goals:moderator_designLongitudinal - specific_factorExtrinsic goals:moderator_designCross-sectional</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Inf</t>
-        </is>
+          <t>specific_factorNeed frustration:moderator_designLongitudinal - specific_factorNeed frustration:moderator_designCross-sectional</t>
+        </is>
+      </c>
+      <c r="C27">
+        <v>1.258510844266692</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1.392031181248218</v>
+      </c>
+      <c r="F27">
+        <v>0.379117023421127</v>
+      </c>
+      <c r="G27">
+        <v>0.7350831727165306</v>
       </c>
     </row>
     <row r="28">
@@ -5785,23 +4995,23 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>specific_factorIll-being:moderator_designLongitudinal - specific_factorIll-being:moderator_designCross-sectional</t>
+          <t>specific_factorOthers' abilities:moderator_designLongitudinal - specific_factorOthers' abilities:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C28">
-        <v>0.5760052011715957</v>
+        <v>0.6403646162685065</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28">
-        <v>1.785309386924647</v>
+        <v>1.583711300972457</v>
       </c>
       <c r="F28">
-        <v>0.6288237628827857</v>
+        <v>0.6020219120505509</v>
       </c>
       <c r="G28">
-        <v>0.7800389114746121</v>
+        <v>0.8483036033439582</v>
       </c>
     </row>
     <row r="29">
@@ -5812,13 +5022,23 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>specific_factorIntrinsic goals:moderator_designLongitudinal - specific_factorIntrinsic goals:moderator_designCross-sectional</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Inf</t>
-        </is>
+          <t>specific_factorOthers' negative behaviours:moderator_designLongitudinal - specific_factorOthers' negative behaviours:moderator_designCross-sectional</t>
+        </is>
+      </c>
+      <c r="C29">
+        <v>0.188746104641814</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>2.009441564872473</v>
+      </c>
+      <c r="F29">
+        <v>0.8676368492116132</v>
+      </c>
+      <c r="G29">
+        <v>0.9147822490779648</v>
       </c>
     </row>
     <row r="30">
@@ -5829,23 +5049,23 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>specific_factorNeed frustration:moderator_designLongitudinal - specific_factorNeed frustration:moderator_designCross-sectional</t>
+          <t>specific_factorOthers' positive behaviours:moderator_designLongitudinal - specific_factorOthers' positive behaviours:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C30">
-        <v>1.156085802505165</v>
+        <v>0.4877392323753161</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30">
-        <v>1.377396774954925</v>
+        <v>1.507001889557267</v>
       </c>
       <c r="F30">
-        <v>0.4097774075107196</v>
+        <v>0.6872479299740232</v>
       </c>
       <c r="G30">
-        <v>0.6379933737426695</v>
+        <v>0.8876952428831133</v>
       </c>
     </row>
     <row r="31">
@@ -5856,23 +5076,23 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>specific_factorothers' negative behaviours:moderator_designLongitudinal - specific_factorothers' negative behaviours:moderator_designCross-sectional</t>
+          <t>specific_factorPositive beliefs about knowledge and learning:moderator_designLongitudinal - specific_factorPositive beliefs about knowledge and learning:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C31">
-        <v>0.02727671123267906</v>
+        <v>1.311141077337705</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31">
-        <v>2.105578985827108</v>
+        <v>2.15075683214755</v>
       </c>
       <c r="F31">
-        <v>0.9806052977117552</v>
+        <v>0.3122724270676592</v>
       </c>
       <c r="G31">
-        <v>0.9806052977117552</v>
+        <v>0.7250037324900536</v>
       </c>
     </row>
     <row r="32">
@@ -5883,23 +5103,23 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>specific_factorothers' positive behaviours:moderator_designLongitudinal - specific_factorothers' positive behaviours:moderator_designCross-sectional</t>
+          <t>specific_factorSelf-efficacy:moderator_designLongitudinal - specific_factorSelf-efficacy:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C32">
-        <v>0.0709710212135173</v>
+        <v>0.08595968946701124</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32">
-        <v>1.735017628711881</v>
+        <v>1.287180794346848</v>
       </c>
       <c r="F32">
-        <v>0.9507350019669276</v>
+        <v>0.9428978364946685</v>
       </c>
       <c r="G32">
-        <v>0.9806052977117552</v>
+        <v>0.9428978364946685</v>
       </c>
     </row>
     <row r="33">
@@ -5910,77 +5130,67 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>specific_factorPositive beliefs about knowledge and learning:moderator_designLongitudinal - specific_factorPositive beliefs about knowledge and learning:moderator_designCross-sectional</t>
+          <t>specific_factorSocial connection/support:moderator_designLongitudinal - specific_factorSocial connection/support:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C33">
-        <v>4.037243943325916</v>
+        <v>0.7581604567434284</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33">
-        <v>1.015585080326684</v>
+        <v>1.328349208541767</v>
       </c>
       <c r="F33">
-        <v>0.1516166885631725</v>
+        <v>0.5597643399233887</v>
       </c>
       <c r="G33">
-        <v>0.4888530683118223</v>
+        <v>0.8483036033439582</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>specific_factorself-efficacy:moderator_designLongitudinal - specific_factorself-efficacy:moderator_designCross-sectional</t>
+          <t>specific_factorWell-being:moderator_designCross-sectional - specific_factorWell-being:moderator_designCross-lagged</t>
         </is>
       </c>
       <c r="C34">
-        <v>2.134190020604668</v>
+        <v>1.479764199678801</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34">
-        <v>1.803726997393544</v>
+        <v>4.993834127387244</v>
       </c>
       <c r="F34">
-        <v>0.1800889033075376</v>
+        <v>0.1990771001763329</v>
       </c>
       <c r="G34">
-        <v>0.4888530683118223</v>
+        <v>0.5308722671368877</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>specific_factorSocial connection/support:moderator_designLongitudinal - specific_factorSocial connection/support:moderator_designCross-sectional</t>
-        </is>
-      </c>
-      <c r="C35">
-        <v>0.5707573466756017</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>1.318851355610654</v>
-      </c>
-      <c r="F35">
-        <v>0.6500324262288435</v>
-      </c>
-      <c r="G35">
-        <v>0.7800389114746121</v>
+          <t>specific_factorAutonomous causality orientation:moderator_designExperimental (non-randomized) - specific_factorAutonomous causality orientation:moderator_designCross-sectional</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -5991,23 +5201,13 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>specific_factorWell-being:moderator_designCross-sectional - specific_factorWell-being:moderator_designCross-lagged</t>
-        </is>
-      </c>
-      <c r="C36">
-        <v>1.419177982110642</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>3.924935332302118</v>
-      </c>
-      <c r="F36">
-        <v>0.2301488144156886</v>
-      </c>
-      <c r="G36">
-        <v>0.3885656554235354</v>
+          <t>specific_factorControlled causality orientation:moderator_designExperimental (non-randomized) - specific_factorControlled causality orientation:moderator_designCross-sectional</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -6018,13 +5218,23 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous causality orientation:moderator_designExperimental (non-randomized) - specific_factorAutonomous causality orientation:moderator_designCross-sectional</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Inf</t>
-        </is>
+          <t>specific_factorEmotional intelligence:moderator_designExperimental (non-randomized) - specific_factorEmotional intelligence:moderator_designCross-sectional</t>
+        </is>
+      </c>
+      <c r="C37">
+        <v>0.09368770572957411</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>2.459868939599231</v>
+      </c>
+      <c r="F37">
+        <v>0.9324482296911367</v>
+      </c>
+      <c r="G37">
+        <v>0.9765344486254578</v>
       </c>
     </row>
     <row r="38">
@@ -6035,13 +5245,23 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>specific_factorControlled causality orientation:moderator_designExperimental (non-randomized) - specific_factorControlled causality orientation:moderator_designCross-sectional</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Inf</t>
-        </is>
+          <t>specific_factorInternal pressures:moderator_designExperimental (non-randomized) - specific_factorInternal pressures:moderator_designCross-sectional</t>
+        </is>
+      </c>
+      <c r="C38">
+        <v>1.819350812176209</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1.007454183429207</v>
+      </c>
+      <c r="F38">
+        <v>0.3185498232274478</v>
+      </c>
+      <c r="G38">
+        <v>0.6338068491630463</v>
       </c>
     </row>
     <row r="39">
@@ -6052,23 +5272,23 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>specific_factorEmotional intelligence:moderator_designExperimental (non-randomized) - specific_factorEmotional intelligence:moderator_designCross-sectional</t>
+          <t>specific_factorMastery goals:moderator_designExperimental (non-randomized) - specific_factorMastery goals:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C39">
-        <v>0.7892287220142636</v>
+        <v>2.612271690157519</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39">
-        <v>1.661574223471302</v>
+        <v>1.75632517798953</v>
       </c>
       <c r="F39">
-        <v>0.5268277660333207</v>
+        <v>0.1374092287538588</v>
       </c>
       <c r="G39">
-        <v>0.5795105426366528</v>
+        <v>0.4397095320123483</v>
       </c>
     </row>
     <row r="40">
@@ -6079,23 +5299,23 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>specific_factorInternal pressures:moderator_designExperimental (non-randomized) - specific_factorInternal pressures:moderator_designCross-sectional</t>
+          <t>specific_factorNegative personality:moderator_designExperimental (non-randomized) - specific_factorNegative personality:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C40">
-        <v>2.422476214554217</v>
+        <v>2.946210020032739</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40">
-        <v>1.009883723519094</v>
+        <v>2.029037839293108</v>
       </c>
       <c r="F40">
-        <v>0.2472690534513407</v>
+        <v>0.09681922694353465</v>
       </c>
       <c r="G40">
-        <v>0.3885656554235354</v>
+        <v>0.3872769077741386</v>
       </c>
     </row>
     <row r="41">
@@ -6106,23 +5326,23 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>specific_factorMastery goals:moderator_designExperimental (non-randomized) - specific_factorMastery goals:moderator_designCross-sectional</t>
+          <t>specific_factorOthers' autonomous motivation:moderator_designExperimental (non-randomized) - specific_factorOthers' autonomous motivation:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C41">
-        <v>2.797648805268859</v>
+        <v>0.4388488594636623</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41">
-        <v>1.756610685649191</v>
+        <v>4.12229133755368</v>
       </c>
       <c r="F41">
-        <v>0.1239456261882274</v>
+        <v>0.6827956991592854</v>
       </c>
       <c r="G41">
-        <v>0.3663149089404388</v>
+        <v>0.8096938322688298</v>
       </c>
     </row>
     <row r="42">
@@ -6133,23 +5353,23 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>specific_factorOthers' autonomous motivation:moderator_designExperimental (non-randomized) - specific_factorOthers' autonomous motivation:moderator_designCross-sectional</t>
+          <t>specific_factorAutonomous motivation:moderator_designLongitudinal - specific_factorAutonomous motivation:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C42">
-        <v>2.109267939432522</v>
+        <v>2.910168514886205</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42">
-        <v>1.896877945620699</v>
+        <v>12.39300549192795</v>
       </c>
       <c r="F42">
-        <v>0.1762949798882971</v>
+        <v>0.01269905960867875</v>
       </c>
       <c r="G42">
-        <v>0.3878489557542538</v>
+        <v>0.2031849537388599</v>
       </c>
     </row>
     <row r="43">
@@ -6160,23 +5380,23 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous motivation:moderator_designLongitudinal - specific_factorAutonomous motivation:moderator_designCross-sectional</t>
+          <t>specific_factorControlled motivation:moderator_designLongitudinal - specific_factorControlled motivation:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C43">
-        <v>2.608248200193544</v>
+        <v>2.256825279675448</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43">
-        <v>9.988971664764925</v>
+        <v>10.66428500005642</v>
       </c>
       <c r="F43">
-        <v>0.02614111288179702</v>
+        <v>0.0460597215890814</v>
       </c>
       <c r="G43">
-        <v>0.2875522416997672</v>
+        <v>0.3592449313814295</v>
       </c>
     </row>
     <row r="44">
@@ -6187,23 +5407,23 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>specific_factorControlled motivation:moderator_designLongitudinal - specific_factorControlled motivation:moderator_designCross-sectional</t>
+          <t>specific_factorExtrinsic goals:moderator_designLongitudinal - specific_factorExtrinsic goals:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C44">
-        <v>1.64155768947369</v>
+        <v>0.5379764846352315</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44">
-        <v>9.533924504296095</v>
+        <v>1.010244751347214</v>
       </c>
       <c r="F44">
-        <v>0.1332054214328869</v>
+        <v>0.6850554321565665</v>
       </c>
       <c r="G44">
-        <v>0.3663149089404388</v>
+        <v>0.8096938322688298</v>
       </c>
     </row>
     <row r="45">
@@ -6214,13 +5434,23 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>specific_factorExtrinsic goals:moderator_designLongitudinal - specific_factorExtrinsic goals:moderator_designCross-sectional</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Inf</t>
-        </is>
+          <t>specific_factorIll-being:moderator_designLongitudinal - specific_factorIll-being:moderator_designCross-sectional</t>
+        </is>
+      </c>
+      <c r="C45">
+        <v>0.9911885611311627</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>6.602855538947464</v>
+      </c>
+      <c r="F45">
+        <v>0.3565163526542136</v>
+      </c>
+      <c r="G45">
+        <v>0.6338068491630463</v>
       </c>
     </row>
     <row r="46">
@@ -6231,23 +5461,23 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>specific_factorIll-being:moderator_designLongitudinal - specific_factorIll-being:moderator_designCross-sectional</t>
+          <t>specific_factorIntrinsic goals:moderator_designLongitudinal - specific_factorIntrinsic goals:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C46">
-        <v>0.9228487826346305</v>
+        <v>0.03680387522256</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46">
-        <v>5.659691504143252</v>
+        <v>1.010244751347214</v>
       </c>
       <c r="F46">
-        <v>0.3937273788539898</v>
+        <v>0.9765344486254578</v>
       </c>
       <c r="G46">
-        <v>0.4812223519326543</v>
+        <v>0.9765344486254578</v>
       </c>
     </row>
     <row r="47">
@@ -6258,13 +5488,23 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>specific_factorIntrinsic goals:moderator_designLongitudinal - specific_factorIntrinsic goals:moderator_designCross-sectional</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Inf</t>
-        </is>
+          <t>specific_factorNeed satisfaction:moderator_designLongitudinal - specific_factorNeed satisfaction:moderator_designCross-sectional</t>
+        </is>
+      </c>
+      <c r="C47">
+        <v>0.3857363102046006</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>9.176707452158281</v>
+      </c>
+      <c r="F47">
+        <v>0.7084821032352262</v>
+      </c>
+      <c r="G47">
+        <v>0.8096938322688298</v>
       </c>
     </row>
     <row r="48">
@@ -6275,23 +5515,23 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>specific_factorNeed satisfaction:moderator_designLongitudinal - specific_factorNeed satisfaction:moderator_designCross-sectional</t>
+          <t>specific_factorOthers' abilities:moderator_designLongitudinal - specific_factorOthers' abilities:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C48">
-        <v>0.3201349073330191</v>
+        <v>0.9270281431109243</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48">
-        <v>8.465626478456675</v>
+        <v>1.041151077540826</v>
       </c>
       <c r="F48">
-        <v>0.7566254489654376</v>
+        <v>0.5191353842922952</v>
       </c>
       <c r="G48">
-        <v>0.7566254489654376</v>
+        <v>0.7551060135160658</v>
       </c>
     </row>
     <row r="49">
@@ -6302,23 +5542,23 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>specific_factorothers' negative behaviours:moderator_designLongitudinal - specific_factorothers' negative behaviours:moderator_designCross-sectional</t>
+          <t>specific_factorOthers' negative behaviours:moderator_designLongitudinal - specific_factorOthers' negative behaviours:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C49">
-        <v>3.731079299660095</v>
+        <v>1.195189582490322</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49">
-        <v>1.302160378587405</v>
+        <v>1.014744391680445</v>
       </c>
       <c r="F49">
-        <v>0.1199775848210161</v>
+        <v>0.4413267106914353</v>
       </c>
       <c r="G49">
-        <v>0.3663149089404388</v>
+        <v>0.7061227371062965</v>
       </c>
     </row>
     <row r="50">
@@ -6329,23 +5569,50 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>specific_factorothers' negative emotions:moderator_designLongitudinal - specific_factorothers' negative emotions:moderator_designCross-sectional</t>
+          <t>specific_factorOthers' negative emotions:moderator_designLongitudinal - specific_factorOthers' negative emotions:moderator_designCross-sectional</t>
         </is>
       </c>
       <c r="C50">
-        <v>1.618977535979517</v>
+        <v>3.343449623849682</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50">
-        <v>1.237357323478273</v>
+        <v>2.24378509536447</v>
       </c>
       <c r="F50">
-        <v>0.3155995772312467</v>
+        <v>0.06735842463401805</v>
       </c>
       <c r="G50">
-        <v>0.4339494186929642</v>
+        <v>0.3592449313814295</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>specific_factorOthers' positive behaviours:moderator_designLongitudinal - specific_factorOthers' positive behaviours:moderator_designCross-sectional</t>
+        </is>
+      </c>
+      <c r="C51">
+        <v>1.248774128610792</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>2.012143170144324</v>
+      </c>
+      <c r="F51">
+        <v>0.3374506312140427</v>
+      </c>
+      <c r="G51">
+        <v>0.6338068491630463</v>
       </c>
     </row>
   </sheetData>
@@ -6355,7 +5622,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E140"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6369,15 +5636,20 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>specific_factor</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>moderator_design</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>n_effect_sizes</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>k_studies</t>
         </is>
@@ -6391,14 +5663,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Amotivation</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Cross-sectional</t>
         </is>
       </c>
-      <c r="C2">
-        <v>732</v>
-      </c>
       <c r="D2">
-        <v>65</v>
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -6409,14 +5686,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Experimental (non-randomized)</t>
-        </is>
-      </c>
-      <c r="C3">
-        <v>21</v>
+          <t>Autonomous causality orientation</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -6427,14 +5709,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Longitudinal</t>
-        </is>
-      </c>
-      <c r="C4">
-        <v>65</v>
+          <t>Autonomous causality orientation</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Experimental (non-randomized)</t>
+        </is>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -6445,14 +5732,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Experimental (RCT)</t>
-        </is>
-      </c>
-      <c r="C5">
-        <v>13</v>
+          <t>Autonomous motivation</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>92</v>
+      </c>
+      <c r="E5">
+        <v>23</v>
       </c>
     </row>
     <row r="6">
@@ -6463,85 +5755,110 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cross-lagged</t>
-        </is>
-      </c>
-      <c r="C6">
-        <v>12</v>
+          <t>Autonomous motivation</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Longitudinal</t>
+        </is>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cross-sectional</t>
-        </is>
-      </c>
-      <c r="C7">
-        <v>395</v>
+          <t>Behavioral investment</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Longitudinal</t>
+        </is>
       </c>
       <c r="D7">
-        <v>42</v>
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Experimental (non-randomized)</t>
-        </is>
-      </c>
-      <c r="C8">
-        <v>12</v>
+          <t>Coherence of mind</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Longitudinal</t>
+        </is>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Longitudinal</t>
-        </is>
-      </c>
-      <c r="C9">
-        <v>23</v>
+          <t>Controlled causality orientation</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Cross-lagged</t>
-        </is>
-      </c>
-      <c r="C10">
-        <v>8</v>
+          <t>Controlled causality orientation</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Experimental (non-randomized)</t>
+        </is>
       </c>
       <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
         <v>1</v>
       </c>
     </row>
@@ -6553,13 +5870,2985 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Controlled motivation</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D11">
+        <v>39</v>
+      </c>
+      <c r="E11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Controlled motivation</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Longitudinal</t>
+        </is>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Emotional intelligence</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Longitudinal</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Emotional intelligence</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Emotional intelligence</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Experimental (non-randomized)</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Entity beliefs</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>External pressure in terms of constraints</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>External pressures</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>28</v>
+      </c>
+      <c r="E18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>External pressures</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Longitudinal</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Extrinsic goals</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Longitudinal</t>
+        </is>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Extrinsic goals</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Harmonious passion</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Ill-being</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Longitudinal</t>
+        </is>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Ill-being</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D24">
+        <v>20</v>
+      </c>
+      <c r="E24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Incremental beliefs</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Internal pressures</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Intrinsic goals</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Longitudinal</t>
+        </is>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Intrinsic goals</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Invitation from others' to help</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D29">
+        <v>12</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Job security</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Low Personal responsibility for others' motivation</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Mastery goals</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D32">
+        <v>11</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Mastery goals</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Experimental (non-randomized)</t>
+        </is>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Need frustration</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Longitudinal</t>
+        </is>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Need frustration</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D35">
+        <v>37</v>
+      </c>
+      <c r="E35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Need satisfaction</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Experimental (non-randomized)</t>
+        </is>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Need satisfaction</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D37">
+        <v>90</v>
+      </c>
+      <c r="E37">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Need satisfaction</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Longitudinal</t>
+        </is>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Negative beliefs about knowledge and learning</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D39">
+        <v>19</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Negative beliefs about motivation</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Negative life events</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Longitudinal</t>
+        </is>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Negative personality</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Negative personality</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Experimental (non-randomized)</t>
+        </is>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Obsessive passion</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Opportunitiies for professional development</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Others' abilities</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Longitudinal</t>
+        </is>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Others' abilities</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D47">
+        <v>9</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Others' autonomous motivation</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D48">
+        <v>39</v>
+      </c>
+      <c r="E48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Others' autonomous motivation</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Experimental (non-randomized)</t>
+        </is>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Others' controlled motivation</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D50">
+        <v>6</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Others' negative behaviours</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Longitudinal</t>
+        </is>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Others' negative behaviours</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D52">
+        <v>9</v>
+      </c>
+      <c r="E52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Others' negative emotions</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D53">
+        <v>11</v>
+      </c>
+      <c r="E53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Others' positive behaviours</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D54">
+        <v>11</v>
+      </c>
+      <c r="E54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Others' positive behaviours</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Longitudinal</t>
+        </is>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Others' positive emotions</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D56">
+        <v>10</v>
+      </c>
+      <c r="E56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Performance goals</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D57">
+        <v>12</v>
+      </c>
+      <c r="E57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Personal responsibility for others' motivation</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D58">
+        <v>14</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Personal responsibility for others' motivation motivation</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D59">
+        <v>4</v>
+      </c>
+      <c r="E59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Positive beliefs about knowledge and learning</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D60">
+        <v>4</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Positive beliefs about knowledge and learning</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Longitudinal</t>
+        </is>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Positive beliefs about motivation</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Positive personality</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Prior positive related experiences</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D64">
+        <v>6</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Self-efficacy</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D65">
+        <v>33</v>
+      </c>
+      <c r="E65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Self-efficacy</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Longitudinal</t>
+        </is>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Social connection/support</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Longitudinal</t>
+        </is>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Social connection/support</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D68">
+        <v>23</v>
+      </c>
+      <c r="E68">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Style-related beliefs</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Experimental (RCT)</t>
+        </is>
+      </c>
+      <c r="D69">
+        <v>13</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Style-related beliefs</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Experimental (non-randomized)</t>
+        </is>
+      </c>
+      <c r="D70">
+        <v>6</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Style-related beliefs</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Well-being</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D72">
+        <v>21</v>
+      </c>
+      <c r="E72">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Well-being</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Longitudinal</t>
+        </is>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Well-being</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Cross-lagged</t>
+        </is>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Amotivation</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D75">
+        <v>8</v>
+      </c>
+      <c r="E75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Autonomous causality orientation</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D76">
+        <v>4</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Autonomous causality orientation</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Experimental (non-randomized)</t>
+        </is>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Autonomous motivation</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D78">
+        <v>46</v>
+      </c>
+      <c r="E78">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Autonomous motivation</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Longitudinal</t>
+        </is>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Controlled causality orientation</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D80">
+        <v>4</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Controlled causality orientation</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Experimental (non-randomized)</t>
+        </is>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Controlled motivation</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D82">
+        <v>24</v>
+      </c>
+      <c r="E82">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Controlled motivation</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Longitudinal</t>
+        </is>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Emotional intelligence</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D84">
+        <v>14</v>
+      </c>
+      <c r="E84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Emotional intelligence</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Experimental (non-randomized)</t>
+        </is>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Entity beliefs</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+      <c r="E86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>External pressure in terms of constraints</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D87">
+        <v>8</v>
+      </c>
+      <c r="E87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>External pressures</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D88">
+        <v>5</v>
+      </c>
+      <c r="E88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Extrinsic goals</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Longitudinal</t>
+        </is>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Extrinsic goals</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D90">
+        <v>4</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Harmonious passion</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D91">
+        <v>4</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Ill-being</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Longitudinal</t>
+        </is>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Ill-being</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D93">
+        <v>15</v>
+      </c>
+      <c r="E93">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Incremental beliefs</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Internal pressures</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Experimental (non-randomized)</t>
+        </is>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Internal pressures</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Intrinsic goals</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Longitudinal</t>
+        </is>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Intrinsic goals</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D98">
+        <v>4</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Invitation from others' to help</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D99">
+        <v>4</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Job security</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Low Personal responsibility for others' motivation</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D101">
+        <v>2</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Mastery goals</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D102">
+        <v>4</v>
+      </c>
+      <c r="E102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Mastery goals</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Experimental (non-randomized)</t>
+        </is>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Need frustration</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D104">
+        <v>39</v>
+      </c>
+      <c r="E104">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Need frustration</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Experimental (non-randomized)</t>
+        </is>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Need frustration</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Longitudinal</t>
+        </is>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Need satisfaction</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D107">
+        <v>47</v>
+      </c>
+      <c r="E107">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Need satisfaction</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Longitudinal</t>
+        </is>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Negative personality</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D109">
+        <v>7</v>
+      </c>
+      <c r="E109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Negative personality</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Experimental (non-randomized)</t>
+        </is>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Obsessive passion</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D111">
+        <v>4</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Opportunitiies for professional development</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Others' abilities</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Longitudinal</t>
+        </is>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Others' abilities</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D114">
+        <v>7</v>
+      </c>
+      <c r="E114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Others' autonomous motivation</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D115">
+        <v>9</v>
+      </c>
+      <c r="E115">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Others' autonomous motivation</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Experimental (non-randomized)</t>
+        </is>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Others' controlled motivation</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D117">
+        <v>4</v>
+      </c>
+      <c r="E117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Others' negative behaviours</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Longitudinal</t>
+        </is>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Others' negative behaviours</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D119">
+        <v>3</v>
+      </c>
+      <c r="E119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Others' negative emotions</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Longitudinal</t>
+        </is>
+      </c>
+      <c r="D120">
+        <v>2</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Others' negative emotions</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D121">
+        <v>10</v>
+      </c>
+      <c r="E121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Others' positive behaviours</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Others' positive behaviours</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Longitudinal</t>
+        </is>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Others' positive emotions</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D124">
+        <v>4</v>
+      </c>
+      <c r="E124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Performance goals</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D125">
+        <v>5</v>
+      </c>
+      <c r="E125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Personal responsibility for others' motivation</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D126">
+        <v>10</v>
+      </c>
+      <c r="E126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Personal responsibility for others' motivation motivation</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D127">
+        <v>4</v>
+      </c>
+      <c r="E127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Positive beliefs about knowledge and learning</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Prior positive related experiences</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D129">
+        <v>2</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Self-efficacy</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D130">
+        <v>7</v>
+      </c>
+      <c r="E130">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Social connection/support</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D131">
+        <v>19</v>
+      </c>
+      <c r="E131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Style-related beliefs</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D132">
+        <v>5</v>
+      </c>
+      <c r="E132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Well-being</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Cross-lagged</t>
+        </is>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Well-being</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D134">
+        <v>11</v>
+      </c>
+      <c r="E134">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Ill-being</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
           <t>Experimental (non-randomized</t>
         </is>
       </c>
-      <c r="C11">
+      <c r="D135">
         <v>2</v>
       </c>
-      <c r="D11">
+      <c r="E135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Negative beliefs (religious)</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D136">
+        <v>4</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Positive attitudes</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D137">
+        <v>2</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Positive beliefs (religious)</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D138">
+        <v>4</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Social competence</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D139">
+        <v>4</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Negative beliefs about motivation</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Cross-sectional</t>
+        </is>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="E140">
         <v>1</v>
       </c>
     </row>
